--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>1.8</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>2.51</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>2.33</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>2.33</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
         <v>2.82</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU27" t="n">
         <v>1.73</v>
@@ -6178,7 +6178,7 @@
         <v>2.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -6584,7 +6584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>1.67</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT42" t="n">
         <v>3</v>
@@ -9226,7 +9226,7 @@
         <v>0.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.88</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT46" t="n">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT47" t="n">
         <v>2</v>
@@ -11308,6 +11308,2036 @@
       </c>
       <c r="BK53" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5750660</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45035.79166666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['37', '90+6']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5750662</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45035.875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['18', '36', '52', '61']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['6', '41']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5750663</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45035.89583333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['15', '38']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V56" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5750664</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45035.89583333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>8</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5750661</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45035.91666666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V58" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5750665</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45035.95833333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['37', '75']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>9</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5750666</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45036.79166666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['12', '17', '86']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['48', '56']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V60" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5750667</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45036.875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['28', '38', '59']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" t="n">
+        <v>12</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>7</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5750668</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45036.875</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['64', '76']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>8</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5750669</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45036.95833333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['46', '71']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>11</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>6</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU8" t="n">
         <v>1.8</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU10" t="n">
         <v>2.51</v>
@@ -2933,7 +2933,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>2.33</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU24" t="n">
         <v>2.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU25" t="n">
         <v>1.96</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU26" t="n">
         <v>2.82</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU27" t="n">
         <v>1.73</v>
@@ -6178,7 +6178,7 @@
         <v>2.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6584,7 +6584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>1.67</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>3</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT42" t="n">
         <v>3</v>
@@ -9226,7 +9226,7 @@
         <v>0.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT45" t="n">
         <v>1.5</v>
@@ -9835,7 +9835,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT51" t="n">
         <v>0.5</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11456,10 +11456,10 @@
         <v>1.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,10 +11659,10 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12471,10 +12471,10 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>3</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13338,6 +13338,2442 @@
       </c>
       <c r="BK63" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5750671</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45048.79166666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['79', '90+1']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>8</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5750670</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45048.79166666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['48', '76']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['45+1', '60']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>12</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5750672</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45048.875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['29', '53', '75', '86', '90+1']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5750673</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45048.875</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['26', '65']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['48', '78']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>9</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>14</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5750674</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45048.875</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['22', '52']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>6</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5750675</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45048.95833333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>9</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>11</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5750676</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['11', '83']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['38', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>10</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>11</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>6</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5750677</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['18', '23', '25', '49']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5750678</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45049.875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['13', '65']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>7</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>9</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5750679</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45049.89583333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['59', '68']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>9</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V73" t="n">
+        <v>10</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>32</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5750680</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45049.89583333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['45+3', '47']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5750681</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45049.95833333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['1', '25', '34', '45']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['15', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>8</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>2.33</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.88</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT46" t="n">
         <v>2.33</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1.67</v>
@@ -10647,7 +10647,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>2.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>1.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1.57</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>3</v>
       </c>
       <c r="AS60" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>2.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.33</v>
@@ -15432,13 +15432,13 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R74" t="n">
         <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T74" t="n">
         <v>4.33</v>
@@ -15774,6 +15774,818 @@
       </c>
       <c r="BK75" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5750682</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45050.79166666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['4', '59', '70', '86']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5750683</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45050.79166666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>6</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5750684</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45050.875</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['52', '65']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5750685</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45050.95833333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['20', '41']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" t="n">
+        <v>14</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU10" t="n">
         <v>2.51</v>
@@ -2933,7 +2933,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>2.33</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU24" t="n">
         <v>2.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.96</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU26" t="n">
         <v>2.82</v>
@@ -6178,7 +6178,7 @@
         <v>2.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6584,7 +6584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>1.67</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.88</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT47" t="n">
         <v>1.67</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>1.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11456,10 +11456,10 @@
         <v>1.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -12471,10 +12471,10 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>3</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.8</v>
@@ -13689,10 +13689,10 @@
         <v>3</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU65" t="n">
         <v>1.04</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1.67</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.4</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU70" t="n">
         <v>2.51</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT71" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU72" t="n">
         <v>2.51</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.69</v>
@@ -15516,10 +15516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU76" t="n">
         <v>1.26</v>
@@ -16125,10 +16125,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU77" t="n">
         <v>1.4</v>
@@ -16328,10 +16328,10 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU78" t="n">
         <v>2.11</v>
@@ -16531,10 +16531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.79</v>
@@ -16586,6 +16586,2442 @@
       </c>
       <c r="BK79" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5750687</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45069.79166666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['68', '87']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>8</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5750686</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45069.79166666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>6</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5750688</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45069.875</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5750689</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45069.875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['2', '69']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>8</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5750690</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45069.875</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['25', '68']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>8</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5750691</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45069.95833333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['45+2', '55']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>11</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5750701</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45070.79166666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['25', '58', '68']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6</v>
+      </c>
+      <c r="T86" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5750692</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45070.79166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CSD Independiente del Valle</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5750694</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45070.875</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7</v>
+      </c>
+      <c r="S88" t="n">
+        <v>13</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5750695</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45070.89583333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>8</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>11</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5750696</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45070.89583333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>11</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5750697</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45070.95833333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU8" t="n">
         <v>1.8</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU27" t="n">
         <v>1.73</v>
@@ -6787,7 +6787,7 @@
         <v>1.67</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
         <v>2.5</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -10038,7 +10038,7 @@
         <v>0.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>2.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.35</v>
@@ -14501,10 +14501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.48</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.75</v>
@@ -15922,7 +15922,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -19022,6 +19022,818 @@
       </c>
       <c r="BK91" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5750693</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45071.79166666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['9', '76']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>11</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>13</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5750698</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45071.79166666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>8</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5750699</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45071.875</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['17', '30']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>6</v>
+      </c>
+      <c r="T94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5750700</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45071.875</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7</v>
+      </c>
+      <c r="S95" t="n">
+        <v>8</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,36 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['8', '13', '22', '41', '58']</t>
+  </si>
+  <si>
+    <t>['5', '48']</t>
+  </si>
+  <si>
+    <t>['61', '90+5']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['17', '24', '69']</t>
+  </si>
+  <si>
+    <t>['49', '90+7']</t>
+  </si>
+  <si>
+    <t>['46', '58', '70', '86']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -574,12 +604,6 @@
     <t>['39']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['19', '87']</t>
   </si>
   <si>
@@ -619,9 +643,6 @@
     <t>['16', '54']</t>
   </si>
   <si>
-    <t>['13']</t>
-  </si>
-  <si>
     <t>['35', '59', '81']</t>
   </si>
   <si>
@@ -710,6 +731,12 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['33', '38']</t>
+  </si>
+  <si>
+    <t>['23', '80']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1342,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1506,7 +1533,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1697,7 +1724,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1888,7 +1915,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2079,7 +2106,7 @@
         <v>116</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2551,7 +2578,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU8">
         <v>1.8</v>
@@ -2742,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2843,7 +2870,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3315,7 +3342,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4076,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -4180,7 +4207,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4267,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="AS17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4562,7 +4589,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4753,7 +4780,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4840,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -4944,7 +4971,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5135,7 +5162,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5517,7 +5544,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5708,7 +5735,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5798,7 +5825,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU25">
         <v>1.96</v>
@@ -5899,7 +5926,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5989,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU26">
         <v>2.82</v>
@@ -6180,7 +6207,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU27">
         <v>1.73</v>
@@ -6559,7 +6586,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6663,7 +6690,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6750,7 +6777,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6941,7 +6968,7 @@
         <v>1.67</v>
       </c>
       <c r="AS31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7132,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7236,7 +7263,7 @@
         <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7323,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7514,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7618,7 +7645,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7708,7 +7735,7 @@
         <v>1.88</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7809,7 +7836,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -7899,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8000,7 +8027,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8087,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT37">
         <v>2.5</v>
@@ -8191,7 +8218,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8278,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT38">
         <v>1.25</v>
@@ -8382,7 +8409,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8573,7 +8600,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8660,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8764,7 +8791,7 @@
         <v>141</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8851,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8955,7 +8982,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9042,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT42">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9146,7 +9173,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9233,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9337,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9424,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9528,7 +9555,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9615,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>1.88</v>
@@ -9806,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9910,7 +9937,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9997,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT47">
         <v>2</v>
@@ -10188,10 +10215,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10379,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT49">
         <v>0</v>
@@ -10573,7 +10600,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10674,7 +10701,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10761,10 +10788,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT51">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -10865,7 +10892,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10952,10 +10979,10 @@
         <v>1.6</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11143,10 +11170,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11247,7 +11274,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11334,7 +11361,7 @@
         <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
         <v>1.88</v>
@@ -11438,7 +11465,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11525,10 +11552,10 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11820,7 +11847,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11907,10 +11934,10 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12098,10 +12125,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12202,7 +12229,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12289,10 +12316,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT59">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12393,7 +12420,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12483,7 +12510,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12584,7 +12611,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12674,7 +12701,7 @@
         <v>2.5</v>
       </c>
       <c r="AT61">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -12775,7 +12802,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -12862,10 +12889,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -12966,7 +12993,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13053,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13157,7 +13184,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13247,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU64">
         <v>1.8</v>
@@ -13348,7 +13375,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13435,10 +13462,10 @@
         <v>3</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU65">
         <v>1.04</v>
@@ -13539,7 +13566,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13626,10 +13653,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -13730,7 +13757,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13921,7 +13948,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14008,10 +14035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU68">
         <v>1.4</v>
@@ -14199,10 +14226,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU69">
         <v>1.48</v>
@@ -14303,7 +14330,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14390,10 +14417,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU70">
         <v>2.51</v>
@@ -14494,7 +14521,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14581,10 +14608,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT71">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14685,7 +14712,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14772,10 +14799,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>2.51</v>
@@ -14963,10 +14990,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.69</v>
@@ -15067,7 +15094,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15154,10 +15181,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT74">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15258,7 +15285,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15449,7 +15476,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15536,10 +15563,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT76">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU76">
         <v>1.26</v>
@@ -15640,7 +15667,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15831,7 +15858,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15918,10 +15945,10 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>2.11</v>
@@ -16109,10 +16136,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.79</v>
@@ -16300,10 +16327,10 @@
         <v>2.33</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU80">
         <v>2.18</v>
@@ -16404,7 +16431,7 @@
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16491,10 +16518,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>1.13</v>
@@ -16682,10 +16709,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU82">
         <v>2.02</v>
@@ -16786,7 +16813,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16873,7 +16900,7 @@
         <v>2.33</v>
       </c>
       <c r="AS83">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT83">
         <v>2.5</v>
@@ -16977,7 +17004,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17067,7 +17094,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU84">
         <v>1.49</v>
@@ -17168,7 +17195,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17255,10 +17282,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>1.27</v>
@@ -17359,7 +17386,7 @@
         <v>117</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17446,10 +17473,10 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT86">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU86">
         <v>1.71</v>
@@ -17637,10 +17664,10 @@
         <v>2</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU87">
         <v>1.11</v>
@@ -17828,10 +17855,10 @@
         <v>2.33</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -18019,10 +18046,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>1.92</v>
@@ -18123,7 +18150,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18314,7 +18341,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18401,7 +18428,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT91">
         <v>2.5</v>
@@ -18505,7 +18532,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18592,7 +18619,7 @@
         <v>1.67</v>
       </c>
       <c r="AS92">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT92">
         <v>2</v>
@@ -18783,10 +18810,10 @@
         <v>3</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -18887,7 +18914,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18977,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19078,7 +19105,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19165,10 +19192,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU95">
         <v>1.65</v>
@@ -19220,6 +19247,2489 @@
       </c>
       <c r="BK95">
         <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5750703</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45083.79166666666</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>94</v>
+      </c>
+      <c r="H96" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>182</v>
+      </c>
+      <c r="P96" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96">
+        <v>9</v>
+      </c>
+      <c r="T96">
+        <v>3.85</v>
+      </c>
+      <c r="U96">
+        <v>2.04</v>
+      </c>
+      <c r="V96">
+        <v>2.87</v>
+      </c>
+      <c r="W96">
+        <v>1.45</v>
+      </c>
+      <c r="X96">
+        <v>2.75</v>
+      </c>
+      <c r="Y96">
+        <v>3.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.35</v>
+      </c>
+      <c r="AA96">
+        <v>8</v>
+      </c>
+      <c r="AB96">
+        <v>1.06</v>
+      </c>
+      <c r="AC96">
+        <v>3.12</v>
+      </c>
+      <c r="AD96">
+        <v>3.3</v>
+      </c>
+      <c r="AE96">
+        <v>2.3</v>
+      </c>
+      <c r="AF96">
+        <v>1.06</v>
+      </c>
+      <c r="AG96">
+        <v>10</v>
+      </c>
+      <c r="AH96">
+        <v>1.36</v>
+      </c>
+      <c r="AI96">
+        <v>3.1</v>
+      </c>
+      <c r="AJ96">
+        <v>2.2</v>
+      </c>
+      <c r="AK96">
+        <v>1.67</v>
+      </c>
+      <c r="AL96">
+        <v>1.8</v>
+      </c>
+      <c r="AM96">
+        <v>1.91</v>
+      </c>
+      <c r="AN96">
+        <v>1.66</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.36</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.75</v>
+      </c>
+      <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>1.4</v>
+      </c>
+      <c r="AU96">
+        <v>1.35</v>
+      </c>
+      <c r="AV96">
+        <v>1.22</v>
+      </c>
+      <c r="AW96">
+        <v>2.57</v>
+      </c>
+      <c r="AX96">
+        <v>1.91</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>2.1</v>
+      </c>
+      <c r="BA96">
+        <v>1.33</v>
+      </c>
+      <c r="BB96">
+        <v>1.68</v>
+      </c>
+      <c r="BC96">
+        <v>2.11</v>
+      </c>
+      <c r="BD96">
+        <v>2.39</v>
+      </c>
+      <c r="BE96">
+        <v>3.84</v>
+      </c>
+      <c r="BF96">
+        <v>10</v>
+      </c>
+      <c r="BG96">
+        <v>5</v>
+      </c>
+      <c r="BH96">
+        <v>6</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>16</v>
+      </c>
+      <c r="BK96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5750702</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45083.79166666666</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>100</v>
+      </c>
+      <c r="H97" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>178</v>
+      </c>
+      <c r="P97" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <v>7</v>
+      </c>
+      <c r="T97">
+        <v>2.3</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>5.25</v>
+      </c>
+      <c r="W97">
+        <v>1.47</v>
+      </c>
+      <c r="X97">
+        <v>2.45</v>
+      </c>
+      <c r="Y97">
+        <v>3.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.31</v>
+      </c>
+      <c r="AA97">
+        <v>8.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.06</v>
+      </c>
+      <c r="AC97">
+        <v>1.71</v>
+      </c>
+      <c r="AD97">
+        <v>3.64</v>
+      </c>
+      <c r="AE97">
+        <v>5.05</v>
+      </c>
+      <c r="AF97">
+        <v>1.08</v>
+      </c>
+      <c r="AG97">
+        <v>8</v>
+      </c>
+      <c r="AH97">
+        <v>1.42</v>
+      </c>
+      <c r="AI97">
+        <v>2.8</v>
+      </c>
+      <c r="AJ97">
+        <v>2.1</v>
+      </c>
+      <c r="AK97">
+        <v>1.75</v>
+      </c>
+      <c r="AL97">
+        <v>2.1</v>
+      </c>
+      <c r="AM97">
+        <v>1.63</v>
+      </c>
+      <c r="AN97">
+        <v>1.15</v>
+      </c>
+      <c r="AO97">
+        <v>1.29</v>
+      </c>
+      <c r="AP97">
+        <v>2.1</v>
+      </c>
+      <c r="AQ97">
+        <v>1.75</v>
+      </c>
+      <c r="AR97">
+        <v>1.5</v>
+      </c>
+      <c r="AS97">
+        <v>2</v>
+      </c>
+      <c r="AT97">
+        <v>1.2</v>
+      </c>
+      <c r="AU97">
+        <v>1.02</v>
+      </c>
+      <c r="AV97">
+        <v>1.23</v>
+      </c>
+      <c r="AW97">
+        <v>2.25</v>
+      </c>
+      <c r="AX97">
+        <v>1.59</v>
+      </c>
+      <c r="AY97">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97">
+        <v>2.78</v>
+      </c>
+      <c r="BA97">
+        <v>1.22</v>
+      </c>
+      <c r="BB97">
+        <v>1.33</v>
+      </c>
+      <c r="BC97">
+        <v>1.65</v>
+      </c>
+      <c r="BD97">
+        <v>2</v>
+      </c>
+      <c r="BE97">
+        <v>2.5</v>
+      </c>
+      <c r="BF97">
+        <v>8</v>
+      </c>
+      <c r="BG97">
+        <v>3</v>
+      </c>
+      <c r="BH97">
+        <v>4</v>
+      </c>
+      <c r="BI97">
+        <v>6</v>
+      </c>
+      <c r="BJ97">
+        <v>12</v>
+      </c>
+      <c r="BK97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5750704</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45083.875</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H98" t="s">
+        <v>106</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>183</v>
+      </c>
+      <c r="P98" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>2.2</v>
+      </c>
+      <c r="U98">
+        <v>2.1</v>
+      </c>
+      <c r="V98">
+        <v>7</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>2.63</v>
+      </c>
+      <c r="Y98">
+        <v>3.25</v>
+      </c>
+      <c r="Z98">
+        <v>1.33</v>
+      </c>
+      <c r="AA98">
+        <v>10</v>
+      </c>
+      <c r="AB98">
+        <v>1.06</v>
+      </c>
+      <c r="AC98">
+        <v>1.59</v>
+      </c>
+      <c r="AD98">
+        <v>3.78</v>
+      </c>
+      <c r="AE98">
+        <v>6.1</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>9.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.38</v>
+      </c>
+      <c r="AI98">
+        <v>3</v>
+      </c>
+      <c r="AJ98">
+        <v>2.2</v>
+      </c>
+      <c r="AK98">
+        <v>1.67</v>
+      </c>
+      <c r="AL98">
+        <v>2.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.57</v>
+      </c>
+      <c r="AN98">
+        <v>1.11</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>2.4</v>
+      </c>
+      <c r="AQ98">
+        <v>1.75</v>
+      </c>
+      <c r="AR98">
+        <v>1.25</v>
+      </c>
+      <c r="AS98">
+        <v>2</v>
+      </c>
+      <c r="AT98">
+        <v>1</v>
+      </c>
+      <c r="AU98">
+        <v>1.72</v>
+      </c>
+      <c r="AV98">
+        <v>1.62</v>
+      </c>
+      <c r="AW98">
+        <v>3.34</v>
+      </c>
+      <c r="AX98">
+        <v>1.23</v>
+      </c>
+      <c r="AY98">
+        <v>7.25</v>
+      </c>
+      <c r="AZ98">
+        <v>4.9</v>
+      </c>
+      <c r="BA98">
+        <v>1.29</v>
+      </c>
+      <c r="BB98">
+        <v>1.63</v>
+      </c>
+      <c r="BC98">
+        <v>2</v>
+      </c>
+      <c r="BD98">
+        <v>2.5</v>
+      </c>
+      <c r="BE98">
+        <v>3.42</v>
+      </c>
+      <c r="BF98">
+        <v>7</v>
+      </c>
+      <c r="BG98">
+        <v>2</v>
+      </c>
+      <c r="BH98">
+        <v>7</v>
+      </c>
+      <c r="BI98">
+        <v>3</v>
+      </c>
+      <c r="BJ98">
+        <v>14</v>
+      </c>
+      <c r="BK98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5750705</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45083.875</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>95</v>
+      </c>
+      <c r="H99" t="s">
+        <v>88</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>184</v>
+      </c>
+      <c r="P99" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>2.38</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>5.5</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.63</v>
+      </c>
+      <c r="Y99">
+        <v>3.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.33</v>
+      </c>
+      <c r="AA99">
+        <v>9</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>1.71</v>
+      </c>
+      <c r="AD99">
+        <v>3.68</v>
+      </c>
+      <c r="AE99">
+        <v>5</v>
+      </c>
+      <c r="AF99">
+        <v>1.07</v>
+      </c>
+      <c r="AG99">
+        <v>7.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.36</v>
+      </c>
+      <c r="AI99">
+        <v>3.18</v>
+      </c>
+      <c r="AJ99">
+        <v>2.1</v>
+      </c>
+      <c r="AK99">
+        <v>1.73</v>
+      </c>
+      <c r="AL99">
+        <v>2.05</v>
+      </c>
+      <c r="AM99">
+        <v>1.7</v>
+      </c>
+      <c r="AN99">
+        <v>1.17</v>
+      </c>
+      <c r="AO99">
+        <v>1.28</v>
+      </c>
+      <c r="AP99">
+        <v>2.12</v>
+      </c>
+      <c r="AQ99">
+        <v>0.25</v>
+      </c>
+      <c r="AR99">
+        <v>0.75</v>
+      </c>
+      <c r="AS99">
+        <v>0.8</v>
+      </c>
+      <c r="AT99">
+        <v>0.6</v>
+      </c>
+      <c r="AU99">
+        <v>1.87</v>
+      </c>
+      <c r="AV99">
+        <v>1.03</v>
+      </c>
+      <c r="AW99">
+        <v>2.9</v>
+      </c>
+      <c r="AX99">
+        <v>1.35</v>
+      </c>
+      <c r="AY99">
+        <v>6.5</v>
+      </c>
+      <c r="AZ99">
+        <v>3.75</v>
+      </c>
+      <c r="BA99">
+        <v>1.26</v>
+      </c>
+      <c r="BB99">
+        <v>1.57</v>
+      </c>
+      <c r="BC99">
+        <v>1.92</v>
+      </c>
+      <c r="BD99">
+        <v>2.36</v>
+      </c>
+      <c r="BE99">
+        <v>3.28</v>
+      </c>
+      <c r="BF99">
+        <v>12</v>
+      </c>
+      <c r="BG99">
+        <v>3</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>5</v>
+      </c>
+      <c r="BJ99">
+        <v>19</v>
+      </c>
+      <c r="BK99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5750706</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45083.875</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>117</v>
+      </c>
+      <c r="P100" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q100">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>5</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>2.38</v>
+      </c>
+      <c r="W100">
+        <v>1.4</v>
+      </c>
+      <c r="X100">
+        <v>2.75</v>
+      </c>
+      <c r="Y100">
+        <v>3</v>
+      </c>
+      <c r="Z100">
+        <v>1.36</v>
+      </c>
+      <c r="AA100">
+        <v>8</v>
+      </c>
+      <c r="AB100">
+        <v>1.08</v>
+      </c>
+      <c r="AC100">
+        <v>4.7</v>
+      </c>
+      <c r="AD100">
+        <v>3.68</v>
+      </c>
+      <c r="AE100">
+        <v>1.75</v>
+      </c>
+      <c r="AF100">
+        <v>1.05</v>
+      </c>
+      <c r="AG100">
+        <v>10</v>
+      </c>
+      <c r="AH100">
+        <v>1.33</v>
+      </c>
+      <c r="AI100">
+        <v>3.3</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.85</v>
+      </c>
+      <c r="AL100">
+        <v>1.95</v>
+      </c>
+      <c r="AM100">
+        <v>1.8</v>
+      </c>
+      <c r="AN100">
+        <v>2.05</v>
+      </c>
+      <c r="AO100">
+        <v>1.28</v>
+      </c>
+      <c r="AP100">
+        <v>1.18</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>1.75</v>
+      </c>
+      <c r="AS100">
+        <v>0.8</v>
+      </c>
+      <c r="AT100">
+        <v>1.89</v>
+      </c>
+      <c r="AU100">
+        <v>1.76</v>
+      </c>
+      <c r="AV100">
+        <v>1.74</v>
+      </c>
+      <c r="AW100">
+        <v>3.5</v>
+      </c>
+      <c r="AX100">
+        <v>3.16</v>
+      </c>
+      <c r="AY100">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100">
+        <v>1.51</v>
+      </c>
+      <c r="BA100">
+        <v>1.21</v>
+      </c>
+      <c r="BB100">
+        <v>1.3</v>
+      </c>
+      <c r="BC100">
+        <v>1.63</v>
+      </c>
+      <c r="BD100">
+        <v>1.98</v>
+      </c>
+      <c r="BE100">
+        <v>2.48</v>
+      </c>
+      <c r="BF100">
+        <v>2</v>
+      </c>
+      <c r="BG100">
+        <v>4</v>
+      </c>
+      <c r="BH100">
+        <v>5</v>
+      </c>
+      <c r="BI100">
+        <v>4</v>
+      </c>
+      <c r="BJ100">
+        <v>7</v>
+      </c>
+      <c r="BK100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5750707</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45083.95833333334</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" t="s">
+        <v>76</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>185</v>
+      </c>
+      <c r="P101" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>2.1</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>5.5</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.5</v>
+      </c>
+      <c r="Z101">
+        <v>1.5</v>
+      </c>
+      <c r="AA101">
+        <v>6.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.11</v>
+      </c>
+      <c r="AC101">
+        <v>1.47</v>
+      </c>
+      <c r="AD101">
+        <v>4.55</v>
+      </c>
+      <c r="AE101">
+        <v>6.35</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101">
+        <v>10.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.2</v>
+      </c>
+      <c r="AI101">
+        <v>3.95</v>
+      </c>
+      <c r="AJ101">
+        <v>1.9</v>
+      </c>
+      <c r="AK101">
+        <v>1.95</v>
+      </c>
+      <c r="AL101">
+        <v>1.8</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>1.14</v>
+      </c>
+      <c r="AO101">
+        <v>1.22</v>
+      </c>
+      <c r="AP101">
+        <v>2.41</v>
+      </c>
+      <c r="AQ101">
+        <v>2.25</v>
+      </c>
+      <c r="AR101">
+        <v>1.88</v>
+      </c>
+      <c r="AS101">
+        <v>2.4</v>
+      </c>
+      <c r="AT101">
+        <v>1.67</v>
+      </c>
+      <c r="AU101">
+        <v>2.31</v>
+      </c>
+      <c r="AV101">
+        <v>1.51</v>
+      </c>
+      <c r="AW101">
+        <v>3.82</v>
+      </c>
+      <c r="AX101">
+        <v>1.25</v>
+      </c>
+      <c r="AY101">
+        <v>7</v>
+      </c>
+      <c r="AZ101">
+        <v>4.65</v>
+      </c>
+      <c r="BA101">
+        <v>1.26</v>
+      </c>
+      <c r="BB101">
+        <v>1.51</v>
+      </c>
+      <c r="BC101">
+        <v>1.89</v>
+      </c>
+      <c r="BD101">
+        <v>2.44</v>
+      </c>
+      <c r="BE101">
+        <v>3.28</v>
+      </c>
+      <c r="BF101">
+        <v>7</v>
+      </c>
+      <c r="BG101">
+        <v>3</v>
+      </c>
+      <c r="BH101">
+        <v>7</v>
+      </c>
+      <c r="BI101">
+        <v>9</v>
+      </c>
+      <c r="BJ101">
+        <v>14</v>
+      </c>
+      <c r="BK101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5750708</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45084.79166666666</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s">
+        <v>93</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>186</v>
+      </c>
+      <c r="P102" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>4</v>
+      </c>
+      <c r="S102">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>1.73</v>
+      </c>
+      <c r="U102">
+        <v>2.63</v>
+      </c>
+      <c r="V102">
+        <v>8</v>
+      </c>
+      <c r="W102">
+        <v>1.29</v>
+      </c>
+      <c r="X102">
+        <v>3.5</v>
+      </c>
+      <c r="Y102">
+        <v>2.25</v>
+      </c>
+      <c r="Z102">
+        <v>1.57</v>
+      </c>
+      <c r="AA102">
+        <v>5.5</v>
+      </c>
+      <c r="AB102">
+        <v>1.14</v>
+      </c>
+      <c r="AC102">
+        <v>1.3</v>
+      </c>
+      <c r="AD102">
+        <v>5.75</v>
+      </c>
+      <c r="AE102">
+        <v>9</v>
+      </c>
+      <c r="AF102">
+        <v>1.02</v>
+      </c>
+      <c r="AG102">
+        <v>17</v>
+      </c>
+      <c r="AH102">
+        <v>1.17</v>
+      </c>
+      <c r="AI102">
+        <v>4.3</v>
+      </c>
+      <c r="AJ102">
+        <v>1.62</v>
+      </c>
+      <c r="AK102">
+        <v>2.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.95</v>
+      </c>
+      <c r="AM102">
+        <v>1.8</v>
+      </c>
+      <c r="AN102">
+        <v>1.05</v>
+      </c>
+      <c r="AO102">
+        <v>1.15</v>
+      </c>
+      <c r="AP102">
+        <v>3.48</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1</v>
+      </c>
+      <c r="AS102">
+        <v>2.2</v>
+      </c>
+      <c r="AT102">
+        <v>0.8</v>
+      </c>
+      <c r="AU102">
+        <v>1.86</v>
+      </c>
+      <c r="AV102">
+        <v>0.39</v>
+      </c>
+      <c r="AW102">
+        <v>2.25</v>
+      </c>
+      <c r="AX102">
+        <v>1.19</v>
+      </c>
+      <c r="AY102">
+        <v>11</v>
+      </c>
+      <c r="AZ102">
+        <v>6.05</v>
+      </c>
+      <c r="BA102">
+        <v>1.24</v>
+      </c>
+      <c r="BB102">
+        <v>1.51</v>
+      </c>
+      <c r="BC102">
+        <v>1.81</v>
+      </c>
+      <c r="BD102">
+        <v>2.25</v>
+      </c>
+      <c r="BE102">
+        <v>3.04</v>
+      </c>
+      <c r="BF102">
+        <v>5</v>
+      </c>
+      <c r="BG102">
+        <v>4</v>
+      </c>
+      <c r="BH102">
+        <v>6</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>11</v>
+      </c>
+      <c r="BK102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5750709</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45084.79166666666</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" t="s">
+        <v>97</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>187</v>
+      </c>
+      <c r="P103" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>7</v>
+      </c>
+      <c r="T103">
+        <v>3.25</v>
+      </c>
+      <c r="U103">
+        <v>2.05</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>2.63</v>
+      </c>
+      <c r="Y103">
+        <v>3.25</v>
+      </c>
+      <c r="Z103">
+        <v>1.33</v>
+      </c>
+      <c r="AA103">
+        <v>9</v>
+      </c>
+      <c r="AB103">
+        <v>1.07</v>
+      </c>
+      <c r="AC103">
+        <v>2.7</v>
+      </c>
+      <c r="AD103">
+        <v>3.2</v>
+      </c>
+      <c r="AE103">
+        <v>2.55</v>
+      </c>
+      <c r="AF103">
+        <v>1.04</v>
+      </c>
+      <c r="AG103">
+        <v>7.7</v>
+      </c>
+      <c r="AH103">
+        <v>1.33</v>
+      </c>
+      <c r="AI103">
+        <v>2.96</v>
+      </c>
+      <c r="AJ103">
+        <v>2.15</v>
+      </c>
+      <c r="AK103">
+        <v>1.7</v>
+      </c>
+      <c r="AL103">
+        <v>1.8</v>
+      </c>
+      <c r="AM103">
+        <v>1.95</v>
+      </c>
+      <c r="AN103">
+        <v>1.44</v>
+      </c>
+      <c r="AO103">
+        <v>1.35</v>
+      </c>
+      <c r="AP103">
+        <v>1.49</v>
+      </c>
+      <c r="AQ103">
+        <v>1.75</v>
+      </c>
+      <c r="AR103">
+        <v>2</v>
+      </c>
+      <c r="AS103">
+        <v>1.6</v>
+      </c>
+      <c r="AT103">
+        <v>1.8</v>
+      </c>
+      <c r="AU103">
+        <v>1.83</v>
+      </c>
+      <c r="AV103">
+        <v>1.45</v>
+      </c>
+      <c r="AW103">
+        <v>3.28</v>
+      </c>
+      <c r="AX103">
+        <v>1.95</v>
+      </c>
+      <c r="AY103">
+        <v>7.5</v>
+      </c>
+      <c r="AZ103">
+        <v>2.1</v>
+      </c>
+      <c r="BA103">
+        <v>1.24</v>
+      </c>
+      <c r="BB103">
+        <v>1.52</v>
+      </c>
+      <c r="BC103">
+        <v>1.79</v>
+      </c>
+      <c r="BD103">
+        <v>2.26</v>
+      </c>
+      <c r="BE103">
+        <v>3.08</v>
+      </c>
+      <c r="BF103">
+        <v>5</v>
+      </c>
+      <c r="BG103">
+        <v>8</v>
+      </c>
+      <c r="BH103">
+        <v>4</v>
+      </c>
+      <c r="BI103">
+        <v>2</v>
+      </c>
+      <c r="BJ103">
+        <v>9</v>
+      </c>
+      <c r="BK103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5750714</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45084.79166666666</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" t="s">
+        <v>105</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>188</v>
+      </c>
+      <c r="P104" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>2.1</v>
+      </c>
+      <c r="V104">
+        <v>4.75</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>2.63</v>
+      </c>
+      <c r="Y104">
+        <v>3.25</v>
+      </c>
+      <c r="Z104">
+        <v>1.33</v>
+      </c>
+      <c r="AA104">
+        <v>10</v>
+      </c>
+      <c r="AB104">
+        <v>1.06</v>
+      </c>
+      <c r="AC104">
+        <v>1.95</v>
+      </c>
+      <c r="AD104">
+        <v>3.35</v>
+      </c>
+      <c r="AE104">
+        <v>3.9</v>
+      </c>
+      <c r="AF104">
+        <v>1.04</v>
+      </c>
+      <c r="AG104">
+        <v>8</v>
+      </c>
+      <c r="AH104">
+        <v>1.3</v>
+      </c>
+      <c r="AI104">
+        <v>3.2</v>
+      </c>
+      <c r="AJ104">
+        <v>2.15</v>
+      </c>
+      <c r="AK104">
+        <v>1.7</v>
+      </c>
+      <c r="AL104">
+        <v>2</v>
+      </c>
+      <c r="AM104">
+        <v>1.75</v>
+      </c>
+      <c r="AN104">
+        <v>1.25</v>
+      </c>
+      <c r="AO104">
+        <v>1.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.87</v>
+      </c>
+      <c r="AQ104">
+        <v>1.5</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>1.8</v>
+      </c>
+      <c r="AT104">
+        <v>0.8</v>
+      </c>
+      <c r="AU104">
+        <v>2.72</v>
+      </c>
+      <c r="AV104">
+        <v>0.98</v>
+      </c>
+      <c r="AW104">
+        <v>3.7</v>
+      </c>
+      <c r="AX104">
+        <v>1.55</v>
+      </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>2.92</v>
+      </c>
+      <c r="BA104">
+        <v>1.27</v>
+      </c>
+      <c r="BB104">
+        <v>1.56</v>
+      </c>
+      <c r="BC104">
+        <v>1.98</v>
+      </c>
+      <c r="BD104">
+        <v>2.34</v>
+      </c>
+      <c r="BE104">
+        <v>3.5</v>
+      </c>
+      <c r="BF104">
+        <v>7</v>
+      </c>
+      <c r="BG104">
+        <v>2</v>
+      </c>
+      <c r="BH104">
+        <v>7</v>
+      </c>
+      <c r="BI104">
+        <v>3</v>
+      </c>
+      <c r="BJ104">
+        <v>14</v>
+      </c>
+      <c r="BK104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5750710</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45084.875</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s">
+        <v>90</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>117</v>
+      </c>
+      <c r="P105" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q105">
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>2.35</v>
+      </c>
+      <c r="U105">
+        <v>2.1</v>
+      </c>
+      <c r="V105">
+        <v>4.5</v>
+      </c>
+      <c r="W105">
+        <v>1.42</v>
+      </c>
+      <c r="X105">
+        <v>2.6</v>
+      </c>
+      <c r="Y105">
+        <v>3.1</v>
+      </c>
+      <c r="Z105">
+        <v>1.31</v>
+      </c>
+      <c r="AA105">
+        <v>8.75</v>
+      </c>
+      <c r="AB105">
+        <v>1.06</v>
+      </c>
+      <c r="AC105">
+        <v>1.63</v>
+      </c>
+      <c r="AD105">
+        <v>3.75</v>
+      </c>
+      <c r="AE105">
+        <v>5.5</v>
+      </c>
+      <c r="AF105">
+        <v>1.07</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.38</v>
+      </c>
+      <c r="AI105">
+        <v>3</v>
+      </c>
+      <c r="AJ105">
+        <v>1.95</v>
+      </c>
+      <c r="AK105">
+        <v>1.85</v>
+      </c>
+      <c r="AL105">
+        <v>2.05</v>
+      </c>
+      <c r="AM105">
+        <v>1.66</v>
+      </c>
+      <c r="AN105">
+        <v>1.21</v>
+      </c>
+      <c r="AO105">
+        <v>1.25</v>
+      </c>
+      <c r="AP105">
+        <v>2</v>
+      </c>
+      <c r="AQ105">
+        <v>0.75</v>
+      </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
+      <c r="AS105">
+        <v>0.8</v>
+      </c>
+      <c r="AT105">
+        <v>1</v>
+      </c>
+      <c r="AU105">
+        <v>1.57</v>
+      </c>
+      <c r="AV105">
+        <v>0.3</v>
+      </c>
+      <c r="AW105">
+        <v>1.87</v>
+      </c>
+      <c r="AX105">
+        <v>1.45</v>
+      </c>
+      <c r="AY105">
+        <v>9.5</v>
+      </c>
+      <c r="AZ105">
+        <v>3.42</v>
+      </c>
+      <c r="BA105">
+        <v>1.33</v>
+      </c>
+      <c r="BB105">
+        <v>1.57</v>
+      </c>
+      <c r="BC105">
+        <v>1.93</v>
+      </c>
+      <c r="BD105">
+        <v>2.38</v>
+      </c>
+      <c r="BE105">
+        <v>3.85</v>
+      </c>
+      <c r="BF105">
+        <v>9</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>10</v>
+      </c>
+      <c r="BI105">
+        <v>4</v>
+      </c>
+      <c r="BJ105">
+        <v>19</v>
+      </c>
+      <c r="BK105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5750711</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45084.89583333334</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" t="s">
+        <v>96</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>189</v>
+      </c>
+      <c r="P106" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q106">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>2.4</v>
+      </c>
+      <c r="U106">
+        <v>2.3</v>
+      </c>
+      <c r="V106">
+        <v>4.5</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.63</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.11</v>
+      </c>
+      <c r="AC106">
+        <v>1.85</v>
+      </c>
+      <c r="AD106">
+        <v>3.65</v>
+      </c>
+      <c r="AE106">
+        <v>3.9</v>
+      </c>
+      <c r="AF106">
+        <v>1.03</v>
+      </c>
+      <c r="AG106">
+        <v>13</v>
+      </c>
+      <c r="AH106">
+        <v>1.25</v>
+      </c>
+      <c r="AI106">
+        <v>3.75</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>2.1</v>
+      </c>
+      <c r="AL106">
+        <v>1.7</v>
+      </c>
+      <c r="AM106">
+        <v>2.05</v>
+      </c>
+      <c r="AN106">
+        <v>1.23</v>
+      </c>
+      <c r="AO106">
+        <v>1.27</v>
+      </c>
+      <c r="AP106">
+        <v>1.93</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>2.25</v>
+      </c>
+      <c r="AS106">
+        <v>1.4</v>
+      </c>
+      <c r="AT106">
+        <v>1.8</v>
+      </c>
+      <c r="AU106">
+        <v>1.65</v>
+      </c>
+      <c r="AV106">
+        <v>1.7</v>
+      </c>
+      <c r="AW106">
+        <v>3.35</v>
+      </c>
+      <c r="AX106">
+        <v>1.51</v>
+      </c>
+      <c r="AY106">
+        <v>8.5</v>
+      </c>
+      <c r="AZ106">
+        <v>3.07</v>
+      </c>
+      <c r="BA106">
+        <v>1.21</v>
+      </c>
+      <c r="BB106">
+        <v>1.36</v>
+      </c>
+      <c r="BC106">
+        <v>1.65</v>
+      </c>
+      <c r="BD106">
+        <v>2.09</v>
+      </c>
+      <c r="BE106">
+        <v>2.72</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>3</v>
+      </c>
+      <c r="BH106">
+        <v>11</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>17</v>
+      </c>
+      <c r="BK106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5750712</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45084.89583333334</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>110</v>
+      </c>
+      <c r="H107" t="s">
+        <v>107</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107" t="s">
+        <v>190</v>
+      </c>
+      <c r="P107" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q107">
+        <v>7</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107">
+        <v>1.62</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>10</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>3.5</v>
+      </c>
+      <c r="Y107">
+        <v>2.25</v>
+      </c>
+      <c r="Z107">
+        <v>1.57</v>
+      </c>
+      <c r="AA107">
+        <v>5.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.14</v>
+      </c>
+      <c r="AC107">
+        <v>1.22</v>
+      </c>
+      <c r="AD107">
+        <v>6.25</v>
+      </c>
+      <c r="AE107">
+        <v>12</v>
+      </c>
+      <c r="AF107">
+        <v>1.02</v>
+      </c>
+      <c r="AG107">
+        <v>17</v>
+      </c>
+      <c r="AH107">
+        <v>1.17</v>
+      </c>
+      <c r="AI107">
+        <v>5</v>
+      </c>
+      <c r="AJ107">
+        <v>1.53</v>
+      </c>
+      <c r="AK107">
+        <v>2.34</v>
+      </c>
+      <c r="AL107">
+        <v>2.2</v>
+      </c>
+      <c r="AM107">
+        <v>1.62</v>
+      </c>
+      <c r="AN107">
+        <v>1.04</v>
+      </c>
+      <c r="AO107">
+        <v>1.12</v>
+      </c>
+      <c r="AP107">
+        <v>4.2</v>
+      </c>
+      <c r="AQ107">
+        <v>2.25</v>
+      </c>
+      <c r="AR107">
+        <v>0.75</v>
+      </c>
+      <c r="AS107">
+        <v>2.4</v>
+      </c>
+      <c r="AT107">
+        <v>0.6</v>
+      </c>
+      <c r="AU107">
+        <v>2.09</v>
+      </c>
+      <c r="AV107">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW107">
+        <v>3.03</v>
+      </c>
+      <c r="AX107">
+        <v>1.1</v>
+      </c>
+      <c r="AY107">
+        <v>13</v>
+      </c>
+      <c r="AZ107">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA107">
+        <v>1.21</v>
+      </c>
+      <c r="BB107">
+        <v>1.3</v>
+      </c>
+      <c r="BC107">
+        <v>1.54</v>
+      </c>
+      <c r="BD107">
+        <v>1.91</v>
+      </c>
+      <c r="BE107">
+        <v>2.44</v>
+      </c>
+      <c r="BF107">
+        <v>10</v>
+      </c>
+      <c r="BG107">
+        <v>7</v>
+      </c>
+      <c r="BH107">
+        <v>8</v>
+      </c>
+      <c r="BI107">
+        <v>5</v>
+      </c>
+      <c r="BJ107">
+        <v>18</v>
+      </c>
+      <c r="BK107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5750713</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45084.95833333334</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>191</v>
+      </c>
+      <c r="P108" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q108">
+        <v>16</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>19</v>
+      </c>
+      <c r="T108">
+        <v>1.95</v>
+      </c>
+      <c r="U108">
+        <v>2.4</v>
+      </c>
+      <c r="V108">
+        <v>6.5</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>3.25</v>
+      </c>
+      <c r="Y108">
+        <v>2.63</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.11</v>
+      </c>
+      <c r="AC108">
+        <v>1.47</v>
+      </c>
+      <c r="AD108">
+        <v>4.4</v>
+      </c>
+      <c r="AE108">
+        <v>6.5</v>
+      </c>
+      <c r="AF108">
+        <v>1.03</v>
+      </c>
+      <c r="AG108">
+        <v>13</v>
+      </c>
+      <c r="AH108">
+        <v>1.22</v>
+      </c>
+      <c r="AI108">
+        <v>4</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>2.15</v>
+      </c>
+      <c r="AL108">
+        <v>1.95</v>
+      </c>
+      <c r="AM108">
+        <v>1.8</v>
+      </c>
+      <c r="AN108">
+        <v>1.12</v>
+      </c>
+      <c r="AO108">
+        <v>1.2</v>
+      </c>
+      <c r="AP108">
+        <v>2.55</v>
+      </c>
+      <c r="AQ108">
+        <v>1.5</v>
+      </c>
+      <c r="AR108">
+        <v>1.38</v>
+      </c>
+      <c r="AS108">
+        <v>1.2</v>
+      </c>
+      <c r="AT108">
+        <v>1.56</v>
+      </c>
+      <c r="AU108">
+        <v>2.43</v>
+      </c>
+      <c r="AV108">
+        <v>1.14</v>
+      </c>
+      <c r="AW108">
+        <v>3.57</v>
+      </c>
+      <c r="AX108">
+        <v>1.23</v>
+      </c>
+      <c r="AY108">
+        <v>10</v>
+      </c>
+      <c r="AZ108">
+        <v>5.15</v>
+      </c>
+      <c r="BA108">
+        <v>1.18</v>
+      </c>
+      <c r="BB108">
+        <v>1.38</v>
+      </c>
+      <c r="BC108">
+        <v>1.68</v>
+      </c>
+      <c r="BD108">
+        <v>2.09</v>
+      </c>
+      <c r="BE108">
+        <v>2.71</v>
+      </c>
+      <c r="BF108">
+        <v>9</v>
+      </c>
+      <c r="BG108">
+        <v>5</v>
+      </c>
+      <c r="BH108">
+        <v>10</v>
+      </c>
+      <c r="BI108">
+        <v>4</v>
+      </c>
+      <c r="BJ108">
+        <v>19</v>
+      </c>
+      <c r="BK108">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,12 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['36', '83']</t>
+  </si>
+  <si>
+    <t>['19', '50', '90']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -737,6 +743,9 @@
   </si>
   <si>
     <t>['23', '80']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1351,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1533,7 +1542,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1724,7 +1733,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1915,7 +1924,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2870,7 +2879,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2960,7 +2969,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>2.51</v>
@@ -4207,7 +4216,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4589,7 +4598,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4676,7 +4685,7 @@
         <v>2.33</v>
       </c>
       <c r="AS19">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>1.75</v>
@@ -4780,7 +4789,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4971,7 +4980,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5162,7 +5171,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5544,7 +5553,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5634,7 +5643,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>2.33</v>
@@ -5735,7 +5744,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5926,7 +5935,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6395,7 +6404,7 @@
         <v>2.33</v>
       </c>
       <c r="AS28">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.75</v>
@@ -6690,7 +6699,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7263,7 +7272,7 @@
         <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7645,7 +7654,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7732,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>1.8</v>
@@ -7836,7 +7845,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8027,7 +8036,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8117,7 +8126,7 @@
         <v>0.6</v>
       </c>
       <c r="AT37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8218,7 +8227,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8308,7 +8317,7 @@
         <v>0.8</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8409,7 +8418,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8499,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8600,7 +8609,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8982,7 +8991,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9173,7 +9182,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9364,7 +9373,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9555,7 +9564,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9937,7 +9946,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10027,7 +10036,7 @@
         <v>0.8</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10597,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT50">
         <v>0.6</v>
@@ -10701,7 +10710,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10892,7 +10901,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11274,7 +11283,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11364,7 +11373,7 @@
         <v>1.6</v>
       </c>
       <c r="AT54">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11465,7 +11474,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11743,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12229,7 +12238,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12420,7 +12429,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12507,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12611,7 +12620,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12698,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>0.8</v>
@@ -12802,7 +12811,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -12993,7 +13002,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13184,7 +13193,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13375,7 +13384,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13566,7 +13575,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13757,7 +13766,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13844,10 +13853,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU67">
         <v>1.35</v>
@@ -13948,7 +13957,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14330,7 +14339,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14521,7 +14530,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14712,7 +14721,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15094,7 +15103,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15285,7 +15294,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15372,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15476,7 +15485,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15667,7 +15676,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15754,10 +15763,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15858,7 +15867,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16431,7 +16440,7 @@
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16813,7 +16822,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16903,7 +16912,7 @@
         <v>0.8</v>
       </c>
       <c r="AT83">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17004,7 +17013,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17091,7 +17100,7 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.6</v>
@@ -17195,7 +17204,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17386,7 +17395,7 @@
         <v>117</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18150,7 +18159,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18240,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU90">
         <v>2.04</v>
@@ -18341,7 +18350,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18431,7 +18440,7 @@
         <v>0.8</v>
       </c>
       <c r="AT91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -18532,7 +18541,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18622,7 +18631,7 @@
         <v>0.6</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18914,7 +18923,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19105,7 +19114,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -21397,7 +21406,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21588,7 +21597,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -21730,6 +21739,579 @@
       </c>
       <c r="BK108">
         <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5750715</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45085.79166666666</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>117</v>
+      </c>
+      <c r="P109" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q109">
+        <v>7</v>
+      </c>
+      <c r="R109">
+        <v>8</v>
+      </c>
+      <c r="S109">
+        <v>15</v>
+      </c>
+      <c r="T109">
+        <v>5.5</v>
+      </c>
+      <c r="U109">
+        <v>2.25</v>
+      </c>
+      <c r="V109">
+        <v>2.25</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>2.75</v>
+      </c>
+      <c r="Z109">
+        <v>1.4</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
+      <c r="AB109">
+        <v>1.08</v>
+      </c>
+      <c r="AC109">
+        <v>3.8</v>
+      </c>
+      <c r="AD109">
+        <v>3.25</v>
+      </c>
+      <c r="AE109">
+        <v>1.92</v>
+      </c>
+      <c r="AF109">
+        <v>1.05</v>
+      </c>
+      <c r="AG109">
+        <v>10.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.32</v>
+      </c>
+      <c r="AI109">
+        <v>3.35</v>
+      </c>
+      <c r="AJ109">
+        <v>2.06</v>
+      </c>
+      <c r="AK109">
+        <v>1.63</v>
+      </c>
+      <c r="AL109">
+        <v>1.91</v>
+      </c>
+      <c r="AM109">
+        <v>1.91</v>
+      </c>
+      <c r="AN109">
+        <v>2.15</v>
+      </c>
+      <c r="AO109">
+        <v>1.28</v>
+      </c>
+      <c r="AP109">
+        <v>1.2</v>
+      </c>
+      <c r="AQ109">
+        <v>0</v>
+      </c>
+      <c r="AR109">
+        <v>1.88</v>
+      </c>
+      <c r="AS109">
+        <v>0</v>
+      </c>
+      <c r="AT109">
+        <v>2</v>
+      </c>
+      <c r="AU109">
+        <v>1.17</v>
+      </c>
+      <c r="AV109">
+        <v>1.34</v>
+      </c>
+      <c r="AW109">
+        <v>2.51</v>
+      </c>
+      <c r="AX109">
+        <v>3.07</v>
+      </c>
+      <c r="AY109">
+        <v>8.5</v>
+      </c>
+      <c r="AZ109">
+        <v>1.51</v>
+      </c>
+      <c r="BA109">
+        <v>1.27</v>
+      </c>
+      <c r="BB109">
+        <v>1.5</v>
+      </c>
+      <c r="BC109">
+        <v>1.98</v>
+      </c>
+      <c r="BD109">
+        <v>2.5</v>
+      </c>
+      <c r="BE109">
+        <v>3.5</v>
+      </c>
+      <c r="BF109">
+        <v>7</v>
+      </c>
+      <c r="BG109">
+        <v>6</v>
+      </c>
+      <c r="BH109">
+        <v>5</v>
+      </c>
+      <c r="BI109">
+        <v>7</v>
+      </c>
+      <c r="BJ109">
+        <v>12</v>
+      </c>
+      <c r="BK109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5750716</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45085.875</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>104</v>
+      </c>
+      <c r="H110" t="s">
+        <v>108</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>192</v>
+      </c>
+      <c r="P110" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>2.3</v>
+      </c>
+      <c r="V110">
+        <v>7</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110">
+        <v>2.75</v>
+      </c>
+      <c r="Z110">
+        <v>1.4</v>
+      </c>
+      <c r="AA110">
+        <v>7</v>
+      </c>
+      <c r="AB110">
+        <v>1.1</v>
+      </c>
+      <c r="AC110">
+        <v>1.51</v>
+      </c>
+      <c r="AD110">
+        <v>3.9</v>
+      </c>
+      <c r="AE110">
+        <v>5.6</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9</v>
+      </c>
+      <c r="AH110">
+        <v>1.3</v>
+      </c>
+      <c r="AI110">
+        <v>3.4</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.81</v>
+      </c>
+      <c r="AL110">
+        <v>2.05</v>
+      </c>
+      <c r="AM110">
+        <v>1.7</v>
+      </c>
+      <c r="AN110">
+        <v>1.1</v>
+      </c>
+      <c r="AO110">
+        <v>1.22</v>
+      </c>
+      <c r="AP110">
+        <v>2.6</v>
+      </c>
+      <c r="AQ110">
+        <v>1.25</v>
+      </c>
+      <c r="AR110">
+        <v>2.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.6</v>
+      </c>
+      <c r="AT110">
+        <v>2</v>
+      </c>
+      <c r="AU110">
+        <v>1.6</v>
+      </c>
+      <c r="AV110">
+        <v>1.26</v>
+      </c>
+      <c r="AW110">
+        <v>2.86</v>
+      </c>
+      <c r="AX110">
+        <v>1.41</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>3.56</v>
+      </c>
+      <c r="BA110">
+        <v>1.25</v>
+      </c>
+      <c r="BB110">
+        <v>1.47</v>
+      </c>
+      <c r="BC110">
+        <v>1.85</v>
+      </c>
+      <c r="BD110">
+        <v>2.45</v>
+      </c>
+      <c r="BE110">
+        <v>3.4</v>
+      </c>
+      <c r="BF110">
+        <v>4</v>
+      </c>
+      <c r="BG110">
+        <v>4</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>4</v>
+      </c>
+      <c r="BJ110">
+        <v>7</v>
+      </c>
+      <c r="BK110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5750717</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45085.875</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>193</v>
+      </c>
+      <c r="P111" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>2.88</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>4</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>2.63</v>
+      </c>
+      <c r="Y111">
+        <v>3.25</v>
+      </c>
+      <c r="Z111">
+        <v>1.33</v>
+      </c>
+      <c r="AA111">
+        <v>9</v>
+      </c>
+      <c r="AB111">
+        <v>1.07</v>
+      </c>
+      <c r="AC111">
+        <v>2.18</v>
+      </c>
+      <c r="AD111">
+        <v>3.25</v>
+      </c>
+      <c r="AE111">
+        <v>3.05</v>
+      </c>
+      <c r="AF111">
+        <v>1.07</v>
+      </c>
+      <c r="AG111">
+        <v>9</v>
+      </c>
+      <c r="AH111">
+        <v>1.36</v>
+      </c>
+      <c r="AI111">
+        <v>3.1</v>
+      </c>
+      <c r="AJ111">
+        <v>2.03</v>
+      </c>
+      <c r="AK111">
+        <v>1.65</v>
+      </c>
+      <c r="AL111">
+        <v>1.8</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>1.32</v>
+      </c>
+      <c r="AO111">
+        <v>1.33</v>
+      </c>
+      <c r="AP111">
+        <v>1.62</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>2.5</v>
+      </c>
+      <c r="AS111">
+        <v>2.2</v>
+      </c>
+      <c r="AT111">
+        <v>2</v>
+      </c>
+      <c r="AU111">
+        <v>1.48</v>
+      </c>
+      <c r="AV111">
+        <v>1.42</v>
+      </c>
+      <c r="AW111">
+        <v>2.9</v>
+      </c>
+      <c r="AX111">
+        <v>1.91</v>
+      </c>
+      <c r="AY111">
+        <v>8</v>
+      </c>
+      <c r="AZ111">
+        <v>2.1</v>
+      </c>
+      <c r="BA111">
+        <v>1.25</v>
+      </c>
+      <c r="BB111">
+        <v>1.47</v>
+      </c>
+      <c r="BC111">
+        <v>1.9</v>
+      </c>
+      <c r="BD111">
+        <v>2.4</v>
+      </c>
+      <c r="BE111">
+        <v>3.4</v>
+      </c>
+      <c r="BF111">
+        <v>6</v>
+      </c>
+      <c r="BG111">
+        <v>2</v>
+      </c>
+      <c r="BH111">
+        <v>9</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>15</v>
+      </c>
+      <c r="BK111">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,21 @@
     <t>['19', '50', '90']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['8', '63', '88']</t>
+  </si>
+  <si>
+    <t>['13', '90']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['2', '9', '23', '31']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -746,6 +761,15 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1375,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1542,7 +1566,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1733,7 +1757,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1924,7 +1948,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2587,7 +2611,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>1.8</v>
@@ -2879,7 +2903,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3351,7 +3375,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4216,7 +4240,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4303,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="AS17">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4598,7 +4622,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4789,7 +4813,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4876,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -4980,7 +5004,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5171,7 +5195,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5553,7 +5577,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5744,7 +5768,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5834,7 +5858,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU25">
         <v>1.96</v>
@@ -5935,7 +5959,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6216,7 +6240,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>1.73</v>
@@ -6595,7 +6619,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6699,7 +6723,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6977,7 +7001,7 @@
         <v>1.67</v>
       </c>
       <c r="AS31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7168,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7272,7 +7296,7 @@
         <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7359,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7654,7 +7678,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7845,7 +7869,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8036,7 +8060,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8123,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8227,7 +8251,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8418,7 +8442,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8609,7 +8633,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8991,7 +9015,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9078,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9182,7 +9206,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9373,7 +9397,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9564,7 +9588,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9651,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT45">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>1.88</v>
@@ -9946,7 +9970,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10033,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10224,10 +10248,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10606,10 +10630,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10710,7 +10734,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10901,7 +10925,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10988,10 +11012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT52">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11283,7 +11307,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11474,7 +11498,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11561,10 +11585,10 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12238,7 +12262,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12429,7 +12453,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12620,7 +12644,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12707,10 +12731,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -12811,7 +12835,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13002,7 +13026,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13089,10 +13113,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13193,7 +13217,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13384,7 +13408,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13575,7 +13599,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13662,10 +13686,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -13766,7 +13790,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13853,10 +13877,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU67">
         <v>1.35</v>
@@ -13957,7 +13981,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14235,10 +14259,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>1.48</v>
@@ -14339,7 +14363,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14530,7 +14554,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14721,7 +14745,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14999,10 +15023,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.69</v>
@@ -15103,7 +15127,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15294,7 +15318,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15485,7 +15509,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15572,10 +15596,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.26</v>
@@ -15676,7 +15700,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15867,7 +15891,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15954,10 +15978,10 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU78">
         <v>2.11</v>
@@ -16336,10 +16360,10 @@
         <v>2.33</v>
       </c>
       <c r="AS80">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU80">
         <v>2.18</v>
@@ -16440,7 +16464,7 @@
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16822,7 +16846,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17013,7 +17037,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17204,7 +17228,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17291,10 +17315,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT85">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU85">
         <v>1.27</v>
@@ -17395,7 +17419,7 @@
         <v>117</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18159,7 +18183,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18350,7 +18374,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18437,10 +18461,10 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -18541,7 +18565,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18628,10 +18652,10 @@
         <v>1.67</v>
       </c>
       <c r="AS92">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18819,10 +18843,10 @@
         <v>3</v>
       </c>
       <c r="AS93">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -18923,7 +18947,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19114,7 +19138,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19201,10 +19225,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU95">
         <v>1.65</v>
@@ -19583,10 +19607,10 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT97">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU97">
         <v>1.02</v>
@@ -19965,10 +19989,10 @@
         <v>0.75</v>
       </c>
       <c r="AS99">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.87</v>
@@ -20156,10 +20180,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT100">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU100">
         <v>1.76</v>
@@ -21302,10 +21326,10 @@
         <v>2.25</v>
       </c>
       <c r="AS106">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU106">
         <v>1.65</v>
@@ -21406,7 +21430,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21597,7 +21621,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -21684,10 +21708,10 @@
         <v>1.38</v>
       </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>2.43</v>
@@ -21979,7 +22003,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22257,10 +22281,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU111">
         <v>1.48</v>
@@ -22312,6 +22336,1152 @@
       </c>
       <c r="BK111">
         <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5750719</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45104.79166666666</v>
+      </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>111</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>194</v>
+      </c>
+      <c r="P112" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q112">
+        <v>12</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>15</v>
+      </c>
+      <c r="T112">
+        <v>4</v>
+      </c>
+      <c r="U112">
+        <v>2.05</v>
+      </c>
+      <c r="V112">
+        <v>2.88</v>
+      </c>
+      <c r="W112">
+        <v>1.44</v>
+      </c>
+      <c r="X112">
+        <v>2.63</v>
+      </c>
+      <c r="Y112">
+        <v>3.25</v>
+      </c>
+      <c r="Z112">
+        <v>1.33</v>
+      </c>
+      <c r="AA112">
+        <v>10</v>
+      </c>
+      <c r="AB112">
+        <v>1.06</v>
+      </c>
+      <c r="AC112">
+        <v>3.4</v>
+      </c>
+      <c r="AD112">
+        <v>3.4</v>
+      </c>
+      <c r="AE112">
+        <v>2.05</v>
+      </c>
+      <c r="AF112">
+        <v>1.06</v>
+      </c>
+      <c r="AG112">
+        <v>9.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.38</v>
+      </c>
+      <c r="AI112">
+        <v>3</v>
+      </c>
+      <c r="AJ112">
+        <v>2.05</v>
+      </c>
+      <c r="AK112">
+        <v>1.7</v>
+      </c>
+      <c r="AL112">
+        <v>1.95</v>
+      </c>
+      <c r="AM112">
+        <v>1.8</v>
+      </c>
+      <c r="AN112">
+        <v>1.7</v>
+      </c>
+      <c r="AO112">
+        <v>1.32</v>
+      </c>
+      <c r="AP112">
+        <v>1.29</v>
+      </c>
+      <c r="AQ112">
+        <v>1.2</v>
+      </c>
+      <c r="AR112">
+        <v>1.89</v>
+      </c>
+      <c r="AS112">
+        <v>1.17</v>
+      </c>
+      <c r="AT112">
+        <v>1.8</v>
+      </c>
+      <c r="AU112">
+        <v>2.25</v>
+      </c>
+      <c r="AV112">
+        <v>1.55</v>
+      </c>
+      <c r="AW112">
+        <v>3.8</v>
+      </c>
+      <c r="AX112">
+        <v>2.6</v>
+      </c>
+      <c r="AY112">
+        <v>6.5</v>
+      </c>
+      <c r="AZ112">
+        <v>1.78</v>
+      </c>
+      <c r="BA112">
+        <v>1.25</v>
+      </c>
+      <c r="BB112">
+        <v>1.54</v>
+      </c>
+      <c r="BC112">
+        <v>1.88</v>
+      </c>
+      <c r="BD112">
+        <v>2.32</v>
+      </c>
+      <c r="BE112">
+        <v>3.4</v>
+      </c>
+      <c r="BF112">
+        <v>8</v>
+      </c>
+      <c r="BG112">
+        <v>3</v>
+      </c>
+      <c r="BH112">
+        <v>8</v>
+      </c>
+      <c r="BI112">
+        <v>1</v>
+      </c>
+      <c r="BJ112">
+        <v>16</v>
+      </c>
+      <c r="BK112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5750718</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45104.79166666666</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>195</v>
+      </c>
+      <c r="P113" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>8</v>
+      </c>
+      <c r="T113">
+        <v>1.8</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>8.5</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.63</v>
+      </c>
+      <c r="Z113">
+        <v>1.44</v>
+      </c>
+      <c r="AA113">
+        <v>6.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>1.25</v>
+      </c>
+      <c r="AD113">
+        <v>5.5</v>
+      </c>
+      <c r="AE113">
+        <v>12</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>13</v>
+      </c>
+      <c r="AH113">
+        <v>1.25</v>
+      </c>
+      <c r="AI113">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113">
+        <v>1.65</v>
+      </c>
+      <c r="AK113">
+        <v>2.1</v>
+      </c>
+      <c r="AL113">
+        <v>2.2</v>
+      </c>
+      <c r="AM113">
+        <v>1.62</v>
+      </c>
+      <c r="AN113">
+        <v>1.06</v>
+      </c>
+      <c r="AO113">
+        <v>1.15</v>
+      </c>
+      <c r="AP113">
+        <v>3.3</v>
+      </c>
+      <c r="AQ113">
+        <v>2</v>
+      </c>
+      <c r="AR113">
+        <v>0.8</v>
+      </c>
+      <c r="AS113">
+        <v>2.17</v>
+      </c>
+      <c r="AT113">
+        <v>0.67</v>
+      </c>
+      <c r="AU113">
+        <v>1.28</v>
+      </c>
+      <c r="AV113">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW113">
+        <v>1.97</v>
+      </c>
+      <c r="AX113">
+        <v>1.25</v>
+      </c>
+      <c r="AY113">
+        <v>9</v>
+      </c>
+      <c r="AZ113">
+        <v>5.25</v>
+      </c>
+      <c r="BA113">
+        <v>1.21</v>
+      </c>
+      <c r="BB113">
+        <v>1.4</v>
+      </c>
+      <c r="BC113">
+        <v>1.72</v>
+      </c>
+      <c r="BD113">
+        <v>2.2</v>
+      </c>
+      <c r="BE113">
+        <v>3</v>
+      </c>
+      <c r="BF113">
+        <v>6</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>5</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>11</v>
+      </c>
+      <c r="BK113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5750720</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45104.875</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>103</v>
+      </c>
+      <c r="H114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>196</v>
+      </c>
+      <c r="P114" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>3</v>
+      </c>
+      <c r="V114">
+        <v>17</v>
+      </c>
+      <c r="W114">
+        <v>1.25</v>
+      </c>
+      <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.2</v>
+      </c>
+      <c r="Z114">
+        <v>1.62</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.17</v>
+      </c>
+      <c r="AC114">
+        <v>1.16</v>
+      </c>
+      <c r="AD114">
+        <v>6.5</v>
+      </c>
+      <c r="AE114">
+        <v>19</v>
+      </c>
+      <c r="AF114">
+        <v>1.01</v>
+      </c>
+      <c r="AG114">
+        <v>13</v>
+      </c>
+      <c r="AH114">
+        <v>1.14</v>
+      </c>
+      <c r="AI114">
+        <v>5.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.7</v>
+      </c>
+      <c r="AK114">
+        <v>2.05</v>
+      </c>
+      <c r="AL114">
+        <v>2.75</v>
+      </c>
+      <c r="AM114">
+        <v>1.4</v>
+      </c>
+      <c r="AN114">
+        <v>1.01</v>
+      </c>
+      <c r="AO114">
+        <v>1.06</v>
+      </c>
+      <c r="AP114">
+        <v>6.25</v>
+      </c>
+      <c r="AQ114">
+        <v>1.4</v>
+      </c>
+      <c r="AR114">
+        <v>1.2</v>
+      </c>
+      <c r="AS114">
+        <v>1.67</v>
+      </c>
+      <c r="AT114">
+        <v>1</v>
+      </c>
+      <c r="AU114">
+        <v>1.87</v>
+      </c>
+      <c r="AV114">
+        <v>0.73</v>
+      </c>
+      <c r="AW114">
+        <v>2.6</v>
+      </c>
+      <c r="AX114">
+        <v>1.07</v>
+      </c>
+      <c r="AY114">
+        <v>13</v>
+      </c>
+      <c r="AZ114">
+        <v>10.7</v>
+      </c>
+      <c r="BA114">
+        <v>1.26</v>
+      </c>
+      <c r="BB114">
+        <v>1.54</v>
+      </c>
+      <c r="BC114">
+        <v>1.88</v>
+      </c>
+      <c r="BD114">
+        <v>2.32</v>
+      </c>
+      <c r="BE114">
+        <v>3.5</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>7</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>16</v>
+      </c>
+      <c r="BK114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5750721</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45104.875</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>96</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>197</v>
+      </c>
+      <c r="P115" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>1.57</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>13</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>3.4</v>
+      </c>
+      <c r="Y115">
+        <v>2.38</v>
+      </c>
+      <c r="Z115">
+        <v>1.53</v>
+      </c>
+      <c r="AA115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>1.13</v>
+      </c>
+      <c r="AC115">
+        <v>1.18</v>
+      </c>
+      <c r="AD115">
+        <v>6.25</v>
+      </c>
+      <c r="AE115">
+        <v>17</v>
+      </c>
+      <c r="AF115">
+        <v>1.02</v>
+      </c>
+      <c r="AG115">
+        <v>15</v>
+      </c>
+      <c r="AH115">
+        <v>1.2</v>
+      </c>
+      <c r="AI115">
+        <v>4.5</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7</v>
+      </c>
+      <c r="AK115">
+        <v>2.05</v>
+      </c>
+      <c r="AL115">
+        <v>2.63</v>
+      </c>
+      <c r="AM115">
+        <v>1.44</v>
+      </c>
+      <c r="AN115">
+        <v>1.02</v>
+      </c>
+      <c r="AO115">
+        <v>1.08</v>
+      </c>
+      <c r="AP115">
+        <v>4.75</v>
+      </c>
+      <c r="AQ115">
+        <v>1.8</v>
+      </c>
+      <c r="AR115">
+        <v>1.56</v>
+      </c>
+      <c r="AS115">
+        <v>1.67</v>
+      </c>
+      <c r="AT115">
+        <v>1.5</v>
+      </c>
+      <c r="AU115">
+        <v>2.56</v>
+      </c>
+      <c r="AV115">
+        <v>1.12</v>
+      </c>
+      <c r="AW115">
+        <v>3.68</v>
+      </c>
+      <c r="AX115">
+        <v>1.09</v>
+      </c>
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>10</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>1.22</v>
+      </c>
+      <c r="BC115">
+        <v>1.51</v>
+      </c>
+      <c r="BD115">
+        <v>1.69</v>
+      </c>
+      <c r="BE115">
+        <v>2.08</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>3</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>10</v>
+      </c>
+      <c r="BK115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5750722</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45104.875</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116" t="s">
+        <v>95</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>4</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116" t="s">
+        <v>198</v>
+      </c>
+      <c r="P116" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>4</v>
+      </c>
+      <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>2.1</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>6</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>2.75</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>1.5</v>
+      </c>
+      <c r="AD116">
+        <v>4.05</v>
+      </c>
+      <c r="AE116">
+        <v>6.5</v>
+      </c>
+      <c r="AF116">
+        <v>1.04</v>
+      </c>
+      <c r="AG116">
+        <v>12</v>
+      </c>
+      <c r="AH116">
+        <v>1.3</v>
+      </c>
+      <c r="AI116">
+        <v>3.5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.83</v>
+      </c>
+      <c r="AK116">
+        <v>1.97</v>
+      </c>
+      <c r="AL116">
+        <v>1.95</v>
+      </c>
+      <c r="AM116">
+        <v>1.8</v>
+      </c>
+      <c r="AN116">
+        <v>1.14</v>
+      </c>
+      <c r="AO116">
+        <v>1.24</v>
+      </c>
+      <c r="AP116">
+        <v>2.25</v>
+      </c>
+      <c r="AQ116">
+        <v>2.2</v>
+      </c>
+      <c r="AR116">
+        <v>0.8</v>
+      </c>
+      <c r="AS116">
+        <v>2.33</v>
+      </c>
+      <c r="AT116">
+        <v>0.67</v>
+      </c>
+      <c r="AU116">
+        <v>1.54</v>
+      </c>
+      <c r="AV116">
+        <v>1.27</v>
+      </c>
+      <c r="AW116">
+        <v>2.81</v>
+      </c>
+      <c r="AX116">
+        <v>1.5</v>
+      </c>
+      <c r="AY116">
+        <v>7.5</v>
+      </c>
+      <c r="AZ116">
+        <v>3.3</v>
+      </c>
+      <c r="BA116">
+        <v>1.24</v>
+      </c>
+      <c r="BB116">
+        <v>1.55</v>
+      </c>
+      <c r="BC116">
+        <v>1.92</v>
+      </c>
+      <c r="BD116">
+        <v>2.38</v>
+      </c>
+      <c r="BE116">
+        <v>2.7</v>
+      </c>
+      <c r="BF116">
+        <v>7</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>9</v>
+      </c>
+      <c r="BI116">
+        <v>4</v>
+      </c>
+      <c r="BJ116">
+        <v>16</v>
+      </c>
+      <c r="BK116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5750723</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45104.875</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>109</v>
+      </c>
+      <c r="H117" t="s">
+        <v>88</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>117</v>
+      </c>
+      <c r="P117" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>1.95</v>
+      </c>
+      <c r="U117">
+        <v>2.38</v>
+      </c>
+      <c r="V117">
+        <v>7.5</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.75</v>
+      </c>
+      <c r="Z117">
+        <v>1.4</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>1.1</v>
+      </c>
+      <c r="AC117">
+        <v>1.35</v>
+      </c>
+      <c r="AD117">
+        <v>4.5</v>
+      </c>
+      <c r="AE117">
+        <v>8.5</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>13</v>
+      </c>
+      <c r="AH117">
+        <v>1.25</v>
+      </c>
+      <c r="AI117">
+        <v>3.75</v>
+      </c>
+      <c r="AJ117">
+        <v>1.75</v>
+      </c>
+      <c r="AK117">
+        <v>2</v>
+      </c>
+      <c r="AL117">
+        <v>2.1</v>
+      </c>
+      <c r="AM117">
+        <v>1.67</v>
+      </c>
+      <c r="AN117">
+        <v>1.09</v>
+      </c>
+      <c r="AO117">
+        <v>1.19</v>
+      </c>
+      <c r="AP117">
+        <v>2.8</v>
+      </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
+      <c r="AR117">
+        <v>0.6</v>
+      </c>
+      <c r="AS117">
+        <v>1.67</v>
+      </c>
+      <c r="AT117">
+        <v>1</v>
+      </c>
+      <c r="AU117">
+        <v>2.01</v>
+      </c>
+      <c r="AV117">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW117">
+        <v>2.95</v>
+      </c>
+      <c r="AX117">
+        <v>1.45</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>3.5</v>
+      </c>
+      <c r="BA117">
+        <v>1.25</v>
+      </c>
+      <c r="BB117">
+        <v>1.58</v>
+      </c>
+      <c r="BC117">
+        <v>1.92</v>
+      </c>
+      <c r="BD117">
+        <v>2.38</v>
+      </c>
+      <c r="BE117">
+        <v>3.4</v>
+      </c>
+      <c r="BF117">
+        <v>7</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>3</v>
+      </c>
+      <c r="BJ117">
+        <v>13</v>
+      </c>
+      <c r="BK117">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,21 @@
     <t>['2', '9', '23', '31']</t>
   </si>
   <si>
+    <t>['3', '22', '27']</t>
+  </si>
+  <si>
+    <t>['50', '54', '71', '86']</t>
+  </si>
+  <si>
+    <t>['9', '30', '42', '55']</t>
+  </si>
+  <si>
+    <t>['32', '64', '80']</t>
+  </si>
+  <si>
+    <t>['23', '48', '90']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -770,6 +785,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['44', '87']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1393,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1566,7 +1584,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1757,7 +1775,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1948,7 +1966,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2903,7 +2921,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2993,7 +3011,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU10">
         <v>2.51</v>
@@ -4240,7 +4258,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4622,7 +4640,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4709,7 +4727,7 @@
         <v>2.33</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT19">
         <v>1.75</v>
@@ -4813,7 +4831,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5004,7 +5022,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5195,7 +5213,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5577,7 +5595,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5667,7 +5685,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU24">
         <v>2.33</v>
@@ -5768,7 +5786,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5959,7 +5977,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6428,7 +6446,7 @@
         <v>2.33</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
         <v>1.75</v>
@@ -6723,7 +6741,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7296,7 +7314,7 @@
         <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7574,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7678,7 +7696,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7765,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7869,7 +7887,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -7959,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8060,7 +8078,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8251,7 +8269,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8338,10 +8356,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8442,7 +8460,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8529,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8633,7 +8651,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9015,7 +9033,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9206,7 +9224,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9397,7 +9415,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9484,10 +9502,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9588,7 +9606,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9970,7 +9988,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10439,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>0</v>
@@ -10734,7 +10752,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10925,7 +10943,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11203,10 +11221,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11307,7 +11325,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11394,10 +11412,10 @@
         <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11498,7 +11516,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11776,10 +11794,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -11967,10 +11985,10 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT57">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12262,7 +12280,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12453,7 +12471,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12540,10 +12558,10 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT60">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12644,7 +12662,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12835,7 +12853,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13026,7 +13044,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13217,7 +13235,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13304,10 +13322,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.8</v>
@@ -13408,7 +13426,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13495,10 +13513,10 @@
         <v>3</v>
       </c>
       <c r="AS65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU65">
         <v>1.04</v>
@@ -13599,7 +13617,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13790,7 +13808,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13981,7 +13999,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14068,10 +14086,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>1.4</v>
@@ -14363,7 +14381,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14450,10 +14468,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU70">
         <v>2.51</v>
@@ -14554,7 +14572,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14745,7 +14763,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15127,7 +15145,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15318,7 +15336,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15405,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15509,7 +15527,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15700,7 +15718,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15787,10 +15805,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT77">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15891,7 +15909,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16464,7 +16482,7 @@
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16846,7 +16864,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16933,10 +16951,10 @@
         <v>2.33</v>
       </c>
       <c r="AS83">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17037,7 +17055,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17124,10 +17142,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU84">
         <v>1.49</v>
@@ -17228,7 +17246,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17419,7 +17437,7 @@
         <v>117</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17697,10 +17715,10 @@
         <v>2</v>
       </c>
       <c r="AS87">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.11</v>
@@ -18079,10 +18097,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU89">
         <v>1.92</v>
@@ -18183,7 +18201,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18270,10 +18288,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU90">
         <v>2.04</v>
@@ -18374,7 +18392,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18565,7 +18583,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18947,7 +18965,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19037,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19138,7 +19156,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -20562,10 +20580,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT102">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU102">
         <v>1.86</v>
@@ -20753,10 +20771,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU103">
         <v>1.83</v>
@@ -20944,10 +20962,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU104">
         <v>2.72</v>
@@ -21135,10 +21153,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21430,7 +21448,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21621,7 +21639,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -21902,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU109">
         <v>1.17</v>
@@ -22003,7 +22021,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22090,10 +22108,10 @@
         <v>2.5</v>
       </c>
       <c r="AS110">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT110">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22385,7 +22403,7 @@
         <v>194</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>12</v>
@@ -22958,7 +22976,7 @@
         <v>197</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23149,7 +23167,7 @@
         <v>198</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23482,6 +23500,1152 @@
       </c>
       <c r="BK117">
         <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5750724</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>102</v>
+      </c>
+      <c r="H118" t="s">
+        <v>87</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>145</v>
+      </c>
+      <c r="P118" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q118">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>1.62</v>
+      </c>
+      <c r="U118">
+        <v>2.63</v>
+      </c>
+      <c r="V118">
+        <v>12</v>
+      </c>
+      <c r="W118">
+        <v>1.3</v>
+      </c>
+      <c r="X118">
+        <v>3.4</v>
+      </c>
+      <c r="Y118">
+        <v>2.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.5</v>
+      </c>
+      <c r="AA118">
+        <v>6</v>
+      </c>
+      <c r="AB118">
+        <v>1.13</v>
+      </c>
+      <c r="AC118">
+        <v>1.19</v>
+      </c>
+      <c r="AD118">
+        <v>4.96</v>
+      </c>
+      <c r="AE118">
+        <v>11.1</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>15</v>
+      </c>
+      <c r="AH118">
+        <v>1.22</v>
+      </c>
+      <c r="AI118">
+        <v>4.2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.66</v>
+      </c>
+      <c r="AK118">
+        <v>2.23</v>
+      </c>
+      <c r="AL118">
+        <v>2.5</v>
+      </c>
+      <c r="AM118">
+        <v>1.5</v>
+      </c>
+      <c r="AN118">
+        <v>1.03</v>
+      </c>
+      <c r="AO118">
+        <v>1.1</v>
+      </c>
+      <c r="AP118">
+        <v>4.6</v>
+      </c>
+      <c r="AQ118">
+        <v>1.6</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AS118">
+        <v>1.83</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
+      <c r="AU118">
+        <v>1.54</v>
+      </c>
+      <c r="AV118">
+        <v>1.14</v>
+      </c>
+      <c r="AW118">
+        <v>2.68</v>
+      </c>
+      <c r="AX118">
+        <v>1.07</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>1.25</v>
+      </c>
+      <c r="BB118">
+        <v>1.5</v>
+      </c>
+      <c r="BC118">
+        <v>1.8</v>
+      </c>
+      <c r="BD118">
+        <v>2.25</v>
+      </c>
+      <c r="BE118">
+        <v>3.4</v>
+      </c>
+      <c r="BF118">
+        <v>9</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>8</v>
+      </c>
+      <c r="BI118">
+        <v>5</v>
+      </c>
+      <c r="BJ118">
+        <v>17</v>
+      </c>
+      <c r="BK118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5750725</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>97</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>199</v>
+      </c>
+      <c r="P119" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q119">
+        <v>7</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119">
+        <v>2.05</v>
+      </c>
+      <c r="U119">
+        <v>2.3</v>
+      </c>
+      <c r="V119">
+        <v>6.5</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.75</v>
+      </c>
+      <c r="Z119">
+        <v>1.4</v>
+      </c>
+      <c r="AA119">
+        <v>7</v>
+      </c>
+      <c r="AB119">
+        <v>1.1</v>
+      </c>
+      <c r="AC119">
+        <v>1.43</v>
+      </c>
+      <c r="AD119">
+        <v>3.89</v>
+      </c>
+      <c r="AE119">
+        <v>5.75</v>
+      </c>
+      <c r="AF119">
+        <v>1.04</v>
+      </c>
+      <c r="AG119">
+        <v>12</v>
+      </c>
+      <c r="AH119">
+        <v>1.28</v>
+      </c>
+      <c r="AI119">
+        <v>3.6</v>
+      </c>
+      <c r="AJ119">
+        <v>1.77</v>
+      </c>
+      <c r="AK119">
+        <v>1.84</v>
+      </c>
+      <c r="AL119">
+        <v>2.05</v>
+      </c>
+      <c r="AM119">
+        <v>1.7</v>
+      </c>
+      <c r="AN119">
+        <v>1.11</v>
+      </c>
+      <c r="AO119">
+        <v>1.21</v>
+      </c>
+      <c r="AP119">
+        <v>2.55</v>
+      </c>
+      <c r="AQ119">
+        <v>1.8</v>
+      </c>
+      <c r="AR119">
+        <v>2</v>
+      </c>
+      <c r="AS119">
+        <v>2</v>
+      </c>
+      <c r="AT119">
+        <v>1.8</v>
+      </c>
+      <c r="AU119">
+        <v>2.62</v>
+      </c>
+      <c r="AV119">
+        <v>1.41</v>
+      </c>
+      <c r="AW119">
+        <v>4.03</v>
+      </c>
+      <c r="AX119">
+        <v>1.18</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
+        <v>6.5</v>
+      </c>
+      <c r="BA119">
+        <v>1.19</v>
+      </c>
+      <c r="BB119">
+        <v>1.44</v>
+      </c>
+      <c r="BC119">
+        <v>1.64</v>
+      </c>
+      <c r="BD119">
+        <v>2</v>
+      </c>
+      <c r="BE119">
+        <v>2.52</v>
+      </c>
+      <c r="BF119">
+        <v>6</v>
+      </c>
+      <c r="BG119">
+        <v>2</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>12</v>
+      </c>
+      <c r="BK119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5750726</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45105.89583333334</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>108</v>
+      </c>
+      <c r="H120" t="s">
+        <v>90</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>200</v>
+      </c>
+      <c r="P120" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>8</v>
+      </c>
+      <c r="T120">
+        <v>1.91</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>7</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3.25</v>
+      </c>
+      <c r="Y120">
+        <v>2.63</v>
+      </c>
+      <c r="Z120">
+        <v>1.44</v>
+      </c>
+      <c r="AA120">
+        <v>6.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.11</v>
+      </c>
+      <c r="AC120">
+        <v>1.31</v>
+      </c>
+      <c r="AD120">
+        <v>4.21</v>
+      </c>
+      <c r="AE120">
+        <v>7.69</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>13</v>
+      </c>
+      <c r="AH120">
+        <v>1.25</v>
+      </c>
+      <c r="AI120">
+        <v>3.75</v>
+      </c>
+      <c r="AJ120">
+        <v>1.8</v>
+      </c>
+      <c r="AK120">
+        <v>2</v>
+      </c>
+      <c r="AL120">
+        <v>2</v>
+      </c>
+      <c r="AM120">
+        <v>1.75</v>
+      </c>
+      <c r="AN120">
+        <v>1.1</v>
+      </c>
+      <c r="AO120">
+        <v>1.19</v>
+      </c>
+      <c r="AP120">
+        <v>2.75</v>
+      </c>
+      <c r="AQ120">
+        <v>2</v>
+      </c>
+      <c r="AR120">
+        <v>1</v>
+      </c>
+      <c r="AS120">
+        <v>2.17</v>
+      </c>
+      <c r="AT120">
+        <v>0.83</v>
+      </c>
+      <c r="AU120">
+        <v>1.3</v>
+      </c>
+      <c r="AV120">
+        <v>0.66</v>
+      </c>
+      <c r="AW120">
+        <v>1.96</v>
+      </c>
+      <c r="AX120">
+        <v>1.13</v>
+      </c>
+      <c r="AY120">
+        <v>11</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>1.31</v>
+      </c>
+      <c r="BB120">
+        <v>1.64</v>
+      </c>
+      <c r="BC120">
+        <v>2.01</v>
+      </c>
+      <c r="BD120">
+        <v>2.5</v>
+      </c>
+      <c r="BE120">
+        <v>3.9</v>
+      </c>
+      <c r="BF120">
+        <v>8</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>8</v>
+      </c>
+      <c r="BI120">
+        <v>3</v>
+      </c>
+      <c r="BJ120">
+        <v>16</v>
+      </c>
+      <c r="BK120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5750727</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45105.89583333334</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>104</v>
+      </c>
+      <c r="H121" t="s">
+        <v>89</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>201</v>
+      </c>
+      <c r="P121" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>14</v>
+      </c>
+      <c r="T121">
+        <v>1.5</v>
+      </c>
+      <c r="U121">
+        <v>2.88</v>
+      </c>
+      <c r="V121">
+        <v>15</v>
+      </c>
+      <c r="W121">
+        <v>1.25</v>
+      </c>
+      <c r="X121">
+        <v>3.75</v>
+      </c>
+      <c r="Y121">
+        <v>2.25</v>
+      </c>
+      <c r="Z121">
+        <v>1.57</v>
+      </c>
+      <c r="AA121">
+        <v>5.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.14</v>
+      </c>
+      <c r="AC121">
+        <v>1.19</v>
+      </c>
+      <c r="AD121">
+        <v>4.96</v>
+      </c>
+      <c r="AE121">
+        <v>11.1</v>
+      </c>
+      <c r="AF121">
+        <v>1.01</v>
+      </c>
+      <c r="AG121">
+        <v>19</v>
+      </c>
+      <c r="AH121">
+        <v>1.17</v>
+      </c>
+      <c r="AI121">
+        <v>5</v>
+      </c>
+      <c r="AJ121">
+        <v>1.47</v>
+      </c>
+      <c r="AK121">
+        <v>2.5</v>
+      </c>
+      <c r="AL121">
+        <v>2.63</v>
+      </c>
+      <c r="AM121">
+        <v>1.44</v>
+      </c>
+      <c r="AN121">
+        <v>1.02</v>
+      </c>
+      <c r="AO121">
+        <v>1.07</v>
+      </c>
+      <c r="AP121">
+        <v>5.75</v>
+      </c>
+      <c r="AQ121">
+        <v>1.6</v>
+      </c>
+      <c r="AR121">
+        <v>0.8</v>
+      </c>
+      <c r="AS121">
+        <v>1.83</v>
+      </c>
+      <c r="AT121">
+        <v>0.67</v>
+      </c>
+      <c r="AU121">
+        <v>1.3</v>
+      </c>
+      <c r="AV121">
+        <v>0.87</v>
+      </c>
+      <c r="AW121">
+        <v>2.17</v>
+      </c>
+      <c r="AX121">
+        <v>1.01</v>
+      </c>
+      <c r="AY121">
+        <v>20</v>
+      </c>
+      <c r="AZ121">
+        <v>21</v>
+      </c>
+      <c r="BA121">
+        <v>1.23</v>
+      </c>
+      <c r="BB121">
+        <v>1.52</v>
+      </c>
+      <c r="BC121">
+        <v>1.81</v>
+      </c>
+      <c r="BD121">
+        <v>2.26</v>
+      </c>
+      <c r="BE121">
+        <v>2.63</v>
+      </c>
+      <c r="BF121">
+        <v>10</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>9</v>
+      </c>
+      <c r="BI121">
+        <v>3</v>
+      </c>
+      <c r="BJ121">
+        <v>19</v>
+      </c>
+      <c r="BK121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5750728</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45105.89583333334</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>105</v>
+      </c>
+      <c r="H122" t="s">
+        <v>93</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>202</v>
+      </c>
+      <c r="P122" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q122">
+        <v>7</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>12</v>
+      </c>
+      <c r="T122">
+        <v>1.83</v>
+      </c>
+      <c r="U122">
+        <v>2.5</v>
+      </c>
+      <c r="V122">
+        <v>7</v>
+      </c>
+      <c r="W122">
+        <v>1.3</v>
+      </c>
+      <c r="X122">
+        <v>3.4</v>
+      </c>
+      <c r="Y122">
+        <v>2.38</v>
+      </c>
+      <c r="Z122">
+        <v>1.53</v>
+      </c>
+      <c r="AA122">
+        <v>6</v>
+      </c>
+      <c r="AB122">
+        <v>1.13</v>
+      </c>
+      <c r="AC122">
+        <v>1.29</v>
+      </c>
+      <c r="AD122">
+        <v>4.35</v>
+      </c>
+      <c r="AE122">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AF122">
+        <v>1.02</v>
+      </c>
+      <c r="AG122">
+        <v>15</v>
+      </c>
+      <c r="AH122">
+        <v>1.2</v>
+      </c>
+      <c r="AI122">
+        <v>4.33</v>
+      </c>
+      <c r="AJ122">
+        <v>1.87</v>
+      </c>
+      <c r="AK122">
+        <v>1.95</v>
+      </c>
+      <c r="AL122">
+        <v>1.91</v>
+      </c>
+      <c r="AM122">
+        <v>1.91</v>
+      </c>
+      <c r="AN122">
+        <v>1.07</v>
+      </c>
+      <c r="AO122">
+        <v>1.15</v>
+      </c>
+      <c r="AP122">
+        <v>3.3</v>
+      </c>
+      <c r="AQ122">
+        <v>0.8</v>
+      </c>
+      <c r="AR122">
+        <v>0.8</v>
+      </c>
+      <c r="AS122">
+        <v>1.17</v>
+      </c>
+      <c r="AT122">
+        <v>0.67</v>
+      </c>
+      <c r="AU122">
+        <v>1.64</v>
+      </c>
+      <c r="AV122">
+        <v>0.54</v>
+      </c>
+      <c r="AW122">
+        <v>2.18</v>
+      </c>
+      <c r="AX122">
+        <v>1.14</v>
+      </c>
+      <c r="AY122">
+        <v>11</v>
+      </c>
+      <c r="AZ122">
+        <v>7.5</v>
+      </c>
+      <c r="BA122">
+        <v>1.27</v>
+      </c>
+      <c r="BB122">
+        <v>1.48</v>
+      </c>
+      <c r="BC122">
+        <v>1.79</v>
+      </c>
+      <c r="BD122">
+        <v>2.22</v>
+      </c>
+      <c r="BE122">
+        <v>3.5</v>
+      </c>
+      <c r="BF122">
+        <v>9</v>
+      </c>
+      <c r="BG122">
+        <v>8</v>
+      </c>
+      <c r="BH122">
+        <v>3</v>
+      </c>
+      <c r="BI122">
+        <v>6</v>
+      </c>
+      <c r="BJ122">
+        <v>12</v>
+      </c>
+      <c r="BK122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5750729</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45105.89583333334</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>101</v>
+      </c>
+      <c r="H123" t="s">
+        <v>86</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>203</v>
+      </c>
+      <c r="P123" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>7</v>
+      </c>
+      <c r="T123">
+        <v>2.3</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>5</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>2.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>8</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>1.77</v>
+      </c>
+      <c r="AD123">
+        <v>3.15</v>
+      </c>
+      <c r="AE123">
+        <v>4.03</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>11</v>
+      </c>
+      <c r="AH123">
+        <v>1.3</v>
+      </c>
+      <c r="AI123">
+        <v>3.4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.92</v>
+      </c>
+      <c r="AK123">
+        <v>1.7</v>
+      </c>
+      <c r="AL123">
+        <v>1.95</v>
+      </c>
+      <c r="AM123">
+        <v>1.8</v>
+      </c>
+      <c r="AN123">
+        <v>1.19</v>
+      </c>
+      <c r="AO123">
+        <v>1.27</v>
+      </c>
+      <c r="AP123">
+        <v>2.05</v>
+      </c>
+      <c r="AQ123">
+        <v>1.8</v>
+      </c>
+      <c r="AR123">
+        <v>2.2</v>
+      </c>
+      <c r="AS123">
+        <v>2</v>
+      </c>
+      <c r="AT123">
+        <v>1.83</v>
+      </c>
+      <c r="AU123">
+        <v>2.23</v>
+      </c>
+      <c r="AV123">
+        <v>1.71</v>
+      </c>
+      <c r="AW123">
+        <v>3.94</v>
+      </c>
+      <c r="AX123">
+        <v>1.53</v>
+      </c>
+      <c r="AY123">
+        <v>7</v>
+      </c>
+      <c r="AZ123">
+        <v>3.25</v>
+      </c>
+      <c r="BA123">
+        <v>1.54</v>
+      </c>
+      <c r="BB123">
+        <v>1.94</v>
+      </c>
+      <c r="BC123">
+        <v>2.41</v>
+      </c>
+      <c r="BD123">
+        <v>2.6</v>
+      </c>
+      <c r="BE123">
+        <v>4.1</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>10</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>16</v>
+      </c>
+      <c r="BK123">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,15 @@
     <t>['23', '48', '90']</t>
   </si>
   <si>
+    <t>['39', '61', '86', '89']</t>
+  </si>
+  <si>
+    <t>['24', '34', '76', '85']</t>
+  </si>
+  <si>
+    <t>['57', '87']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -788,6 +797,9 @@
   </si>
   <si>
     <t>['44', '87']</t>
+  </si>
+  <si>
+    <t>['2', '43']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1405,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1584,7 +1596,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1775,7 +1787,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1966,7 +1978,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2820,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2921,7 +2933,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4154,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -4258,7 +4270,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4640,7 +4652,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4831,7 +4843,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5022,7 +5034,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5213,7 +5225,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5595,7 +5607,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5786,7 +5798,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5977,7 +5989,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6067,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU26">
         <v>2.82</v>
@@ -6741,7 +6753,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6828,7 +6840,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7314,7 +7326,7 @@
         <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7696,7 +7708,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7887,7 +7899,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8078,7 +8090,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8269,7 +8281,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8460,7 +8472,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8651,7 +8663,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8738,10 +8750,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8929,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9033,7 +9045,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9224,7 +9236,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9311,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9415,7 +9427,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9606,7 +9618,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9884,10 +9896,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9988,7 +10000,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10752,7 +10764,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10839,10 +10851,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -10943,7 +10955,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11325,7 +11337,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11516,7 +11528,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12179,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12280,7 +12292,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12367,10 +12379,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12471,7 +12483,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12662,7 +12674,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12853,7 +12865,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -12940,10 +12952,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT62">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13044,7 +13056,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13235,7 +13247,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13426,7 +13438,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13617,7 +13629,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13808,7 +13820,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13999,7 +14011,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14381,7 +14393,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14572,7 +14584,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14659,10 +14671,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14763,7 +14775,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14853,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU72">
         <v>2.51</v>
@@ -15145,7 +15157,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15232,10 +15244,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT74">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15336,7 +15348,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15527,7 +15539,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15718,7 +15730,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15909,7 +15921,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16187,10 +16199,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU79">
         <v>1.79</v>
@@ -16482,7 +16494,7 @@
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16569,7 +16581,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16760,10 +16772,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU82">
         <v>2.02</v>
@@ -16864,7 +16876,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17055,7 +17067,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17246,7 +17258,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17437,7 +17449,7 @@
         <v>117</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17524,10 +17536,10 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU86">
         <v>1.71</v>
@@ -17906,10 +17918,10 @@
         <v>2.33</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -18201,7 +18213,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18392,7 +18404,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18583,7 +18595,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18965,7 +18977,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19156,7 +19168,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19434,10 +19446,10 @@
         <v>1.75</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT96">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -19816,7 +19828,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20389,10 +20401,10 @@
         <v>1.88</v>
       </c>
       <c r="AS101">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU101">
         <v>2.31</v>
@@ -21448,7 +21460,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21535,10 +21547,10 @@
         <v>0.75</v>
       </c>
       <c r="AS107">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT107">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU107">
         <v>2.09</v>
@@ -21639,7 +21651,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22021,7 +22033,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22403,7 +22415,7 @@
         <v>194</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>12</v>
@@ -22976,7 +22988,7 @@
         <v>197</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23167,7 +23179,7 @@
         <v>198</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24504,7 +24516,7 @@
         <v>203</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24646,6 +24658,770 @@
       </c>
       <c r="BK123">
         <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5750730</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45106.79166666666</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>99</v>
+      </c>
+      <c r="H124" t="s">
+        <v>94</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>204</v>
+      </c>
+      <c r="P124" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>1.73</v>
+      </c>
+      <c r="U124">
+        <v>2.4</v>
+      </c>
+      <c r="V124">
+        <v>10</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>3</v>
+      </c>
+      <c r="Y124">
+        <v>2.63</v>
+      </c>
+      <c r="Z124">
+        <v>1.44</v>
+      </c>
+      <c r="AA124">
+        <v>7</v>
+      </c>
+      <c r="AB124">
+        <v>1.1</v>
+      </c>
+      <c r="AC124">
+        <v>1.24</v>
+      </c>
+      <c r="AD124">
+        <v>6</v>
+      </c>
+      <c r="AE124">
+        <v>14</v>
+      </c>
+      <c r="AF124">
+        <v>1.03</v>
+      </c>
+      <c r="AG124">
+        <v>13</v>
+      </c>
+      <c r="AH124">
+        <v>1.25</v>
+      </c>
+      <c r="AI124">
+        <v>3.75</v>
+      </c>
+      <c r="AJ124">
+        <v>1.62</v>
+      </c>
+      <c r="AK124">
+        <v>2.07</v>
+      </c>
+      <c r="AL124">
+        <v>2.5</v>
+      </c>
+      <c r="AM124">
+        <v>1.5</v>
+      </c>
+      <c r="AN124">
+        <v>1.05</v>
+      </c>
+      <c r="AO124">
+        <v>1.14</v>
+      </c>
+      <c r="AP124">
+        <v>3.7</v>
+      </c>
+      <c r="AQ124">
+        <v>2</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>2.17</v>
+      </c>
+      <c r="AT124">
+        <v>0.83</v>
+      </c>
+      <c r="AU124">
+        <v>1.67</v>
+      </c>
+      <c r="AV124">
+        <v>1.21</v>
+      </c>
+      <c r="AW124">
+        <v>2.88</v>
+      </c>
+      <c r="AX124">
+        <v>1.26</v>
+      </c>
+      <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
+        <v>4.86</v>
+      </c>
+      <c r="BA124">
+        <v>1.27</v>
+      </c>
+      <c r="BB124">
+        <v>1.52</v>
+      </c>
+      <c r="BC124">
+        <v>2</v>
+      </c>
+      <c r="BD124">
+        <v>2.46</v>
+      </c>
+      <c r="BE124">
+        <v>3.28</v>
+      </c>
+      <c r="BF124">
+        <v>12</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>8</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>20</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5750731</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45106.79166666666</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>106</v>
+      </c>
+      <c r="H125" t="s">
+        <v>92</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>117</v>
+      </c>
+      <c r="P125" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q125">
+        <v>10</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>12</v>
+      </c>
+      <c r="T125">
+        <v>2.1</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>6</v>
+      </c>
+      <c r="W125">
+        <v>1.4</v>
+      </c>
+      <c r="X125">
+        <v>2.75</v>
+      </c>
+      <c r="Y125">
+        <v>2.75</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>8</v>
+      </c>
+      <c r="AB125">
+        <v>1.08</v>
+      </c>
+      <c r="AC125">
+        <v>1.57</v>
+      </c>
+      <c r="AD125">
+        <v>4.1</v>
+      </c>
+      <c r="AE125">
+        <v>6</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>1.3</v>
+      </c>
+      <c r="AI125">
+        <v>3.4</v>
+      </c>
+      <c r="AJ125">
+        <v>1.9</v>
+      </c>
+      <c r="AK125">
+        <v>1.91</v>
+      </c>
+      <c r="AL125">
+        <v>2</v>
+      </c>
+      <c r="AM125">
+        <v>1.75</v>
+      </c>
+      <c r="AN125">
+        <v>1.15</v>
+      </c>
+      <c r="AO125">
+        <v>1.24</v>
+      </c>
+      <c r="AP125">
+        <v>2.25</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.4</v>
+      </c>
+      <c r="AS125">
+        <v>1</v>
+      </c>
+      <c r="AT125">
+        <v>1.33</v>
+      </c>
+      <c r="AU125">
+        <v>2.08</v>
+      </c>
+      <c r="AV125">
+        <v>1.36</v>
+      </c>
+      <c r="AW125">
+        <v>3.44</v>
+      </c>
+      <c r="AX125">
+        <v>1.34</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>3.88</v>
+      </c>
+      <c r="BA125">
+        <v>1.27</v>
+      </c>
+      <c r="BB125">
+        <v>1.52</v>
+      </c>
+      <c r="BC125">
+        <v>2</v>
+      </c>
+      <c r="BD125">
+        <v>2.44</v>
+      </c>
+      <c r="BE125">
+        <v>3.28</v>
+      </c>
+      <c r="BF125">
+        <v>8</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>9</v>
+      </c>
+      <c r="BI125">
+        <v>1</v>
+      </c>
+      <c r="BJ125">
+        <v>17</v>
+      </c>
+      <c r="BK125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5750732</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45106.875</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>110</v>
+      </c>
+      <c r="H126" t="s">
+        <v>91</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>205</v>
+      </c>
+      <c r="P126" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q126">
+        <v>7</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>1.5</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>15</v>
+      </c>
+      <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>3.75</v>
+      </c>
+      <c r="Y126">
+        <v>2.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.62</v>
+      </c>
+      <c r="AA126">
+        <v>5</v>
+      </c>
+      <c r="AB126">
+        <v>1.17</v>
+      </c>
+      <c r="AC126">
+        <v>1.33</v>
+      </c>
+      <c r="AD126">
+        <v>5</v>
+      </c>
+      <c r="AE126">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>13</v>
+      </c>
+      <c r="AH126">
+        <v>1.12</v>
+      </c>
+      <c r="AI126">
+        <v>6</v>
+      </c>
+      <c r="AJ126">
+        <v>1.62</v>
+      </c>
+      <c r="AK126">
+        <v>2.08</v>
+      </c>
+      <c r="AL126">
+        <v>2.5</v>
+      </c>
+      <c r="AM126">
+        <v>1.5</v>
+      </c>
+      <c r="AN126">
+        <v>1.02</v>
+      </c>
+      <c r="AO126">
+        <v>1.07</v>
+      </c>
+      <c r="AP126">
+        <v>5.75</v>
+      </c>
+      <c r="AQ126">
+        <v>2.4</v>
+      </c>
+      <c r="AR126">
+        <v>2.4</v>
+      </c>
+      <c r="AS126">
+        <v>2.5</v>
+      </c>
+      <c r="AT126">
+        <v>2</v>
+      </c>
+      <c r="AU126">
+        <v>2.14</v>
+      </c>
+      <c r="AV126">
+        <v>1.46</v>
+      </c>
+      <c r="AW126">
+        <v>3.6</v>
+      </c>
+      <c r="AX126">
+        <v>1.05</v>
+      </c>
+      <c r="AY126">
+        <v>17.5</v>
+      </c>
+      <c r="AZ126">
+        <v>12.6</v>
+      </c>
+      <c r="BA126">
+        <v>1.21</v>
+      </c>
+      <c r="BB126">
+        <v>1.36</v>
+      </c>
+      <c r="BC126">
+        <v>1.66</v>
+      </c>
+      <c r="BD126">
+        <v>2.11</v>
+      </c>
+      <c r="BE126">
+        <v>2.72</v>
+      </c>
+      <c r="BF126">
+        <v>12</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>13</v>
+      </c>
+      <c r="BI126">
+        <v>1</v>
+      </c>
+      <c r="BJ126">
+        <v>25</v>
+      </c>
+      <c r="BK126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5750733</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45106.875</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>107</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>206</v>
+      </c>
+      <c r="P127" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <v>2.3</v>
+      </c>
+      <c r="U127">
+        <v>2.3</v>
+      </c>
+      <c r="V127">
+        <v>5</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2.63</v>
+      </c>
+      <c r="Z127">
+        <v>1.44</v>
+      </c>
+      <c r="AA127">
+        <v>7</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>1.83</v>
+      </c>
+      <c r="AD127">
+        <v>3.8</v>
+      </c>
+      <c r="AE127">
+        <v>4.2</v>
+      </c>
+      <c r="AF127">
+        <v>1.03</v>
+      </c>
+      <c r="AG127">
+        <v>13</v>
+      </c>
+      <c r="AH127">
+        <v>1.22</v>
+      </c>
+      <c r="AI127">
+        <v>4</v>
+      </c>
+      <c r="AJ127">
+        <v>2.03</v>
+      </c>
+      <c r="AK127">
+        <v>1.8</v>
+      </c>
+      <c r="AL127">
+        <v>1.8</v>
+      </c>
+      <c r="AM127">
+        <v>1.95</v>
+      </c>
+      <c r="AN127">
+        <v>1.22</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.98</v>
+      </c>
+      <c r="AQ127">
+        <v>0.6</v>
+      </c>
+      <c r="AR127">
+        <v>1.67</v>
+      </c>
+      <c r="AS127">
+        <v>0.67</v>
+      </c>
+      <c r="AT127">
+        <v>1.6</v>
+      </c>
+      <c r="AU127">
+        <v>2.14</v>
+      </c>
+      <c r="AV127">
+        <v>1.44</v>
+      </c>
+      <c r="AW127">
+        <v>3.58</v>
+      </c>
+      <c r="AX127">
+        <v>1.51</v>
+      </c>
+      <c r="AY127">
+        <v>9.4</v>
+      </c>
+      <c r="AZ127">
+        <v>3.16</v>
+      </c>
+      <c r="BA127">
+        <v>1.25</v>
+      </c>
+      <c r="BB127">
+        <v>1.48</v>
+      </c>
+      <c r="BC127">
+        <v>1.85</v>
+      </c>
+      <c r="BD127">
+        <v>2.36</v>
+      </c>
+      <c r="BE127">
+        <v>3.18</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>6</v>
+      </c>
+      <c r="BH127">
+        <v>5</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>9</v>
+      </c>
+      <c r="BK127">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Libertadores_2023.xlsx
@@ -238,12 +238,12 @@
     <t>Magallanes</t>
   </si>
   <si>
+    <t>Deportivo Maldonado</t>
+  </si>
+  <si>
     <t>CD Universidad Católica</t>
   </si>
   <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
     <t>Cerro Porteño</t>
   </si>
   <si>
@@ -268,15 +268,15 @@
     <t>Fortaleza</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>The Strongest</t>
+  </si>
+  <si>
     <t>Alianza Lima</t>
   </si>
   <si>
-    <t>The Strongest</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
     <t>Metropolitanos</t>
   </si>
   <si>
@@ -304,10 +304,13 @@
     <t>Melgar</t>
   </si>
   <si>
+    <t>Internacional</t>
+  </si>
+  <si>
     <t>Fluminense</t>
   </si>
   <si>
-    <t>Internacional</t>
+    <t>Atlético PR</t>
   </si>
   <si>
     <t>Olimpia</t>
@@ -316,9 +319,6 @@
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
     <t>CSD Independiente del Valle</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>['90+7']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['25', '35', '48']</t>
   </si>
   <si>
-    <t>['46']</t>
-  </si>
-  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -454,15 +454,15 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['7', '35']</t>
+  </si>
+  <si>
     <t>['44']</t>
   </si>
   <si>
     <t>['89', '90+9']</t>
   </si>
   <si>
-    <t>['7', '35']</t>
-  </si>
-  <si>
     <t>['27', '67']</t>
   </si>
   <si>
@@ -493,12 +493,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['48', '76']</t>
+  </si>
+  <si>
     <t>['79', '90+1']</t>
   </si>
   <si>
-    <t>['48', '76']</t>
-  </si>
-  <si>
     <t>['29', '53', '75', '86', '90+1']</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>['20', '41']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['68', '87']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['25', '68']</t>
   </si>
   <si>
@@ -574,15 +574,15 @@
     <t>['5', '48']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['17', '24', '69']</t>
+  </si>
+  <si>
     <t>['61', '90+5']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
-    <t>['17', '24', '69']</t>
-  </si>
-  <si>
     <t>['49', '90+7']</t>
   </si>
   <si>
@@ -616,18 +616,18 @@
     <t>['3', '22', '27']</t>
   </si>
   <si>
+    <t>['32', '64', '80']</t>
+  </si>
+  <si>
+    <t>['23', '48', '90']</t>
+  </si>
+  <si>
     <t>['50', '54', '71', '86']</t>
   </si>
   <si>
     <t>['9', '30', '42', '55']</t>
   </si>
   <si>
-    <t>['32', '64', '80']</t>
-  </si>
-  <si>
-    <t>['23', '48', '90']</t>
-  </si>
-  <si>
     <t>['39', '61', '86', '89']</t>
   </si>
   <si>
@@ -694,12 +694,12 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['45+1', '49', '63']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -754,10 +754,10 @@
     <t>['52', '65']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['2', '69']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['45+2', '55']</t>
@@ -2742,7 +2742,7 @@
         <v>117</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3655,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4931050</v>
+        <v>4931047</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3673,7 +3673,7 @@
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3700,82 +3700,82 @@
         <v>117</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>2.88</v>
+        <v>3.86</v>
       </c>
       <c r="U14">
         <v>2.05</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="W14">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X14">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB14">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC14">
-        <v>1.99</v>
+        <v>3.22</v>
       </c>
       <c r="AD14">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="AE14">
-        <v>3.28</v>
+        <v>2.07</v>
       </c>
       <c r="AF14">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG14">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AH14">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AI14">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AJ14">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK14">
         <v>1.67</v>
       </c>
       <c r="AL14">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AM14">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AN14">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AO14">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3787,58 +3787,58 @@
         <v>0.5</v>
       </c>
       <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>2.2</v>
+      </c>
+      <c r="AY14">
+        <v>5.25</v>
+      </c>
+      <c r="AZ14">
+        <v>1.9</v>
+      </c>
+      <c r="BA14">
         <v>1.25</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1.58</v>
-      </c>
-      <c r="AY14">
-        <v>5.75</v>
-      </c>
-      <c r="AZ14">
-        <v>2.7</v>
-      </c>
-      <c r="BA14">
-        <v>1.31</v>
-      </c>
       <c r="BB14">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BC14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="BD14">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="BE14">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3846,7 +3846,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4931047</v>
+        <v>4931050</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3864,7 +3864,7 @@
         <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3891,82 +3891,82 @@
         <v>117</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T15">
-        <v>3.86</v>
+        <v>2.88</v>
       </c>
       <c r="U15">
         <v>2.05</v>
       </c>
       <c r="V15">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="W15">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z15">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC15">
-        <v>3.22</v>
+        <v>1.99</v>
       </c>
       <c r="AD15">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="AE15">
-        <v>2.07</v>
+        <v>3.28</v>
       </c>
       <c r="AF15">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG15">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH15">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AI15">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AJ15">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK15">
         <v>1.67</v>
       </c>
       <c r="AL15">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AM15">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AN15">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="AO15">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AP15">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3990,46 +3990,46 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AY15">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="AZ15">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="BA15">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BB15">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BC15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BD15">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="BE15">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BF15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -5201,7 +5201,7 @@
         <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5750640</v>
+        <v>5750638</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -7111,7 +7111,7 @@
         <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7123,160 +7123,160 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
         <v>117</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T32">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="W32">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Z32">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AA32">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB32">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC32">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AD32">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AE32">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="AF32">
         <v>1.08</v>
       </c>
       <c r="AG32">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="AH32">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AI32">
-        <v>3.02</v>
+        <v>2.55</v>
       </c>
       <c r="AJ32">
+        <v>2.25</v>
+      </c>
+      <c r="AK32">
+        <v>1.55</v>
+      </c>
+      <c r="AL32">
+        <v>2.2</v>
+      </c>
+      <c r="AM32">
+        <v>1.65</v>
+      </c>
+      <c r="AN32">
+        <v>1.2</v>
+      </c>
+      <c r="AO32">
+        <v>1.3</v>
+      </c>
+      <c r="AP32">
+        <v>1.93</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>1.83</v>
+      </c>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>1.55</v>
+      </c>
+      <c r="AY32">
+        <v>9.1</v>
+      </c>
+      <c r="AZ32">
+        <v>2.96</v>
+      </c>
+      <c r="BA32">
+        <v>1.4</v>
+      </c>
+      <c r="BB32">
+        <v>1.67</v>
+      </c>
+      <c r="BC32">
         <v>2.1</v>
       </c>
-      <c r="AK32">
-        <v>1.65</v>
-      </c>
-      <c r="AL32">
-        <v>1.91</v>
-      </c>
-      <c r="AM32">
-        <v>1.8</v>
-      </c>
-      <c r="AN32">
-        <v>1.72</v>
-      </c>
-      <c r="AO32">
-        <v>1.32</v>
-      </c>
-      <c r="AP32">
-        <v>1.28</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0.67</v>
-      </c>
-      <c r="AT32">
-        <v>2.17</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>2.15</v>
-      </c>
-      <c r="AY32">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ32">
-        <v>1.92</v>
-      </c>
-      <c r="BA32">
-        <v>1.15</v>
-      </c>
-      <c r="BB32">
-        <v>1.29</v>
-      </c>
-      <c r="BC32">
-        <v>1.54</v>
-      </c>
       <c r="BD32">
-        <v>1.92</v>
+        <v>2.63</v>
       </c>
       <c r="BE32">
-        <v>2.46</v>
+        <v>3.84</v>
       </c>
       <c r="BF32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG32">
         <v>6</v>
       </c>
       <c r="BH32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ32">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK32">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7323,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P33" t="s">
         <v>218</v>
@@ -7475,7 +7475,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5750638</v>
+        <v>5750640</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7493,7 +7493,7 @@
         <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7505,97 +7505,97 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P34" t="s">
         <v>117</v>
       </c>
       <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+      <c r="T34">
+        <v>4.1</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.48</v>
+      </c>
+      <c r="X34">
+        <v>2.5</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
+      <c r="AA34">
+        <v>7.5</v>
+      </c>
+      <c r="AB34">
+        <v>1.07</v>
+      </c>
+      <c r="AC34">
         <v>4</v>
       </c>
-      <c r="R34">
-        <v>4</v>
-      </c>
-      <c r="S34">
-        <v>8</v>
-      </c>
-      <c r="T34">
-        <v>2.6</v>
-      </c>
-      <c r="U34">
-        <v>1.9</v>
-      </c>
-      <c r="V34">
-        <v>4.8</v>
-      </c>
-      <c r="W34">
-        <v>1.55</v>
-      </c>
-      <c r="X34">
-        <v>2.3</v>
-      </c>
-      <c r="Y34">
-        <v>3.5</v>
-      </c>
-      <c r="Z34">
-        <v>1.25</v>
-      </c>
-      <c r="AA34">
-        <v>8</v>
-      </c>
-      <c r="AB34">
-        <v>1.06</v>
-      </c>
-      <c r="AC34">
-        <v>1.9</v>
-      </c>
       <c r="AD34">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE34">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="AF34">
         <v>1.08</v>
       </c>
       <c r="AG34">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="AH34">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AI34">
-        <v>2.55</v>
+        <v>3.02</v>
       </c>
       <c r="AJ34">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK34">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AL34">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AM34">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AN34">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="AO34">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP34">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7604,10 +7604,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7619,46 +7619,46 @@
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="AY34">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ34">
-        <v>2.96</v>
+        <v>1.92</v>
       </c>
       <c r="BA34">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="BB34">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="BC34">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="BD34">
-        <v>2.63</v>
+        <v>1.92</v>
       </c>
       <c r="BE34">
-        <v>3.84</v>
+        <v>2.46</v>
       </c>
       <c r="BF34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG34">
         <v>6</v>
       </c>
       <c r="BH34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BK34">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7684,7 +7684,7 @@
         <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9385,7 +9385,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5750650</v>
+        <v>5750651</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -9400,10 +9400,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>117</v>
@@ -9430,136 +9430,136 @@
         <v>226</v>
       </c>
       <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
         <v>6</v>
       </c>
-      <c r="R44">
-        <v>6</v>
-      </c>
-      <c r="S44">
-        <v>12</v>
-      </c>
       <c r="T44">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V44">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>2.63</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>1.36</v>
+      </c>
+      <c r="AA44">
+        <v>9</v>
+      </c>
+      <c r="AB44">
+        <v>1.07</v>
+      </c>
+      <c r="AC44">
+        <v>1.31</v>
+      </c>
+      <c r="AD44">
+        <v>4.55</v>
+      </c>
+      <c r="AE44">
+        <v>8.9</v>
+      </c>
+      <c r="AF44">
+        <v>1.05</v>
+      </c>
+      <c r="AG44">
+        <v>10</v>
+      </c>
+      <c r="AH44">
+        <v>1.33</v>
+      </c>
+      <c r="AI44">
+        <v>3.25</v>
+      </c>
+      <c r="AJ44">
+        <v>1.91</v>
+      </c>
+      <c r="AK44">
+        <v>1.73</v>
+      </c>
+      <c r="AL44">
+        <v>2.5</v>
+      </c>
+      <c r="AM44">
         <v>1.5</v>
       </c>
-      <c r="X44">
-        <v>2.5</v>
-      </c>
-      <c r="Y44">
-        <v>3.4</v>
-      </c>
-      <c r="Z44">
-        <v>1.3</v>
-      </c>
-      <c r="AA44">
-        <v>10</v>
-      </c>
-      <c r="AB44">
-        <v>1.06</v>
-      </c>
-      <c r="AC44">
-        <v>4.65</v>
-      </c>
-      <c r="AD44">
-        <v>3.45</v>
-      </c>
-      <c r="AE44">
-        <v>1.7</v>
-      </c>
-      <c r="AF44">
-        <v>1.08</v>
-      </c>
-      <c r="AG44">
-        <v>8.5</v>
-      </c>
-      <c r="AH44">
-        <v>1.44</v>
-      </c>
-      <c r="AI44">
-        <v>2.8</v>
-      </c>
-      <c r="AJ44">
-        <v>2.22</v>
-      </c>
-      <c r="AK44">
-        <v>1.54</v>
-      </c>
-      <c r="AL44">
-        <v>2.05</v>
-      </c>
-      <c r="AM44">
-        <v>1.7</v>
-      </c>
       <c r="AN44">
+        <v>1.05</v>
+      </c>
+      <c r="AO44">
+        <v>1.2</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
         <v>1.8</v>
-      </c>
-      <c r="AO44">
-        <v>1.3</v>
-      </c>
-      <c r="AP44">
-        <v>1.22</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0.67</v>
       </c>
       <c r="AT44">
         <v>1.17</v>
       </c>
       <c r="AU44">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AV44">
         <v>0</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AX44">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ44">
-        <v>1.73</v>
+        <v>4.42</v>
       </c>
       <c r="BA44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB44">
         <v>1.48</v>
       </c>
       <c r="BC44">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="BD44">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="BE44">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="BF44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH44">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI44">
         <v>5</v>
@@ -9568,7 +9568,7 @@
         <v>11</v>
       </c>
       <c r="BK44">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -9576,7 +9576,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>5750651</v>
+        <v>5750650</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9591,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9609,10 +9609,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" t="s">
         <v>117</v>
@@ -9621,136 +9621,136 @@
         <v>227</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T45">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="U45">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V45">
+        <v>2.6</v>
+      </c>
+      <c r="W45">
+        <v>1.5</v>
+      </c>
+      <c r="X45">
+        <v>2.5</v>
+      </c>
+      <c r="Y45">
+        <v>3.4</v>
+      </c>
+      <c r="Z45">
+        <v>1.3</v>
+      </c>
+      <c r="AA45">
+        <v>10</v>
+      </c>
+      <c r="AB45">
+        <v>1.06</v>
+      </c>
+      <c r="AC45">
+        <v>4.65</v>
+      </c>
+      <c r="AD45">
+        <v>3.45</v>
+      </c>
+      <c r="AE45">
+        <v>1.7</v>
+      </c>
+      <c r="AF45">
+        <v>1.08</v>
+      </c>
+      <c r="AG45">
         <v>8.5</v>
       </c>
-      <c r="W45">
+      <c r="AH45">
         <v>1.44</v>
       </c>
-      <c r="X45">
-        <v>2.63</v>
-      </c>
-      <c r="Y45">
-        <v>3</v>
-      </c>
-      <c r="Z45">
-        <v>1.36</v>
-      </c>
-      <c r="AA45">
-        <v>9</v>
-      </c>
-      <c r="AB45">
-        <v>1.07</v>
-      </c>
-      <c r="AC45">
-        <v>1.31</v>
-      </c>
-      <c r="AD45">
-        <v>4.55</v>
-      </c>
-      <c r="AE45">
-        <v>8.9</v>
-      </c>
-      <c r="AF45">
-        <v>1.05</v>
-      </c>
-      <c r="AG45">
-        <v>10</v>
-      </c>
-      <c r="AH45">
-        <v>1.33</v>
-      </c>
       <c r="AI45">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="AJ45">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="AK45">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AL45">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AM45">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AN45">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="AO45">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR45">
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT45">
         <v>1.17</v>
       </c>
       <c r="AU45">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AV45">
         <v>0</v>
       </c>
       <c r="AW45">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AX45">
-        <v>1.3</v>
+        <v>2.48</v>
       </c>
       <c r="AY45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ45">
-        <v>4.42</v>
+        <v>1.73</v>
       </c>
       <c r="BA45">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB45">
         <v>1.48</v>
       </c>
       <c r="BC45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="BD45">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="BE45">
-        <v>2.7</v>
+        <v>3.18</v>
       </c>
       <c r="BF45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH45">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI45">
         <v>5</v>
@@ -9759,7 +9759,7 @@
         <v>11</v>
       </c>
       <c r="BK45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9785,7 +9785,7 @@
         <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -9976,7 +9976,7 @@
         <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -10149,7 +10149,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5750655</v>
+        <v>5750654</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -10167,16 +10167,16 @@
         <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -10188,100 +10188,100 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P48" t="s">
         <v>117</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T48">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="U48">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W48">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="X48">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="Y48">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z48">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA48">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB48">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AC48">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AD48">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE48">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AF48">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG48">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AH48">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AI48">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ48">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AK48">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="AL48">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AM48">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AN48">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AO48">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AP48">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10296,43 +10296,43 @@
         <v>1.07</v>
       </c>
       <c r="AY48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ48">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="BA48">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="BB48">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BC48">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="BD48">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="BE48">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="BF48">
+        <v>8</v>
+      </c>
+      <c r="BG48">
+        <v>2</v>
+      </c>
+      <c r="BH48">
         <v>12</v>
       </c>
-      <c r="BG48">
-        <v>3</v>
-      </c>
-      <c r="BH48">
-        <v>10</v>
-      </c>
       <c r="BI48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BK48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10340,7 +10340,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5750654</v>
+        <v>5750655</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10358,16 +10358,16 @@
         <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -10379,100 +10379,100 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P49" t="s">
         <v>117</v>
       </c>
       <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="T49">
+        <v>1.55</v>
+      </c>
+      <c r="U49">
+        <v>2.65</v>
+      </c>
+      <c r="V49">
+        <v>11</v>
+      </c>
+      <c r="W49">
+        <v>1.29</v>
+      </c>
+      <c r="X49">
+        <v>3.25</v>
+      </c>
+      <c r="Y49">
+        <v>2.25</v>
+      </c>
+      <c r="Z49">
+        <v>1.57</v>
+      </c>
+      <c r="AA49">
+        <v>5</v>
+      </c>
+      <c r="AB49">
+        <v>1.15</v>
+      </c>
+      <c r="AC49">
+        <v>1.1</v>
+      </c>
+      <c r="AD49">
+        <v>6.8</v>
+      </c>
+      <c r="AE49">
         <v>14</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>14</v>
-      </c>
-      <c r="T49">
-        <v>1.44</v>
-      </c>
-      <c r="U49">
-        <v>3</v>
-      </c>
-      <c r="V49">
-        <v>12</v>
-      </c>
-      <c r="W49">
-        <v>1.24</v>
-      </c>
-      <c r="X49">
-        <v>3.7</v>
-      </c>
-      <c r="Y49">
-        <v>2.1</v>
-      </c>
-      <c r="Z49">
-        <v>1.65</v>
-      </c>
-      <c r="AA49">
-        <v>4.5</v>
-      </c>
-      <c r="AB49">
-        <v>1.17</v>
-      </c>
-      <c r="AC49">
-        <v>1.07</v>
-      </c>
-      <c r="AD49">
-        <v>7.5</v>
-      </c>
-      <c r="AE49">
-        <v>20</v>
-      </c>
       <c r="AF49">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG49">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AH49">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AI49">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AJ49">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AK49">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="AL49">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AM49">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AN49">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AO49">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AP49">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10487,43 +10487,43 @@
         <v>1.07</v>
       </c>
       <c r="AY49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ49">
+        <v>10.25</v>
+      </c>
+      <c r="BA49">
+        <v>1.21</v>
+      </c>
+      <c r="BB49">
+        <v>1.41</v>
+      </c>
+      <c r="BC49">
+        <v>1.73</v>
+      </c>
+      <c r="BD49">
+        <v>2.17</v>
+      </c>
+      <c r="BE49">
+        <v>2.84</v>
+      </c>
+      <c r="BF49">
+        <v>12</v>
+      </c>
+      <c r="BG49">
+        <v>3</v>
+      </c>
+      <c r="BH49">
         <v>10</v>
       </c>
-      <c r="BA49">
-        <v>1.13</v>
-      </c>
-      <c r="BB49">
-        <v>1.3</v>
-      </c>
-      <c r="BC49">
-        <v>1.55</v>
-      </c>
-      <c r="BD49">
-        <v>1.92</v>
-      </c>
-      <c r="BE49">
-        <v>2.44</v>
-      </c>
-      <c r="BF49">
-        <v>8</v>
-      </c>
-      <c r="BG49">
-        <v>2</v>
-      </c>
-      <c r="BH49">
-        <v>12</v>
-      </c>
       <c r="BI49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ49">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BK49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10531,7 +10531,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5750656</v>
+        <v>5750658</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10549,172 +10549,172 @@
         <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50" t="s">
         <v>146</v>
       </c>
       <c r="P50" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="U50">
+        <v>1.98</v>
+      </c>
+      <c r="V50">
+        <v>3.1</v>
+      </c>
+      <c r="W50">
+        <v>1.46</v>
+      </c>
+      <c r="X50">
+        <v>2.5</v>
+      </c>
+      <c r="Y50">
+        <v>3.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.31</v>
+      </c>
+      <c r="AA50">
+        <v>8.5</v>
+      </c>
+      <c r="AB50">
+        <v>1.06</v>
+      </c>
+      <c r="AC50">
+        <v>2.33</v>
+      </c>
+      <c r="AD50">
+        <v>2.88</v>
+      </c>
+      <c r="AE50">
+        <v>2.84</v>
+      </c>
+      <c r="AF50">
+        <v>1.08</v>
+      </c>
+      <c r="AG50">
+        <v>8.5</v>
+      </c>
+      <c r="AH50">
+        <v>1.44</v>
+      </c>
+      <c r="AI50">
+        <v>2.8</v>
+      </c>
+      <c r="AJ50">
+        <v>2.35</v>
+      </c>
+      <c r="AK50">
+        <v>1.52</v>
+      </c>
+      <c r="AL50">
+        <v>1.93</v>
+      </c>
+      <c r="AM50">
+        <v>1.77</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>1.41</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.6</v>
+      </c>
+      <c r="AS50">
+        <v>2.17</v>
+      </c>
+      <c r="AT50">
+        <v>1.8</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>1.51</v>
+      </c>
+      <c r="AW50">
+        <v>1.51</v>
+      </c>
+      <c r="AX50">
         <v>2.2</v>
       </c>
-      <c r="V50">
-        <v>6</v>
-      </c>
-      <c r="W50">
-        <v>1.38</v>
-      </c>
-      <c r="X50">
-        <v>2.8</v>
-      </c>
-      <c r="Y50">
-        <v>2.65</v>
-      </c>
-      <c r="Z50">
-        <v>1.42</v>
-      </c>
-      <c r="AA50">
-        <v>6.5</v>
-      </c>
-      <c r="AB50">
-        <v>1.09</v>
-      </c>
-      <c r="AC50">
-        <v>1.55</v>
-      </c>
-      <c r="AD50">
-        <v>4.3</v>
-      </c>
-      <c r="AE50">
-        <v>6.4</v>
-      </c>
-      <c r="AF50">
-        <v>1.05</v>
-      </c>
-      <c r="AG50">
-        <v>12</v>
-      </c>
-      <c r="AH50">
-        <v>1.3</v>
-      </c>
-      <c r="AI50">
-        <v>3.6</v>
-      </c>
-      <c r="AJ50">
-        <v>1.98</v>
-      </c>
-      <c r="AK50">
-        <v>1.83</v>
-      </c>
-      <c r="AL50">
-        <v>2</v>
-      </c>
-      <c r="AM50">
-        <v>1.68</v>
-      </c>
-      <c r="AN50">
-        <v>1.11</v>
-      </c>
-      <c r="AO50">
-        <v>1.23</v>
-      </c>
-      <c r="AP50">
-        <v>2.5</v>
-      </c>
-      <c r="AQ50">
-        <v>1</v>
-      </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-      <c r="AS50">
-        <v>2.33</v>
-      </c>
-      <c r="AT50">
-        <v>1</v>
-      </c>
-      <c r="AU50">
-        <v>0</v>
-      </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
-      <c r="AX50">
-        <v>1.47</v>
-      </c>
       <c r="AY50">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AZ50">
-        <v>3.28</v>
+        <v>1.89</v>
       </c>
       <c r="BA50">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="BB50">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="BC50">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="BD50">
-        <v>2.69</v>
+        <v>2.12</v>
       </c>
       <c r="BE50">
-        <v>3.64</v>
+        <v>2.78</v>
       </c>
       <c r="BF50">
+        <v>5</v>
+      </c>
+      <c r="BG50">
+        <v>11</v>
+      </c>
+      <c r="BH50">
+        <v>3</v>
+      </c>
+      <c r="BI50">
         <v>7</v>
       </c>
-      <c r="BG50">
-        <v>3</v>
-      </c>
-      <c r="BH50">
-        <v>5</v>
-      </c>
-      <c r="BI50">
-        <v>5</v>
-      </c>
       <c r="BJ50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BK50">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10722,7 +10722,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5750657</v>
+        <v>5750656</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10740,172 +10740,172 @@
         <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>4</v>
       </c>
       <c r="T51">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V51">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="W51">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X51">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y51">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="Z51">
+        <v>1.42</v>
+      </c>
+      <c r="AA51">
+        <v>6.5</v>
+      </c>
+      <c r="AB51">
+        <v>1.09</v>
+      </c>
+      <c r="AC51">
+        <v>1.55</v>
+      </c>
+      <c r="AD51">
+        <v>4.3</v>
+      </c>
+      <c r="AE51">
+        <v>6.4</v>
+      </c>
+      <c r="AF51">
+        <v>1.05</v>
+      </c>
+      <c r="AG51">
+        <v>12</v>
+      </c>
+      <c r="AH51">
+        <v>1.3</v>
+      </c>
+      <c r="AI51">
+        <v>3.6</v>
+      </c>
+      <c r="AJ51">
+        <v>1.98</v>
+      </c>
+      <c r="AK51">
+        <v>1.83</v>
+      </c>
+      <c r="AL51">
+        <v>2</v>
+      </c>
+      <c r="AM51">
+        <v>1.68</v>
+      </c>
+      <c r="AN51">
+        <v>1.11</v>
+      </c>
+      <c r="AO51">
+        <v>1.23</v>
+      </c>
+      <c r="AP51">
+        <v>2.5</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>2.33</v>
+      </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
         <v>1.47</v>
       </c>
-      <c r="AA51">
-        <v>5.75</v>
-      </c>
-      <c r="AB51">
-        <v>1.11</v>
-      </c>
-      <c r="AC51">
-        <v>1.24</v>
-      </c>
-      <c r="AD51">
-        <v>4.55</v>
-      </c>
-      <c r="AE51">
-        <v>9.75</v>
-      </c>
-      <c r="AF51">
-        <v>1.04</v>
-      </c>
-      <c r="AG51">
-        <v>13</v>
-      </c>
-      <c r="AH51">
-        <v>1.25</v>
-      </c>
-      <c r="AI51">
-        <v>4</v>
-      </c>
-      <c r="AJ51">
-        <v>1.9</v>
-      </c>
-      <c r="AK51">
-        <v>1.8</v>
-      </c>
-      <c r="AL51">
-        <v>2.2</v>
-      </c>
-      <c r="AM51">
+      <c r="AY51">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ51">
+        <v>3.28</v>
+      </c>
+      <c r="BA51">
+        <v>1.32</v>
+      </c>
+      <c r="BB51">
         <v>1.6</v>
       </c>
-      <c r="AN51">
-        <v>1.04</v>
-      </c>
-      <c r="AO51">
-        <v>1.13</v>
-      </c>
-      <c r="AP51">
-        <v>3.4</v>
-      </c>
-      <c r="AQ51">
-        <v>1</v>
-      </c>
-      <c r="AR51">
-        <v>1</v>
-      </c>
-      <c r="AS51">
-        <v>2.17</v>
-      </c>
-      <c r="AT51">
-        <v>1.33</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>1.16</v>
-      </c>
-      <c r="AY51">
-        <v>12.5</v>
-      </c>
-      <c r="AZ51">
-        <v>6.6</v>
-      </c>
-      <c r="BA51">
-        <v>1.37</v>
-      </c>
-      <c r="BB51">
-        <v>1.69</v>
-      </c>
       <c r="BC51">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="BD51">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
       <c r="BE51">
-        <v>3.04</v>
+        <v>3.64</v>
       </c>
       <c r="BF51">
+        <v>7</v>
+      </c>
+      <c r="BG51">
+        <v>3</v>
+      </c>
+      <c r="BH51">
         <v>5</v>
       </c>
-      <c r="BG51">
-        <v>6</v>
-      </c>
-      <c r="BH51">
-        <v>9</v>
-      </c>
       <c r="BI51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -10913,7 +10913,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5750658</v>
+        <v>5750657</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -10931,16 +10931,16 @@
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -10955,148 +10955,148 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T52">
+        <v>1.77</v>
+      </c>
+      <c r="U52">
+        <v>2.3</v>
+      </c>
+      <c r="V52">
+        <v>8.25</v>
+      </c>
+      <c r="W52">
+        <v>1.35</v>
+      </c>
+      <c r="X52">
+        <v>2.95</v>
+      </c>
+      <c r="Y52">
+        <v>2.45</v>
+      </c>
+      <c r="Z52">
+        <v>1.47</v>
+      </c>
+      <c r="AA52">
+        <v>5.75</v>
+      </c>
+      <c r="AB52">
+        <v>1.11</v>
+      </c>
+      <c r="AC52">
+        <v>1.24</v>
+      </c>
+      <c r="AD52">
+        <v>4.55</v>
+      </c>
+      <c r="AE52">
+        <v>9.75</v>
+      </c>
+      <c r="AF52">
+        <v>1.04</v>
+      </c>
+      <c r="AG52">
+        <v>13</v>
+      </c>
+      <c r="AH52">
+        <v>1.25</v>
+      </c>
+      <c r="AI52">
+        <v>4</v>
+      </c>
+      <c r="AJ52">
+        <v>1.9</v>
+      </c>
+      <c r="AK52">
+        <v>1.8</v>
+      </c>
+      <c r="AL52">
+        <v>2.2</v>
+      </c>
+      <c r="AM52">
+        <v>1.6</v>
+      </c>
+      <c r="AN52">
+        <v>1.04</v>
+      </c>
+      <c r="AO52">
+        <v>1.13</v>
+      </c>
+      <c r="AP52">
         <v>3.4</v>
       </c>
-      <c r="U52">
-        <v>1.98</v>
-      </c>
-      <c r="V52">
-        <v>3.1</v>
-      </c>
-      <c r="W52">
-        <v>1.46</v>
-      </c>
-      <c r="X52">
-        <v>2.5</v>
-      </c>
-      <c r="Y52">
-        <v>3.1</v>
-      </c>
-      <c r="Z52">
-        <v>1.31</v>
-      </c>
-      <c r="AA52">
-        <v>8.5</v>
-      </c>
-      <c r="AB52">
-        <v>1.06</v>
-      </c>
-      <c r="AC52">
-        <v>2.33</v>
-      </c>
-      <c r="AD52">
-        <v>2.88</v>
-      </c>
-      <c r="AE52">
-        <v>2.84</v>
-      </c>
-      <c r="AF52">
-        <v>1.08</v>
-      </c>
-      <c r="AG52">
-        <v>8.5</v>
-      </c>
-      <c r="AH52">
-        <v>1.44</v>
-      </c>
-      <c r="AI52">
-        <v>2.8</v>
-      </c>
-      <c r="AJ52">
-        <v>2.35</v>
-      </c>
-      <c r="AK52">
-        <v>1.52</v>
-      </c>
-      <c r="AL52">
-        <v>1.93</v>
-      </c>
-      <c r="AM52">
-        <v>1.77</v>
-      </c>
-      <c r="AN52">
-        <v>1.5</v>
-      </c>
-      <c r="AO52">
-        <v>1.33</v>
-      </c>
-      <c r="AP52">
-        <v>1.41</v>
-      </c>
       <c r="AQ52">
         <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AS52">
         <v>2.17</v>
       </c>
       <c r="AT52">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>0</v>
       </c>
       <c r="AV52">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AW52">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AX52">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="AY52">
-        <v>9.1</v>
+        <v>12.5</v>
       </c>
       <c r="AZ52">
-        <v>1.89</v>
+        <v>6.6</v>
       </c>
       <c r="BA52">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="BB52">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="BC52">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="BD52">
-        <v>2.12</v>
+        <v>2.79</v>
       </c>
       <c r="BE52">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="BF52">
         <v>5</v>
       </c>
       <c r="BG52">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BH52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ52">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BK52">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:63">
@@ -11886,7 +11886,7 @@
         <v>105</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>111</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>5750671</v>
+        <v>5750670</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13220,10 +13220,10 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -13238,157 +13238,157 @@
         <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O64" t="s">
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q64">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S64">
+        <v>12</v>
+      </c>
+      <c r="T64">
+        <v>4.6</v>
+      </c>
+      <c r="U64">
+        <v>1.98</v>
+      </c>
+      <c r="V64">
+        <v>2.5</v>
+      </c>
+      <c r="W64">
+        <v>1.49</v>
+      </c>
+      <c r="X64">
+        <v>2.45</v>
+      </c>
+      <c r="Y64">
+        <v>3.25</v>
+      </c>
+      <c r="Z64">
+        <v>1.3</v>
+      </c>
+      <c r="AA64">
         <v>9</v>
-      </c>
-      <c r="T64">
-        <v>2.87</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>3.6</v>
-      </c>
-      <c r="W64">
-        <v>1.46</v>
-      </c>
-      <c r="X64">
-        <v>2.5</v>
-      </c>
-      <c r="Y64">
-        <v>3.1</v>
-      </c>
-      <c r="Z64">
-        <v>1.31</v>
-      </c>
-      <c r="AA64">
-        <v>8.75</v>
       </c>
       <c r="AB64">
         <v>1.06</v>
       </c>
       <c r="AC64">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="AD64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE64">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="AF64">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG64">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AH64">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AI64">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AJ64">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AK64">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AL64">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AM64">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AN64">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AO64">
         <v>1.31</v>
       </c>
       <c r="AP64">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="AQ64">
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AU64">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="AV64">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AW64">
-        <v>2.55</v>
+        <v>2.14</v>
       </c>
       <c r="AX64">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="AY64">
         <v>8</v>
       </c>
       <c r="AZ64">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="BA64">
         <v>1.27</v>
       </c>
       <c r="BB64">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="BC64">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BD64">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="BE64">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="BF64">
+        <v>5</v>
+      </c>
+      <c r="BG64">
         <v>7</v>
       </c>
-      <c r="BG64">
-        <v>3</v>
-      </c>
       <c r="BH64">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BI64">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BJ64">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BK64">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:63">
@@ -13396,7 +13396,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>5750670</v>
+        <v>5750671</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -13411,10 +13411,10 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -13429,157 +13429,157 @@
         <v>2</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T65">
-        <v>4.6</v>
+        <v>2.87</v>
       </c>
       <c r="U65">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V65">
+        <v>3.6</v>
+      </c>
+      <c r="W65">
+        <v>1.46</v>
+      </c>
+      <c r="X65">
         <v>2.5</v>
       </c>
-      <c r="W65">
-        <v>1.49</v>
-      </c>
-      <c r="X65">
-        <v>2.45</v>
-      </c>
       <c r="Y65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Z65">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AA65">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB65">
         <v>1.06</v>
       </c>
       <c r="AC65">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="AD65">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AE65">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="AF65">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG65">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AH65">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AI65">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AJ65">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AK65">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL65">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AM65">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AN65">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="AO65">
         <v>1.31</v>
       </c>
       <c r="AP65">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>0</v>
       </c>
       <c r="AR65">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AS65">
+        <v>0.83</v>
+      </c>
+      <c r="AT65">
         <v>0.67</v>
       </c>
-      <c r="AT65">
-        <v>1.83</v>
-      </c>
       <c r="AU65">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="AV65">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="AW65">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="AX65">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="AY65">
         <v>8</v>
       </c>
       <c r="AZ65">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="BA65">
         <v>1.27</v>
       </c>
       <c r="BB65">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BC65">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BD65">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="BE65">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="BF65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH65">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BI65">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BJ65">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BK65">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:63">
@@ -13602,7 +13602,7 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H66" t="s">
         <v>103</v>
@@ -13796,7 +13796,7 @@
         <v>109</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -14366,7 +14366,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
         <v>102</v>
@@ -14751,7 +14751,7 @@
         <v>106</v>
       </c>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -14942,7 +14942,7 @@
         <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>111</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -16261,7 +16261,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5750687</v>
+        <v>5750686</v>
       </c>
       <c r="C80" t="s">
         <v>63</v>
@@ -16276,10 +16276,10 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -16291,160 +16291,160 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O80" t="s">
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="Q80">
+        <v>6</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>10</v>
+      </c>
+      <c r="T80">
+        <v>3.8</v>
+      </c>
+      <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
+        <v>2.85</v>
+      </c>
+      <c r="W80">
+        <v>1.49</v>
+      </c>
+      <c r="X80">
+        <v>2.45</v>
+      </c>
+      <c r="Y80">
+        <v>3.25</v>
+      </c>
+      <c r="Z80">
+        <v>1.29</v>
+      </c>
+      <c r="AA80">
+        <v>9.25</v>
+      </c>
+      <c r="AB80">
+        <v>1.04</v>
+      </c>
+      <c r="AC80">
+        <v>3.72</v>
+      </c>
+      <c r="AD80">
+        <v>3.32</v>
+      </c>
+      <c r="AE80">
+        <v>2.05</v>
+      </c>
+      <c r="AF80">
+        <v>1.07</v>
+      </c>
+      <c r="AG80">
+        <v>9</v>
+      </c>
+      <c r="AH80">
+        <v>1.44</v>
+      </c>
+      <c r="AI80">
+        <v>2.75</v>
+      </c>
+      <c r="AJ80">
+        <v>2.3</v>
+      </c>
+      <c r="AK80">
+        <v>1.5</v>
+      </c>
+      <c r="AL80">
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <v>1.8</v>
+      </c>
+      <c r="AN80">
+        <v>1.63</v>
+      </c>
+      <c r="AO80">
+        <v>1.32</v>
+      </c>
+      <c r="AP80">
+        <v>1.32</v>
+      </c>
+      <c r="AQ80">
+        <v>0.33</v>
+      </c>
+      <c r="AR80">
+        <v>1.33</v>
+      </c>
+      <c r="AS80">
+        <v>0.83</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+      <c r="AU80">
+        <v>1.13</v>
+      </c>
+      <c r="AV80">
+        <v>1.31</v>
+      </c>
+      <c r="AW80">
+        <v>2.44</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
         <v>8</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>8</v>
-      </c>
-      <c r="T80">
-        <v>2.18</v>
-      </c>
-      <c r="U80">
-        <v>2.2</v>
-      </c>
-      <c r="V80">
-        <v>5.4</v>
-      </c>
-      <c r="W80">
-        <v>1.36</v>
-      </c>
-      <c r="X80">
-        <v>2.9</v>
-      </c>
-      <c r="Y80">
-        <v>2.95</v>
-      </c>
-      <c r="Z80">
-        <v>1.36</v>
-      </c>
-      <c r="AA80">
-        <v>8</v>
-      </c>
-      <c r="AB80">
-        <v>1.07</v>
-      </c>
-      <c r="AC80">
-        <v>1.68</v>
-      </c>
-      <c r="AD80">
-        <v>4.1</v>
-      </c>
-      <c r="AE80">
-        <v>6.15</v>
-      </c>
-      <c r="AF80">
-        <v>1.06</v>
-      </c>
-      <c r="AG80">
-        <v>11</v>
-      </c>
-      <c r="AH80">
-        <v>1.3</v>
-      </c>
-      <c r="AI80">
-        <v>3.5</v>
-      </c>
-      <c r="AJ80">
-        <v>1.91</v>
-      </c>
-      <c r="AK80">
-        <v>1.73</v>
-      </c>
-      <c r="AL80">
-        <v>1.98</v>
-      </c>
-      <c r="AM80">
-        <v>1.79</v>
-      </c>
-      <c r="AN80">
-        <v>1.16</v>
-      </c>
-      <c r="AO80">
+      <c r="AZ80">
+        <v>2.05</v>
+      </c>
+      <c r="BA80">
         <v>1.27</v>
       </c>
-      <c r="AP80">
-        <v>2.3</v>
-      </c>
-      <c r="AQ80">
-        <v>1.57</v>
-      </c>
-      <c r="AR80">
-        <v>2.33</v>
-      </c>
-      <c r="AS80">
-        <v>1.8</v>
-      </c>
-      <c r="AT80">
-        <v>2.17</v>
-      </c>
-      <c r="AU80">
-        <v>2.18</v>
-      </c>
-      <c r="AV80">
-        <v>1.6</v>
-      </c>
-      <c r="AW80">
-        <v>3.78</v>
-      </c>
-      <c r="AX80">
-        <v>1.21</v>
-      </c>
-      <c r="AY80">
-        <v>11</v>
-      </c>
-      <c r="AZ80">
-        <v>5.6</v>
-      </c>
-      <c r="BA80">
-        <v>1.11</v>
-      </c>
       <c r="BB80">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BC80">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="BD80">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BE80">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BF80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BK80">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:63">
@@ -16452,7 +16452,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>5750686</v>
+        <v>5750687</v>
       </c>
       <c r="C81" t="s">
         <v>63</v>
@@ -16467,10 +16467,10 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -16482,160 +16482,160 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
         <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="Q81">
+        <v>8</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>2.18</v>
+      </c>
+      <c r="U81">
+        <v>2.2</v>
+      </c>
+      <c r="V81">
+        <v>5.4</v>
+      </c>
+      <c r="W81">
+        <v>1.36</v>
+      </c>
+      <c r="X81">
+        <v>2.9</v>
+      </c>
+      <c r="Y81">
+        <v>2.95</v>
+      </c>
+      <c r="Z81">
+        <v>1.36</v>
+      </c>
+      <c r="AA81">
+        <v>8</v>
+      </c>
+      <c r="AB81">
+        <v>1.07</v>
+      </c>
+      <c r="AC81">
+        <v>1.68</v>
+      </c>
+      <c r="AD81">
+        <v>4.1</v>
+      </c>
+      <c r="AE81">
+        <v>6.15</v>
+      </c>
+      <c r="AF81">
+        <v>1.06</v>
+      </c>
+      <c r="AG81">
+        <v>11</v>
+      </c>
+      <c r="AH81">
+        <v>1.3</v>
+      </c>
+      <c r="AI81">
+        <v>3.5</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.73</v>
+      </c>
+      <c r="AL81">
+        <v>1.98</v>
+      </c>
+      <c r="AM81">
+        <v>1.79</v>
+      </c>
+      <c r="AN81">
+        <v>1.16</v>
+      </c>
+      <c r="AO81">
+        <v>1.27</v>
+      </c>
+      <c r="AP81">
+        <v>2.3</v>
+      </c>
+      <c r="AQ81">
+        <v>1.57</v>
+      </c>
+      <c r="AR81">
+        <v>2.33</v>
+      </c>
+      <c r="AS81">
+        <v>1.8</v>
+      </c>
+      <c r="AT81">
+        <v>2.17</v>
+      </c>
+      <c r="AU81">
+        <v>2.18</v>
+      </c>
+      <c r="AV81">
+        <v>1.6</v>
+      </c>
+      <c r="AW81">
+        <v>3.78</v>
+      </c>
+      <c r="AX81">
+        <v>1.21</v>
+      </c>
+      <c r="AY81">
+        <v>11</v>
+      </c>
+      <c r="AZ81">
+        <v>5.6</v>
+      </c>
+      <c r="BA81">
+        <v>1.11</v>
+      </c>
+      <c r="BB81">
+        <v>1.3</v>
+      </c>
+      <c r="BC81">
+        <v>1.55</v>
+      </c>
+      <c r="BD81">
+        <v>2</v>
+      </c>
+      <c r="BE81">
+        <v>2.5</v>
+      </c>
+      <c r="BF81">
+        <v>8</v>
+      </c>
+      <c r="BG81">
+        <v>4</v>
+      </c>
+      <c r="BH81">
+        <v>9</v>
+      </c>
+      <c r="BI81">
+        <v>2</v>
+      </c>
+      <c r="BJ81">
+        <v>17</v>
+      </c>
+      <c r="BK81">
         <v>6</v>
-      </c>
-      <c r="R81">
-        <v>4</v>
-      </c>
-      <c r="S81">
-        <v>10</v>
-      </c>
-      <c r="T81">
-        <v>3.8</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>2.85</v>
-      </c>
-      <c r="W81">
-        <v>1.49</v>
-      </c>
-      <c r="X81">
-        <v>2.45</v>
-      </c>
-      <c r="Y81">
-        <v>3.25</v>
-      </c>
-      <c r="Z81">
-        <v>1.29</v>
-      </c>
-      <c r="AA81">
-        <v>9.25</v>
-      </c>
-      <c r="AB81">
-        <v>1.04</v>
-      </c>
-      <c r="AC81">
-        <v>3.72</v>
-      </c>
-      <c r="AD81">
-        <v>3.32</v>
-      </c>
-      <c r="AE81">
-        <v>2.05</v>
-      </c>
-      <c r="AF81">
-        <v>1.07</v>
-      </c>
-      <c r="AG81">
-        <v>9</v>
-      </c>
-      <c r="AH81">
-        <v>1.44</v>
-      </c>
-      <c r="AI81">
-        <v>2.75</v>
-      </c>
-      <c r="AJ81">
-        <v>2.3</v>
-      </c>
-      <c r="AK81">
-        <v>1.5</v>
-      </c>
-      <c r="AL81">
-        <v>2</v>
-      </c>
-      <c r="AM81">
-        <v>1.8</v>
-      </c>
-      <c r="AN81">
-        <v>1.63</v>
-      </c>
-      <c r="AO81">
-        <v>1.32</v>
-      </c>
-      <c r="AP81">
-        <v>1.32</v>
-      </c>
-      <c r="AQ81">
-        <v>0.33</v>
-      </c>
-      <c r="AR81">
-        <v>1.33</v>
-      </c>
-      <c r="AS81">
-        <v>0.83</v>
-      </c>
-      <c r="AT81">
-        <v>1</v>
-      </c>
-      <c r="AU81">
-        <v>1.13</v>
-      </c>
-      <c r="AV81">
-        <v>1.31</v>
-      </c>
-      <c r="AW81">
-        <v>2.44</v>
-      </c>
-      <c r="AX81">
-        <v>2</v>
-      </c>
-      <c r="AY81">
-        <v>8</v>
-      </c>
-      <c r="AZ81">
-        <v>2.05</v>
-      </c>
-      <c r="BA81">
-        <v>1.27</v>
-      </c>
-      <c r="BB81">
-        <v>1.5</v>
-      </c>
-      <c r="BC81">
-        <v>1.95</v>
-      </c>
-      <c r="BD81">
-        <v>2.45</v>
-      </c>
-      <c r="BE81">
-        <v>3.4</v>
-      </c>
-      <c r="BF81">
-        <v>5</v>
-      </c>
-      <c r="BG81">
-        <v>7</v>
-      </c>
-      <c r="BH81">
-        <v>10</v>
-      </c>
-      <c r="BI81">
-        <v>7</v>
-      </c>
-      <c r="BJ81">
-        <v>15</v>
-      </c>
-      <c r="BK81">
-        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:63">
@@ -16643,7 +16643,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>5750688</v>
+        <v>5750690</v>
       </c>
       <c r="C82" t="s">
         <v>63</v>
@@ -16658,175 +16658,175 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="P82" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V82">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="W82">
+        <v>1.4</v>
+      </c>
+      <c r="X82">
+        <v>2.75</v>
+      </c>
+      <c r="Y82">
+        <v>2.75</v>
+      </c>
+      <c r="Z82">
+        <v>1.4</v>
+      </c>
+      <c r="AA82">
+        <v>7</v>
+      </c>
+      <c r="AB82">
+        <v>1.08</v>
+      </c>
+      <c r="AC82">
+        <v>1.95</v>
+      </c>
+      <c r="AD82">
+        <v>3.44</v>
+      </c>
+      <c r="AE82">
+        <v>3.94</v>
+      </c>
+      <c r="AF82">
+        <v>1.07</v>
+      </c>
+      <c r="AG82">
+        <v>7.5</v>
+      </c>
+      <c r="AH82">
         <v>1.36</v>
       </c>
-      <c r="X82">
-        <v>3</v>
-      </c>
-      <c r="Y82">
-        <v>2.62</v>
-      </c>
-      <c r="Z82">
-        <v>1.44</v>
-      </c>
-      <c r="AA82">
-        <v>6.5</v>
-      </c>
-      <c r="AB82">
-        <v>1.1</v>
-      </c>
-      <c r="AC82">
-        <v>1.48</v>
-      </c>
-      <c r="AD82">
-        <v>4.5</v>
-      </c>
-      <c r="AE82">
-        <v>6.25</v>
-      </c>
-      <c r="AF82">
-        <v>1.05</v>
-      </c>
-      <c r="AG82">
-        <v>9</v>
-      </c>
-      <c r="AH82">
+      <c r="AI82">
+        <v>3</v>
+      </c>
+      <c r="AJ82">
+        <v>2.05</v>
+      </c>
+      <c r="AK82">
+        <v>1.61</v>
+      </c>
+      <c r="AL82">
+        <v>1.91</v>
+      </c>
+      <c r="AM82">
+        <v>1.8</v>
+      </c>
+      <c r="AN82">
+        <v>1.22</v>
+      </c>
+      <c r="AO82">
         <v>1.3</v>
       </c>
-      <c r="AI82">
+      <c r="AP82">
+        <v>1.8</v>
+      </c>
+      <c r="AQ82">
+        <v>1.71</v>
+      </c>
+      <c r="AR82">
+        <v>2.33</v>
+      </c>
+      <c r="AS82">
+        <v>1.8</v>
+      </c>
+      <c r="AT82">
+        <v>1.83</v>
+      </c>
+      <c r="AU82">
+        <v>1.49</v>
+      </c>
+      <c r="AV82">
+        <v>1.69</v>
+      </c>
+      <c r="AW82">
+        <v>3.18</v>
+      </c>
+      <c r="AX82">
+        <v>1.75</v>
+      </c>
+      <c r="AY82">
+        <v>8</v>
+      </c>
+      <c r="AZ82">
+        <v>2.42</v>
+      </c>
+      <c r="BA82">
+        <v>1.27</v>
+      </c>
+      <c r="BB82">
+        <v>1.5</v>
+      </c>
+      <c r="BC82">
+        <v>1.93</v>
+      </c>
+      <c r="BD82">
+        <v>2.45</v>
+      </c>
+      <c r="BE82">
         <v>3.4</v>
       </c>
-      <c r="AJ82">
-        <v>1.8</v>
-      </c>
-      <c r="AK82">
-        <v>1.83</v>
-      </c>
-      <c r="AL82">
-        <v>1.85</v>
-      </c>
-      <c r="AM82">
-        <v>1.85</v>
-      </c>
-      <c r="AN82">
-        <v>1.15</v>
-      </c>
-      <c r="AO82">
-        <v>1.25</v>
-      </c>
-      <c r="AP82">
-        <v>2.2</v>
-      </c>
-      <c r="AQ82">
-        <v>2</v>
-      </c>
-      <c r="AR82">
-        <v>1</v>
-      </c>
-      <c r="AS82">
-        <v>2</v>
-      </c>
-      <c r="AT82">
-        <v>0.67</v>
-      </c>
-      <c r="AU82">
-        <v>2.02</v>
-      </c>
-      <c r="AV82">
-        <v>0.98</v>
-      </c>
-      <c r="AW82">
-        <v>3</v>
-      </c>
-      <c r="AX82">
-        <v>1.41</v>
-      </c>
-      <c r="AY82">
-        <v>9</v>
-      </c>
-      <c r="AZ82">
-        <v>3.56</v>
-      </c>
-      <c r="BA82">
-        <v>1.25</v>
-      </c>
-      <c r="BB82">
-        <v>1.47</v>
-      </c>
-      <c r="BC82">
-        <v>1.8</v>
-      </c>
-      <c r="BD82">
-        <v>2.38</v>
-      </c>
-      <c r="BE82">
-        <v>3.25</v>
-      </c>
       <c r="BF82">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG82">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH82">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BI82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ82">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BK82">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:63">
@@ -16834,7 +16834,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>5750689</v>
+        <v>5750688</v>
       </c>
       <c r="C83" t="s">
         <v>63</v>
@@ -16849,64 +16849,64 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="Q83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V83">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="W83">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y83">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Z83">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA83">
         <v>6.5</v>
@@ -16915,109 +16915,109 @@
         <v>1.1</v>
       </c>
       <c r="AC83">
-        <v>2.22</v>
+        <v>1.48</v>
       </c>
       <c r="AD83">
-        <v>3.42</v>
+        <v>4.5</v>
       </c>
       <c r="AE83">
-        <v>3.18</v>
+        <v>6.25</v>
       </c>
       <c r="AF83">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG83">
+        <v>9</v>
+      </c>
+      <c r="AH83">
+        <v>1.3</v>
+      </c>
+      <c r="AI83">
+        <v>3.4</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.83</v>
+      </c>
+      <c r="AL83">
+        <v>1.85</v>
+      </c>
+      <c r="AM83">
+        <v>1.85</v>
+      </c>
+      <c r="AN83">
+        <v>1.15</v>
+      </c>
+      <c r="AO83">
+        <v>1.25</v>
+      </c>
+      <c r="AP83">
+        <v>2.2</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>1</v>
+      </c>
+      <c r="AS83">
+        <v>2</v>
+      </c>
+      <c r="AT83">
+        <v>0.67</v>
+      </c>
+      <c r="AU83">
+        <v>2.02</v>
+      </c>
+      <c r="AV83">
+        <v>0.98</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>1.41</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>3.56</v>
+      </c>
+      <c r="BA83">
+        <v>1.25</v>
+      </c>
+      <c r="BB83">
+        <v>1.47</v>
+      </c>
+      <c r="BC83">
+        <v>1.8</v>
+      </c>
+      <c r="BD83">
+        <v>2.38</v>
+      </c>
+      <c r="BE83">
+        <v>3.25</v>
+      </c>
+      <c r="BF83">
+        <v>9</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>16</v>
+      </c>
+      <c r="BI83">
+        <v>4</v>
+      </c>
+      <c r="BJ83">
+        <v>25</v>
+      </c>
+      <c r="BK83">
         <v>8</v>
-      </c>
-      <c r="AH83">
-        <v>1.33</v>
-      </c>
-      <c r="AI83">
-        <v>3.25</v>
-      </c>
-      <c r="AJ83">
-        <v>1.91</v>
-      </c>
-      <c r="AK83">
-        <v>1.73</v>
-      </c>
-      <c r="AL83">
-        <v>1.73</v>
-      </c>
-      <c r="AM83">
-        <v>2</v>
-      </c>
-      <c r="AN83">
-        <v>1.36</v>
-      </c>
-      <c r="AO83">
-        <v>1.3</v>
-      </c>
-      <c r="AP83">
-        <v>1.57</v>
-      </c>
-      <c r="AQ83">
-        <v>1</v>
-      </c>
-      <c r="AR83">
-        <v>2.33</v>
-      </c>
-      <c r="AS83">
-        <v>0.67</v>
-      </c>
-      <c r="AT83">
-        <v>2.17</v>
-      </c>
-      <c r="AU83">
-        <v>1.53</v>
-      </c>
-      <c r="AV83">
-        <v>1.54</v>
-      </c>
-      <c r="AW83">
-        <v>3.07</v>
-      </c>
-      <c r="AX83">
-        <v>2.33</v>
-      </c>
-      <c r="AY83">
-        <v>8</v>
-      </c>
-      <c r="AZ83">
-        <v>1.82</v>
-      </c>
-      <c r="BA83">
-        <v>1.27</v>
-      </c>
-      <c r="BB83">
-        <v>1.5</v>
-      </c>
-      <c r="BC83">
-        <v>1.88</v>
-      </c>
-      <c r="BD83">
-        <v>2.45</v>
-      </c>
-      <c r="BE83">
-        <v>3.4</v>
-      </c>
-      <c r="BF83">
-        <v>4</v>
-      </c>
-      <c r="BG83">
-        <v>3</v>
-      </c>
-      <c r="BH83">
-        <v>12</v>
-      </c>
-      <c r="BI83">
-        <v>7</v>
-      </c>
-      <c r="BJ83">
-        <v>16</v>
-      </c>
-      <c r="BK83">
-        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:63">
@@ -17025,7 +17025,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>5750690</v>
+        <v>5750689</v>
       </c>
       <c r="C84" t="s">
         <v>63</v>
@@ -17040,52 +17040,52 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84">
         <v>3</v>
       </c>
       <c r="O84" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="P84" t="s">
         <v>247</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S84">
         <v>8</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="U84">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V84">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="W84">
         <v>1.4</v>
@@ -17100,82 +17100,82 @@
         <v>1.4</v>
       </c>
       <c r="AA84">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB84">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC84">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="AD84">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="AE84">
-        <v>3.94</v>
+        <v>3.18</v>
       </c>
       <c r="AF84">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG84">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH84">
+        <v>1.33</v>
+      </c>
+      <c r="AI84">
+        <v>3.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.91</v>
+      </c>
+      <c r="AK84">
+        <v>1.73</v>
+      </c>
+      <c r="AL84">
+        <v>1.73</v>
+      </c>
+      <c r="AM84">
+        <v>2</v>
+      </c>
+      <c r="AN84">
         <v>1.36</v>
-      </c>
-      <c r="AI84">
-        <v>3</v>
-      </c>
-      <c r="AJ84">
-        <v>2.05</v>
-      </c>
-      <c r="AK84">
-        <v>1.61</v>
-      </c>
-      <c r="AL84">
-        <v>1.91</v>
-      </c>
-      <c r="AM84">
-        <v>1.8</v>
-      </c>
-      <c r="AN84">
-        <v>1.22</v>
       </c>
       <c r="AO84">
         <v>1.3</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT84">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AU84">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AV84">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AW84">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AX84">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AY84">
         <v>8</v>
       </c>
       <c r="AZ84">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BA84">
         <v>1.27</v>
@@ -17184,7 +17184,7 @@
         <v>1.5</v>
       </c>
       <c r="BC84">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BD84">
         <v>2.45</v>
@@ -17193,22 +17193,22 @@
         <v>3.4</v>
       </c>
       <c r="BF84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG84">
+        <v>3</v>
+      </c>
+      <c r="BH84">
+        <v>12</v>
+      </c>
+      <c r="BI84">
         <v>7</v>
       </c>
-      <c r="BH84">
-        <v>13</v>
-      </c>
-      <c r="BI84">
-        <v>5</v>
-      </c>
       <c r="BJ84">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK84">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:63">
@@ -17231,7 +17231,7 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s">
         <v>111</v>
@@ -17407,7 +17407,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>5750701</v>
+        <v>5750692</v>
       </c>
       <c r="C86" t="s">
         <v>63</v>
@@ -17422,175 +17422,175 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
+        <v>176</v>
+      </c>
+      <c r="P86" t="s">
         <v>117</v>
       </c>
-      <c r="P86" t="s">
-        <v>249</v>
-      </c>
       <c r="Q86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S86">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T86">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="U86">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>2.7</v>
+      </c>
+      <c r="Y86">
+        <v>2.85</v>
+      </c>
+      <c r="Z86">
         <v>1.37</v>
       </c>
-      <c r="X86">
-        <v>2.85</v>
-      </c>
-      <c r="Y86">
-        <v>2.7</v>
-      </c>
-      <c r="Z86">
-        <v>1.41</v>
-      </c>
       <c r="AA86">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="AB86">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC86">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="AD86">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="AE86">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AF86">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH86">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AI86">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AJ86">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="AK86">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AL86">
         <v>1.82</v>
       </c>
       <c r="AM86">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AN86">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AO86">
+        <v>1.28</v>
+      </c>
+      <c r="AP86">
         <v>1.25</v>
       </c>
-      <c r="AP86">
-        <v>1.19</v>
-      </c>
       <c r="AQ86">
-        <v>2.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR86">
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU86">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="AV86">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AW86">
-        <v>3.21</v>
+        <v>2.6</v>
       </c>
       <c r="AX86">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="AY86">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ86">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BA86">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BB86">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BC86">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BD86">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BE86">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BF86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG86">
         <v>8</v>
       </c>
       <c r="BH86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI86">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BJ86">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK86">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:63">
@@ -17598,7 +17598,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>5750692</v>
+        <v>5750701</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -17613,175 +17613,175 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="Q87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T87">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="U87">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W87">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X87">
+        <v>2.85</v>
+      </c>
+      <c r="Y87">
         <v>2.7</v>
       </c>
-      <c r="Y87">
-        <v>2.85</v>
-      </c>
       <c r="Z87">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AA87">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB87">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC87">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="AD87">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="AE87">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AF87">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG87">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH87">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI87">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AJ87">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AK87">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AL87">
         <v>1.82</v>
       </c>
       <c r="AM87">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AN87">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AO87">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR87">
         <v>2</v>
       </c>
       <c r="AS87">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AU87">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
       <c r="AV87">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AW87">
-        <v>2.6</v>
+        <v>3.21</v>
       </c>
       <c r="AX87">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="AY87">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ87">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BA87">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BB87">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="BC87">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BD87">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BE87">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BF87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG87">
         <v>8</v>
       </c>
       <c r="BH87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI87">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BJ87">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK87">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17807,7 +17807,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -17980,7 +17980,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>5750695</v>
+        <v>5750696</v>
       </c>
       <c r="C89" t="s">
         <v>63</v>
@@ -17995,175 +17995,175 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="P89" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="Q89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S89">
         <v>11</v>
       </c>
       <c r="T89">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="U89">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="V89">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="X89">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="Y89">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z89">
+        <v>1.5</v>
+      </c>
+      <c r="AA89">
+        <v>6.5</v>
+      </c>
+      <c r="AB89">
+        <v>1.1</v>
+      </c>
+      <c r="AC89">
+        <v>6.53</v>
+      </c>
+      <c r="AD89">
+        <v>4.44</v>
+      </c>
+      <c r="AE89">
+        <v>1.46</v>
+      </c>
+      <c r="AF89">
+        <v>1.05</v>
+      </c>
+      <c r="AG89">
+        <v>9</v>
+      </c>
+      <c r="AH89">
         <v>1.29</v>
       </c>
-      <c r="AA89">
-        <v>9.25</v>
-      </c>
-      <c r="AB89">
-        <v>1.05</v>
-      </c>
-      <c r="AC89">
-        <v>2.05</v>
-      </c>
-      <c r="AD89">
-        <v>3.23</v>
-      </c>
-      <c r="AE89">
-        <v>3.76</v>
-      </c>
-      <c r="AF89">
+      <c r="AI89">
+        <v>3.5</v>
+      </c>
+      <c r="AJ89">
+        <v>1.86</v>
+      </c>
+      <c r="AK89">
+        <v>1.98</v>
+      </c>
+      <c r="AL89">
+        <v>2</v>
+      </c>
+      <c r="AM89">
+        <v>1.73</v>
+      </c>
+      <c r="AN89">
+        <v>2.6</v>
+      </c>
+      <c r="AO89">
+        <v>1.22</v>
+      </c>
+      <c r="AP89">
         <v>1.08</v>
       </c>
-      <c r="AG89">
-        <v>8</v>
-      </c>
-      <c r="AH89">
-        <v>1.47</v>
-      </c>
-      <c r="AI89">
-        <v>2.7</v>
-      </c>
-      <c r="AJ89">
-        <v>2.35</v>
-      </c>
-      <c r="AK89">
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.33</v>
+      </c>
+      <c r="AS89">
+        <v>0.83</v>
+      </c>
+      <c r="AT89">
+        <v>1.83</v>
+      </c>
+      <c r="AU89">
+        <v>2.04</v>
+      </c>
+      <c r="AV89">
+        <v>1.25</v>
+      </c>
+      <c r="AW89">
+        <v>3.29</v>
+      </c>
+      <c r="AX89">
+        <v>3.88</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>1.34</v>
+      </c>
+      <c r="BA89">
+        <v>1.29</v>
+      </c>
+      <c r="BB89">
         <v>1.53</v>
       </c>
-      <c r="AL89">
-        <v>2</v>
-      </c>
-      <c r="AM89">
-        <v>1.71</v>
-      </c>
-      <c r="AN89">
-        <v>1.32</v>
-      </c>
-      <c r="AO89">
-        <v>1.35</v>
-      </c>
-      <c r="AP89">
-        <v>1.6</v>
-      </c>
-      <c r="AQ89">
-        <v>2.33</v>
-      </c>
-      <c r="AR89">
-        <v>1</v>
-      </c>
-      <c r="AS89">
-        <v>1.83</v>
-      </c>
-      <c r="AT89">
-        <v>1.17</v>
-      </c>
-      <c r="AU89">
-        <v>1.92</v>
-      </c>
-      <c r="AV89">
-        <v>1.43</v>
-      </c>
-      <c r="AW89">
-        <v>3.35</v>
-      </c>
-      <c r="AX89">
-        <v>1.55</v>
-      </c>
-      <c r="AY89">
-        <v>8</v>
-      </c>
-      <c r="AZ89">
-        <v>2.92</v>
-      </c>
-      <c r="BA89">
-        <v>1.33</v>
-      </c>
-      <c r="BB89">
-        <v>1.6</v>
-      </c>
       <c r="BC89">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="BD89">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BE89">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="BF89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ89">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK89">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:63">
@@ -18171,7 +18171,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5750696</v>
+        <v>5750695</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
@@ -18186,175 +18186,175 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="Q90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S90">
         <v>11</v>
       </c>
       <c r="T90">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="U90">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="W90">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>2.37</v>
       </c>
       <c r="Y90">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Z90">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AA90">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB90">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC90">
-        <v>6.53</v>
+        <v>2.05</v>
       </c>
       <c r="AD90">
-        <v>4.44</v>
+        <v>3.23</v>
       </c>
       <c r="AE90">
-        <v>1.46</v>
+        <v>3.76</v>
       </c>
       <c r="AF90">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH90">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AI90">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AJ90">
-        <v>1.86</v>
+        <v>2.35</v>
       </c>
       <c r="AK90">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="AL90">
         <v>2</v>
       </c>
       <c r="AM90">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AN90">
-        <v>2.6</v>
+        <v>1.32</v>
       </c>
       <c r="AO90">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AP90">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AR90">
+        <v>1</v>
+      </c>
+      <c r="AS90">
+        <v>1.83</v>
+      </c>
+      <c r="AT90">
+        <v>1.17</v>
+      </c>
+      <c r="AU90">
+        <v>1.92</v>
+      </c>
+      <c r="AV90">
+        <v>1.43</v>
+      </c>
+      <c r="AW90">
+        <v>3.35</v>
+      </c>
+      <c r="AX90">
+        <v>1.55</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>2.92</v>
+      </c>
+      <c r="BA90">
         <v>1.33</v>
       </c>
-      <c r="AS90">
-        <v>0.83</v>
-      </c>
-      <c r="AT90">
-        <v>1.83</v>
-      </c>
-      <c r="AU90">
+      <c r="BB90">
+        <v>1.6</v>
+      </c>
+      <c r="BC90">
         <v>2.04</v>
       </c>
-      <c r="AV90">
-        <v>1.25</v>
-      </c>
-      <c r="AW90">
-        <v>3.29</v>
-      </c>
-      <c r="AX90">
-        <v>3.88</v>
-      </c>
-      <c r="AY90">
-        <v>9</v>
-      </c>
-      <c r="AZ90">
-        <v>1.34</v>
-      </c>
-      <c r="BA90">
-        <v>1.29</v>
-      </c>
-      <c r="BB90">
-        <v>1.53</v>
-      </c>
-      <c r="BC90">
-        <v>1.98</v>
-      </c>
       <c r="BD90">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BE90">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="BF90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>10</v>
+      </c>
+      <c r="BI90">
         <v>5</v>
       </c>
-      <c r="BH90">
-        <v>9</v>
-      </c>
-      <c r="BI90">
-        <v>4</v>
-      </c>
       <c r="BJ90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK90">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:63">
@@ -18571,7 +18571,7 @@
         <v>88</v>
       </c>
       <c r="H92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -18762,7 +18762,7 @@
         <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>87</v>
       </c>
       <c r="H94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -19317,7 +19317,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5750703</v>
+        <v>5750702</v>
       </c>
       <c r="C96" t="s">
         <v>63</v>
@@ -19332,19 +19332,19 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H96" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -19356,151 +19356,151 @@
         <v>1</v>
       </c>
       <c r="O96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P96" t="s">
         <v>117</v>
       </c>
       <c r="Q96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R96">
         <v>4</v>
       </c>
       <c r="S96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T96">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="U96">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>2.87</v>
+        <v>5.25</v>
       </c>
       <c r="W96">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X96">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Y96">
         <v>3.1</v>
       </c>
       <c r="Z96">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AA96">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB96">
         <v>1.06</v>
       </c>
       <c r="AC96">
-        <v>3.12</v>
+        <v>1.71</v>
       </c>
       <c r="AD96">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="AE96">
-        <v>2.3</v>
+        <v>5.05</v>
       </c>
       <c r="AF96">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH96">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AI96">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AJ96">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK96">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AL96">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AM96">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AN96">
-        <v>1.66</v>
+        <v>1.15</v>
       </c>
       <c r="AO96">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR96">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.83</v>
+        <v>2.17</v>
       </c>
       <c r="AT96">
+        <v>1.17</v>
+      </c>
+      <c r="AU96">
+        <v>1.02</v>
+      </c>
+      <c r="AV96">
+        <v>1.23</v>
+      </c>
+      <c r="AW96">
+        <v>2.25</v>
+      </c>
+      <c r="AX96">
+        <v>1.59</v>
+      </c>
+      <c r="AY96">
+        <v>8.5</v>
+      </c>
+      <c r="AZ96">
+        <v>2.78</v>
+      </c>
+      <c r="BA96">
+        <v>1.22</v>
+      </c>
+      <c r="BB96">
         <v>1.33</v>
       </c>
-      <c r="AU96">
-        <v>1.35</v>
-      </c>
-      <c r="AV96">
-        <v>1.22</v>
-      </c>
-      <c r="AW96">
-        <v>2.57</v>
-      </c>
-      <c r="AX96">
-        <v>1.91</v>
-      </c>
-      <c r="AY96">
+      <c r="BC96">
+        <v>1.65</v>
+      </c>
+      <c r="BD96">
+        <v>2</v>
+      </c>
+      <c r="BE96">
+        <v>2.5</v>
+      </c>
+      <c r="BF96">
         <v>8</v>
       </c>
-      <c r="AZ96">
-        <v>2.1</v>
-      </c>
-      <c r="BA96">
-        <v>1.33</v>
-      </c>
-      <c r="BB96">
-        <v>1.68</v>
-      </c>
-      <c r="BC96">
-        <v>2.11</v>
-      </c>
-      <c r="BD96">
-        <v>2.39</v>
-      </c>
-      <c r="BE96">
-        <v>3.84</v>
-      </c>
-      <c r="BF96">
-        <v>10</v>
-      </c>
       <c r="BG96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH96">
+        <v>4</v>
+      </c>
+      <c r="BI96">
         <v>6</v>
       </c>
-      <c r="BI96">
-        <v>5</v>
-      </c>
       <c r="BJ96">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK96">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:63">
@@ -19508,7 +19508,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5750702</v>
+        <v>5750703</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -19523,19 +19523,19 @@
         <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -19547,151 +19547,151 @@
         <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P97" t="s">
         <v>117</v>
       </c>
       <c r="Q97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R97">
         <v>4</v>
       </c>
       <c r="S97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T97">
-        <v>2.3</v>
+        <v>3.85</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V97">
-        <v>5.25</v>
+        <v>2.87</v>
       </c>
       <c r="W97">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X97">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Y97">
         <v>3.1</v>
       </c>
       <c r="Z97">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AA97">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB97">
         <v>1.06</v>
       </c>
       <c r="AC97">
-        <v>1.71</v>
+        <v>3.12</v>
       </c>
       <c r="AD97">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="AE97">
-        <v>5.05</v>
+        <v>2.3</v>
       </c>
       <c r="AF97">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG97">
+        <v>10</v>
+      </c>
+      <c r="AH97">
+        <v>1.36</v>
+      </c>
+      <c r="AI97">
+        <v>3.1</v>
+      </c>
+      <c r="AJ97">
+        <v>2.2</v>
+      </c>
+      <c r="AK97">
+        <v>1.67</v>
+      </c>
+      <c r="AL97">
+        <v>1.8</v>
+      </c>
+      <c r="AM97">
+        <v>1.91</v>
+      </c>
+      <c r="AN97">
+        <v>1.66</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.36</v>
+      </c>
+      <c r="AQ97">
+        <v>0.5</v>
+      </c>
+      <c r="AR97">
+        <v>1.75</v>
+      </c>
+      <c r="AS97">
+        <v>0.83</v>
+      </c>
+      <c r="AT97">
+        <v>1.33</v>
+      </c>
+      <c r="AU97">
+        <v>1.35</v>
+      </c>
+      <c r="AV97">
+        <v>1.22</v>
+      </c>
+      <c r="AW97">
+        <v>2.57</v>
+      </c>
+      <c r="AX97">
+        <v>1.91</v>
+      </c>
+      <c r="AY97">
         <v>8</v>
       </c>
-      <c r="AH97">
-        <v>1.42</v>
-      </c>
-      <c r="AI97">
-        <v>2.8</v>
-      </c>
-      <c r="AJ97">
+      <c r="AZ97">
         <v>2.1</v>
       </c>
-      <c r="AK97">
-        <v>1.75</v>
-      </c>
-      <c r="AL97">
-        <v>2.1</v>
-      </c>
-      <c r="AM97">
-        <v>1.63</v>
-      </c>
-      <c r="AN97">
-        <v>1.15</v>
-      </c>
-      <c r="AO97">
-        <v>1.29</v>
-      </c>
-      <c r="AP97">
-        <v>2.1</v>
-      </c>
-      <c r="AQ97">
-        <v>1.75</v>
-      </c>
-      <c r="AR97">
-        <v>1.5</v>
-      </c>
-      <c r="AS97">
-        <v>2.17</v>
-      </c>
-      <c r="AT97">
-        <v>1.17</v>
-      </c>
-      <c r="AU97">
-        <v>1.02</v>
-      </c>
-      <c r="AV97">
-        <v>1.23</v>
-      </c>
-      <c r="AW97">
-        <v>2.25</v>
-      </c>
-      <c r="AX97">
-        <v>1.59</v>
-      </c>
-      <c r="AY97">
-        <v>8.5</v>
-      </c>
-      <c r="AZ97">
-        <v>2.78</v>
-      </c>
       <c r="BA97">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BB97">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="BC97">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="BD97">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BE97">
-        <v>2.5</v>
+        <v>3.84</v>
       </c>
       <c r="BF97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ97">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:63">
@@ -19714,7 +19714,7 @@
         <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H98" t="s">
         <v>106</v>
@@ -20096,7 +20096,7 @@
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s">
         <v>80</v>
@@ -20123,7 +20123,7 @@
         <v>117</v>
       </c>
       <c r="P100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20463,7 +20463,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5750708</v>
+        <v>5750709</v>
       </c>
       <c r="C102" t="s">
         <v>63</v>
@@ -20478,10 +20478,10 @@
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H102" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -20493,160 +20493,160 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
         <v>186</v>
       </c>
       <c r="P102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q102">
         <v>5</v>
       </c>
       <c r="R102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S102">
+        <v>7</v>
+      </c>
+      <c r="T102">
+        <v>3.25</v>
+      </c>
+      <c r="U102">
+        <v>2.05</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>2.63</v>
+      </c>
+      <c r="Y102">
+        <v>3.25</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
         <v>9</v>
       </c>
-      <c r="T102">
-        <v>1.73</v>
-      </c>
-      <c r="U102">
-        <v>2.63</v>
-      </c>
-      <c r="V102">
-        <v>8</v>
-      </c>
-      <c r="W102">
-        <v>1.29</v>
-      </c>
-      <c r="X102">
-        <v>3.5</v>
-      </c>
-      <c r="Y102">
-        <v>2.25</v>
-      </c>
-      <c r="Z102">
-        <v>1.57</v>
-      </c>
-      <c r="AA102">
-        <v>5.5</v>
-      </c>
       <c r="AB102">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AC102">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="AD102">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="AE102">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="AF102">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG102">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="AH102">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AI102">
-        <v>4.3</v>
+        <v>2.96</v>
       </c>
       <c r="AJ102">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="AK102">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AL102">
+        <v>1.8</v>
+      </c>
+      <c r="AM102">
         <v>1.95</v>
       </c>
-      <c r="AM102">
-        <v>1.8</v>
-      </c>
       <c r="AN102">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO102">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AP102">
-        <v>3.48</v>
+        <v>1.49</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS102">
         <v>1.83</v>
       </c>
       <c r="AT102">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AU102">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AV102">
-        <v>0.39</v>
+        <v>1.45</v>
       </c>
       <c r="AW102">
-        <v>2.25</v>
+        <v>3.28</v>
       </c>
       <c r="AX102">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="AY102">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AZ102">
-        <v>6.05</v>
+        <v>2.1</v>
       </c>
       <c r="BA102">
         <v>1.24</v>
       </c>
       <c r="BB102">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="BC102">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BD102">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="BE102">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="BF102">
         <v>5</v>
       </c>
       <c r="BG102">
+        <v>8</v>
+      </c>
+      <c r="BH102">
         <v>4</v>
       </c>
-      <c r="BH102">
-        <v>6</v>
-      </c>
       <c r="BI102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK102">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:63">
@@ -20654,7 +20654,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>5750709</v>
+        <v>5750714</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -20669,52 +20669,52 @@
         <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O103" t="s">
         <v>187</v>
       </c>
       <c r="P103" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="Q103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S103">
         <v>7</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V103">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="W103">
         <v>1.44</v>
@@ -20729,31 +20729,31 @@
         <v>1.33</v>
       </c>
       <c r="AA103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB103">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC103">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AD103">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE103">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="AF103">
         <v>1.04</v>
       </c>
       <c r="AG103">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AH103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI103">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="AJ103">
         <v>2.15</v>
@@ -20762,82 +20762,82 @@
         <v>1.7</v>
       </c>
       <c r="AL103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AM103">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AN103">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AO103">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AU103">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="AV103">
-        <v>1.45</v>
+        <v>0.98</v>
       </c>
       <c r="AW103">
-        <v>3.28</v>
+        <v>3.7</v>
       </c>
       <c r="AX103">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AY103">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ103">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="BA103">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BB103">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="BC103">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="BD103">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="BE103">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="BF103">
+        <v>7</v>
+      </c>
+      <c r="BG103">
+        <v>2</v>
+      </c>
+      <c r="BH103">
+        <v>7</v>
+      </c>
+      <c r="BI103">
+        <v>3</v>
+      </c>
+      <c r="BJ103">
+        <v>14</v>
+      </c>
+      <c r="BK103">
         <v>5</v>
-      </c>
-      <c r="BG103">
-        <v>8</v>
-      </c>
-      <c r="BH103">
-        <v>4</v>
-      </c>
-      <c r="BI103">
-        <v>2</v>
-      </c>
-      <c r="BJ103">
-        <v>9</v>
-      </c>
-      <c r="BK103">
-        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:63">
@@ -20845,7 +20845,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5750714</v>
+        <v>5750708</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -20860,25 +20860,25 @@
         <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H104" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104">
         <v>3</v>
@@ -20887,148 +20887,148 @@
         <v>188</v>
       </c>
       <c r="P104" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
         <v>4</v>
       </c>
-      <c r="R104">
-        <v>3</v>
-      </c>
       <c r="S104">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="U104">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="V104">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="W104">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="X104">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="Z104">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AB104">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AC104">
+        <v>1.3</v>
+      </c>
+      <c r="AD104">
+        <v>5.75</v>
+      </c>
+      <c r="AE104">
+        <v>9</v>
+      </c>
+      <c r="AF104">
+        <v>1.02</v>
+      </c>
+      <c r="AG104">
+        <v>17</v>
+      </c>
+      <c r="AH104">
+        <v>1.17</v>
+      </c>
+      <c r="AI104">
+        <v>4.3</v>
+      </c>
+      <c r="AJ104">
+        <v>1.62</v>
+      </c>
+      <c r="AK104">
+        <v>2.3</v>
+      </c>
+      <c r="AL104">
         <v>1.95</v>
       </c>
-      <c r="AD104">
-        <v>3.35</v>
-      </c>
-      <c r="AE104">
-        <v>3.9</v>
-      </c>
-      <c r="AF104">
-        <v>1.04</v>
-      </c>
-      <c r="AG104">
-        <v>8</v>
-      </c>
-      <c r="AH104">
-        <v>1.3</v>
-      </c>
-      <c r="AI104">
-        <v>3.2</v>
-      </c>
-      <c r="AJ104">
-        <v>2.15</v>
-      </c>
-      <c r="AK104">
-        <v>1.7</v>
-      </c>
-      <c r="AL104">
-        <v>2</v>
-      </c>
       <c r="AM104">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AO104">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AP104">
-        <v>1.87</v>
+        <v>3.48</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AU104">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="AV104">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="AW104">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="AX104">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="AY104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ104">
-        <v>2.92</v>
+        <v>6.05</v>
       </c>
       <c r="BA104">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BB104">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="BC104">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="BD104">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="BE104">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="BF104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ104">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -21245,7 +21245,7 @@
         <v>103</v>
       </c>
       <c r="H106" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -21842,7 +21842,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22197,7 +22197,7 @@
         <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H111" t="s">
         <v>109</v>
@@ -22579,10 +22579,10 @@
         <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -22961,7 +22961,7 @@
         <v>6</v>
       </c>
       <c r="G115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
         <v>77</v>
@@ -23152,7 +23152,7 @@
         <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H116" t="s">
         <v>95</v>
@@ -23725,7 +23725,7 @@
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H119" t="s">
         <v>79</v>
@@ -23901,7 +23901,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>5750726</v>
+        <v>5750728</v>
       </c>
       <c r="C120" t="s">
         <v>63</v>
@@ -23916,28 +23916,28 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H120" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O120" t="s">
         <v>200</v>
@@ -23946,145 +23946,145 @@
         <v>117</v>
       </c>
       <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
         <v>5</v>
       </c>
-      <c r="R120">
-        <v>3</v>
-      </c>
       <c r="S120">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T120">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U120">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V120">
         <v>7</v>
       </c>
       <c r="W120">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y120">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Z120">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA120">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB120">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC120">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AD120">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="AE120">
-        <v>7.69</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AF120">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG120">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH120">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI120">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AJ120">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AK120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AL120">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AM120">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AN120">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AO120">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AP120">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AR120">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS120">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="AT120">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AU120">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="AV120">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="AW120">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="AX120">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AY120">
         <v>11</v>
       </c>
       <c r="AZ120">
+        <v>7.5</v>
+      </c>
+      <c r="BA120">
+        <v>1.27</v>
+      </c>
+      <c r="BB120">
+        <v>1.48</v>
+      </c>
+      <c r="BC120">
+        <v>1.79</v>
+      </c>
+      <c r="BD120">
+        <v>2.22</v>
+      </c>
+      <c r="BE120">
+        <v>3.5</v>
+      </c>
+      <c r="BF120">
+        <v>9</v>
+      </c>
+      <c r="BG120">
         <v>8</v>
       </c>
-      <c r="BA120">
-        <v>1.31</v>
-      </c>
-      <c r="BB120">
-        <v>1.64</v>
-      </c>
-      <c r="BC120">
-        <v>2.01</v>
-      </c>
-      <c r="BD120">
-        <v>2.5</v>
-      </c>
-      <c r="BE120">
-        <v>3.9</v>
-      </c>
-      <c r="BF120">
-        <v>8</v>
-      </c>
-      <c r="BG120">
-        <v>5</v>
-      </c>
       <c r="BH120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ120">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK120">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:63">
@@ -24092,7 +24092,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5750727</v>
+        <v>5750729</v>
       </c>
       <c r="C121" t="s">
         <v>63</v>
@@ -24107,172 +24107,172 @@
         <v>6</v>
       </c>
       <c r="G121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O121" t="s">
         <v>201</v>
       </c>
       <c r="P121" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>4</v>
+      </c>
+      <c r="S121">
+        <v>7</v>
+      </c>
+      <c r="T121">
+        <v>2.3</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>5</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>2.75</v>
+      </c>
+      <c r="Y121">
+        <v>2.75</v>
+      </c>
+      <c r="Z121">
+        <v>1.4</v>
+      </c>
+      <c r="AA121">
         <v>8</v>
       </c>
-      <c r="R121">
+      <c r="AB121">
+        <v>1.08</v>
+      </c>
+      <c r="AC121">
+        <v>1.77</v>
+      </c>
+      <c r="AD121">
+        <v>3.15</v>
+      </c>
+      <c r="AE121">
+        <v>4.03</v>
+      </c>
+      <c r="AF121">
+        <v>1.05</v>
+      </c>
+      <c r="AG121">
+        <v>11</v>
+      </c>
+      <c r="AH121">
+        <v>1.3</v>
+      </c>
+      <c r="AI121">
+        <v>3.4</v>
+      </c>
+      <c r="AJ121">
+        <v>1.92</v>
+      </c>
+      <c r="AK121">
+        <v>1.7</v>
+      </c>
+      <c r="AL121">
+        <v>1.95</v>
+      </c>
+      <c r="AM121">
+        <v>1.8</v>
+      </c>
+      <c r="AN121">
+        <v>1.19</v>
+      </c>
+      <c r="AO121">
+        <v>1.27</v>
+      </c>
+      <c r="AP121">
+        <v>2.05</v>
+      </c>
+      <c r="AQ121">
+        <v>1.8</v>
+      </c>
+      <c r="AR121">
+        <v>2.2</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AT121">
+        <v>1.83</v>
+      </c>
+      <c r="AU121">
+        <v>2.23</v>
+      </c>
+      <c r="AV121">
+        <v>1.71</v>
+      </c>
+      <c r="AW121">
+        <v>3.94</v>
+      </c>
+      <c r="AX121">
+        <v>1.53</v>
+      </c>
+      <c r="AY121">
+        <v>7</v>
+      </c>
+      <c r="AZ121">
+        <v>3.25</v>
+      </c>
+      <c r="BA121">
+        <v>1.54</v>
+      </c>
+      <c r="BB121">
+        <v>1.94</v>
+      </c>
+      <c r="BC121">
+        <v>2.41</v>
+      </c>
+      <c r="BD121">
+        <v>2.6</v>
+      </c>
+      <c r="BE121">
+        <v>4.1</v>
+      </c>
+      <c r="BF121">
         <v>6</v>
       </c>
-      <c r="S121">
-        <v>14</v>
-      </c>
-      <c r="T121">
-        <v>1.5</v>
-      </c>
-      <c r="U121">
-        <v>2.88</v>
-      </c>
-      <c r="V121">
-        <v>15</v>
-      </c>
-      <c r="W121">
-        <v>1.25</v>
-      </c>
-      <c r="X121">
-        <v>3.75</v>
-      </c>
-      <c r="Y121">
-        <v>2.25</v>
-      </c>
-      <c r="Z121">
-        <v>1.57</v>
-      </c>
-      <c r="AA121">
-        <v>5.5</v>
-      </c>
-      <c r="AB121">
-        <v>1.14</v>
-      </c>
-      <c r="AC121">
-        <v>1.19</v>
-      </c>
-      <c r="AD121">
-        <v>4.96</v>
-      </c>
-      <c r="AE121">
-        <v>11.1</v>
-      </c>
-      <c r="AF121">
-        <v>1.01</v>
-      </c>
-      <c r="AG121">
-        <v>19</v>
-      </c>
-      <c r="AH121">
-        <v>1.17</v>
-      </c>
-      <c r="AI121">
-        <v>5</v>
-      </c>
-      <c r="AJ121">
-        <v>1.47</v>
-      </c>
-      <c r="AK121">
-        <v>2.5</v>
-      </c>
-      <c r="AL121">
-        <v>2.63</v>
-      </c>
-      <c r="AM121">
-        <v>1.44</v>
-      </c>
-      <c r="AN121">
-        <v>1.02</v>
-      </c>
-      <c r="AO121">
-        <v>1.07</v>
-      </c>
-      <c r="AP121">
-        <v>5.75</v>
-      </c>
-      <c r="AQ121">
-        <v>1.6</v>
-      </c>
-      <c r="AR121">
-        <v>0.8</v>
-      </c>
-      <c r="AS121">
-        <v>1.83</v>
-      </c>
-      <c r="AT121">
-        <v>0.67</v>
-      </c>
-      <c r="AU121">
-        <v>1.3</v>
-      </c>
-      <c r="AV121">
-        <v>0.87</v>
-      </c>
-      <c r="AW121">
-        <v>2.17</v>
-      </c>
-      <c r="AX121">
-        <v>1.01</v>
-      </c>
-      <c r="AY121">
-        <v>20</v>
-      </c>
-      <c r="AZ121">
-        <v>21</v>
-      </c>
-      <c r="BA121">
-        <v>1.23</v>
-      </c>
-      <c r="BB121">
-        <v>1.52</v>
-      </c>
-      <c r="BC121">
-        <v>1.81</v>
-      </c>
-      <c r="BD121">
-        <v>2.26</v>
-      </c>
-      <c r="BE121">
-        <v>2.63</v>
-      </c>
-      <c r="BF121">
+      <c r="BG121">
+        <v>2</v>
+      </c>
+      <c r="BH121">
         <v>10</v>
       </c>
-      <c r="BG121">
-        <v>3</v>
-      </c>
-      <c r="BH121">
-        <v>9</v>
-      </c>
       <c r="BI121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ121">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BK121">
         <v>6</v>
@@ -24283,7 +24283,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5750728</v>
+        <v>5750726</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24298,28 +24298,28 @@
         <v>6</v>
       </c>
       <c r="G122" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H122" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O122" t="s">
         <v>202</v>
@@ -24328,145 +24328,145 @@
         <v>117</v>
       </c>
       <c r="Q122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T122">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U122">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V122">
         <v>7</v>
       </c>
       <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3.25</v>
+      </c>
+      <c r="Y122">
+        <v>2.63</v>
+      </c>
+      <c r="Z122">
+        <v>1.44</v>
+      </c>
+      <c r="AA122">
+        <v>6.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>1.31</v>
+      </c>
+      <c r="AD122">
+        <v>4.21</v>
+      </c>
+      <c r="AE122">
+        <v>7.69</v>
+      </c>
+      <c r="AF122">
+        <v>1.03</v>
+      </c>
+      <c r="AG122">
+        <v>13</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.8</v>
+      </c>
+      <c r="AK122">
+        <v>2</v>
+      </c>
+      <c r="AL122">
+        <v>2</v>
+      </c>
+      <c r="AM122">
+        <v>1.75</v>
+      </c>
+      <c r="AN122">
+        <v>1.1</v>
+      </c>
+      <c r="AO122">
+        <v>1.19</v>
+      </c>
+      <c r="AP122">
+        <v>2.75</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>1</v>
+      </c>
+      <c r="AS122">
+        <v>2.17</v>
+      </c>
+      <c r="AT122">
+        <v>0.83</v>
+      </c>
+      <c r="AU122">
         <v>1.3</v>
       </c>
-      <c r="X122">
-        <v>3.4</v>
-      </c>
-      <c r="Y122">
-        <v>2.38</v>
-      </c>
-      <c r="Z122">
-        <v>1.53</v>
-      </c>
-      <c r="AA122">
-        <v>6</v>
-      </c>
-      <c r="AB122">
+      <c r="AV122">
+        <v>0.66</v>
+      </c>
+      <c r="AW122">
+        <v>1.96</v>
+      </c>
+      <c r="AX122">
         <v>1.13</v>
-      </c>
-      <c r="AC122">
-        <v>1.29</v>
-      </c>
-      <c r="AD122">
-        <v>4.35</v>
-      </c>
-      <c r="AE122">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AF122">
-        <v>1.02</v>
-      </c>
-      <c r="AG122">
-        <v>15</v>
-      </c>
-      <c r="AH122">
-        <v>1.2</v>
-      </c>
-      <c r="AI122">
-        <v>4.33</v>
-      </c>
-      <c r="AJ122">
-        <v>1.87</v>
-      </c>
-      <c r="AK122">
-        <v>1.95</v>
-      </c>
-      <c r="AL122">
-        <v>1.91</v>
-      </c>
-      <c r="AM122">
-        <v>1.91</v>
-      </c>
-      <c r="AN122">
-        <v>1.07</v>
-      </c>
-      <c r="AO122">
-        <v>1.15</v>
-      </c>
-      <c r="AP122">
-        <v>3.3</v>
-      </c>
-      <c r="AQ122">
-        <v>0.8</v>
-      </c>
-      <c r="AR122">
-        <v>0.8</v>
-      </c>
-      <c r="AS122">
-        <v>1.17</v>
-      </c>
-      <c r="AT122">
-        <v>0.67</v>
-      </c>
-      <c r="AU122">
-        <v>1.64</v>
-      </c>
-      <c r="AV122">
-        <v>0.54</v>
-      </c>
-      <c r="AW122">
-        <v>2.18</v>
-      </c>
-      <c r="AX122">
-        <v>1.14</v>
       </c>
       <c r="AY122">
         <v>11</v>
       </c>
       <c r="AZ122">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BA122">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BB122">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BC122">
-        <v>1.79</v>
+        <v>2.01</v>
       </c>
       <c r="BD122">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="BE122">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="BF122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
         <v>8</v>
       </c>
-      <c r="BH122">
-        <v>3</v>
-      </c>
       <c r="BI122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ122">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK122">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24474,7 +24474,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5750729</v>
+        <v>5750727</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -24489,172 +24489,172 @@
         <v>6</v>
       </c>
       <c r="G123" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H123" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
         <v>203</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="Q123">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R123">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S123">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="U123">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="V123">
+        <v>15</v>
+      </c>
+      <c r="W123">
+        <v>1.25</v>
+      </c>
+      <c r="X123">
+        <v>3.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.25</v>
+      </c>
+      <c r="Z123">
+        <v>1.57</v>
+      </c>
+      <c r="AA123">
+        <v>5.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.14</v>
+      </c>
+      <c r="AC123">
+        <v>1.19</v>
+      </c>
+      <c r="AD123">
+        <v>4.96</v>
+      </c>
+      <c r="AE123">
+        <v>11.1</v>
+      </c>
+      <c r="AF123">
+        <v>1.01</v>
+      </c>
+      <c r="AG123">
+        <v>19</v>
+      </c>
+      <c r="AH123">
+        <v>1.17</v>
+      </c>
+      <c r="AI123">
         <v>5</v>
       </c>
-      <c r="W123">
-        <v>1.4</v>
-      </c>
-      <c r="X123">
-        <v>2.75</v>
-      </c>
-      <c r="Y123">
-        <v>2.75</v>
-      </c>
-      <c r="Z123">
-        <v>1.4</v>
-      </c>
-      <c r="AA123">
-        <v>8</v>
-      </c>
-      <c r="AB123">
-        <v>1.08</v>
-      </c>
-      <c r="AC123">
-        <v>1.77</v>
-      </c>
-      <c r="AD123">
-        <v>3.15</v>
-      </c>
-      <c r="AE123">
-        <v>4.03</v>
-      </c>
-      <c r="AF123">
-        <v>1.05</v>
-      </c>
-      <c r="AG123">
-        <v>11</v>
-      </c>
-      <c r="AH123">
+      <c r="AJ123">
+        <v>1.47</v>
+      </c>
+      <c r="AK123">
+        <v>2.5</v>
+      </c>
+      <c r="AL123">
+        <v>2.63</v>
+      </c>
+      <c r="AM123">
+        <v>1.44</v>
+      </c>
+      <c r="AN123">
+        <v>1.02</v>
+      </c>
+      <c r="AO123">
+        <v>1.07</v>
+      </c>
+      <c r="AP123">
+        <v>5.75</v>
+      </c>
+      <c r="AQ123">
+        <v>1.6</v>
+      </c>
+      <c r="AR123">
+        <v>0.8</v>
+      </c>
+      <c r="AS123">
+        <v>1.83</v>
+      </c>
+      <c r="AT123">
+        <v>0.67</v>
+      </c>
+      <c r="AU123">
         <v>1.3</v>
       </c>
-      <c r="AI123">
-        <v>3.4</v>
-      </c>
-      <c r="AJ123">
-        <v>1.92</v>
-      </c>
-      <c r="AK123">
-        <v>1.7</v>
-      </c>
-      <c r="AL123">
-        <v>1.95</v>
-      </c>
-      <c r="AM123">
-        <v>1.8</v>
-      </c>
-      <c r="AN123">
-        <v>1.19</v>
-      </c>
-      <c r="AO123">
-        <v>1.27</v>
-      </c>
-      <c r="AP123">
-        <v>2.05</v>
-      </c>
-      <c r="AQ123">
-        <v>1.8</v>
-      </c>
-      <c r="AR123">
-        <v>2.2</v>
-      </c>
-      <c r="AS123">
-        <v>2</v>
-      </c>
-      <c r="AT123">
-        <v>1.83</v>
-      </c>
-      <c r="AU123">
-        <v>2.23</v>
-      </c>
       <c r="AV123">
-        <v>1.71</v>
+        <v>0.87</v>
       </c>
       <c r="AW123">
-        <v>3.94</v>
+        <v>2.17</v>
       </c>
       <c r="AX123">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="AY123">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AZ123">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="BA123">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="BB123">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="BC123">
-        <v>2.41</v>
+        <v>1.81</v>
       </c>
       <c r="BD123">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="BE123">
-        <v>4.1</v>
+        <v>2.63</v>
       </c>
       <c r="BF123">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ123">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BK123">
         <v>6</v>
@@ -24680,7 +24680,7 @@
         <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
         <v>94</v>
@@ -25406,22 +25406,22 @@
         <v>3.18</v>
       </c>
       <c r="BF127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG127">
         <v>6</v>
       </c>
       <c r="BH127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
         <v>7</v>
       </c>
-      <c r="BJ127">
-        <v>9</v>
-      </c>
       <c r="BK127">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
